--- a/ZBP_02_zasazeni_domacnosti.xlsx
+++ b/ZBP_02_zasazeni_domacnosti.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>trideni</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>5. 1. 2021</t>
+  </si>
+  <si>
+    <t>26. 1. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -173,10 +176,10 @@
     <t>Školství a kultura</t>
   </si>
   <si>
-    <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 12. 1. 2021</t>
+    <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 2. 2. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 12. 1. 2021</t>
+    <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 2. 2021</t>
   </si>
 </sst>
 </file>
@@ -551,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W68"/>
+  <dimension ref="A1:X68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,7 +562,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,16 +632,19 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
         <v>0.11</v>
@@ -700,16 +706,19 @@
       <c r="W2" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
         <v>0.19</v>
@@ -757,7 +766,7 @@
         <v>0.19</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="T3" t="n">
         <v>0.18</v>
@@ -766,21 +775,24 @@
         <v>0.18</v>
       </c>
       <c r="V3" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="W3" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
         <v>0.7</v>
@@ -828,7 +840,7 @@
         <v>0.7</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="T4" t="n">
         <v>0.7</v>
@@ -837,24 +849,27 @@
         <v>0.7</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="W4" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E5" t="n">
         <v>0.16</v>
@@ -902,7 +917,7 @@
         <v>0.1</v>
       </c>
       <c r="T5" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="U5" t="n">
         <v>0.09</v>
@@ -913,16 +928,19 @@
       <c r="W5" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
         <v>0.17</v>
@@ -958,7 +976,7 @@
         <v>0.15</v>
       </c>
       <c r="O6" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="P6" t="n">
         <v>0.16</v>
@@ -970,33 +988,36 @@
         <v>0.16</v>
       </c>
       <c r="S6" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="T6" t="n">
         <v>0.16</v>
       </c>
       <c r="U6" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="V6" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="W6" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+        <v>0.15</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="E7" t="n">
         <v>0.6799999999999999</v>
@@ -1029,7 +1050,7 @@
         <v>0.75</v>
       </c>
       <c r="O7" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="P7" t="n">
         <v>0.74</v>
@@ -1041,30 +1062,33 @@
         <v>0.74</v>
       </c>
       <c r="S7" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="T7" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="U7" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="V7" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="W7" t="n">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <v>0.74</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
         <v>0.09</v>
@@ -1118,7 +1142,7 @@
         <v>0.15</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="V8" t="n">
         <v>0.06</v>
@@ -1126,16 +1150,19 @@
       <c r="W8" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
         <v>0.1</v>
@@ -1189,7 +1216,7 @@
         <v>0.1</v>
       </c>
       <c r="U9" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="V9" t="n">
         <v>0.13</v>
@@ -1197,16 +1224,19 @@
       <c r="W9" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
       </c>
       <c r="D10" t="n">
         <v>0.8100000000000001</v>
@@ -1268,16 +1298,19 @@
       <c r="W10" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
         <v>0.1</v>
@@ -1325,7 +1358,7 @@
         <v>0.1</v>
       </c>
       <c r="S11" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="T11" t="n">
         <v>0.11</v>
@@ -1337,18 +1370,21 @@
         <v>0.1</v>
       </c>
       <c r="W11" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+        <v>0.11</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
         <v>0.24</v>
@@ -1410,16 +1446,19 @@
       <c r="W12" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
         <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
       </c>
       <c r="D13" t="n">
         <v>0.66</v>
@@ -1467,7 +1506,7 @@
         <v>0.66</v>
       </c>
       <c r="S13" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="T13" t="n">
         <v>0.6599999999999999</v>
@@ -1479,18 +1518,21 @@
         <v>0.6799999999999999</v>
       </c>
       <c r="W13" t="n">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
         <v>0.24</v>
@@ -1550,18 +1592,21 @@
         <v>0.22</v>
       </c>
       <c r="W14" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+        <v>0.24</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
         <v>0.19</v>
@@ -1609,30 +1654,33 @@
         <v>0.18</v>
       </c>
       <c r="S15" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="T15" t="n">
         <v>0.2</v>
       </c>
-      <c r="T15" t="n">
-        <v>0.21</v>
-      </c>
       <c r="U15" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="X15" t="n">
         <v>0.17</v>
       </c>
-      <c r="V15" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
       </c>
       <c r="D16" t="n">
         <v>0.5700000000000001</v>
@@ -1680,30 +1728,33 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="S16" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="T16" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="U16" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="V16" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="X16" t="n">
         <v>0.62</v>
       </c>
-      <c r="W16" t="n">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="n">
         <v>0.09</v>
@@ -1765,16 +1816,19 @@
       <c r="W17" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
         <v>0.17</v>
@@ -1825,27 +1879,30 @@
         <v>0.17</v>
       </c>
       <c r="T18" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="U18" t="n">
         <v>0.15</v>
       </c>
       <c r="V18" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="W18" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+        <v>0.15</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" t="n">
         <v>0.74</v>
@@ -1896,27 +1953,30 @@
         <v>0.74</v>
       </c>
       <c r="T19" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="U19" t="n">
         <v>0.77</v>
       </c>
       <c r="V19" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="W19" t="n">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+        <v>0.75</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n">
         <v>0.1</v>
@@ -1970,7 +2030,7 @@
         <v>0.15</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="V20" t="n">
         <v>0.05</v>
@@ -1978,16 +2038,19 @@
       <c r="W20" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="n">
         <v>0.11</v>
@@ -2041,7 +2104,7 @@
         <v>0.11</v>
       </c>
       <c r="U21" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="V21" t="n">
         <v>0.13</v>
@@ -2049,16 +2112,19 @@
       <c r="W21" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
         <v>0.79</v>
@@ -2112,7 +2178,7 @@
         <v>0.74</v>
       </c>
       <c r="U22" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="V22" t="n">
         <v>0.8200000000000001</v>
@@ -2120,16 +2186,19 @@
       <c r="W22" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="n">
         <v>0.14</v>
@@ -2191,16 +2260,19 @@
       <c r="W23" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
         <v>0.2</v>
@@ -2262,16 +2334,19 @@
       <c r="W24" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" t="n">
         <v>0.6599999999999999</v>
@@ -2333,16 +2408,19 @@
       <c r="W25" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" t="n">
         <v>0.13</v>
@@ -2390,7 +2468,7 @@
         <v>0.12</v>
       </c>
       <c r="S26" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="T26" t="n">
         <v>0.13</v>
@@ -2404,16 +2482,19 @@
       <c r="W26" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="n">
         <v>0.23</v>
@@ -2461,10 +2542,10 @@
         <v>0.23</v>
       </c>
       <c r="S27" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="T27" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="U27" t="n">
         <v>0.2</v>
@@ -2475,16 +2556,19 @@
       <c r="W27" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" t="n">
         <v>0.64</v>
@@ -2532,10 +2616,10 @@
         <v>0.65</v>
       </c>
       <c r="S28" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="T28" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="U28" t="n">
         <v>0.6799999999999999</v>
@@ -2546,16 +2630,19 @@
       <c r="W28" t="n">
         <v>0.6699999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28" t="n">
+        <v>0.6799999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29" t="n">
         <v>0.17</v>
@@ -2617,16 +2704,19 @@
       <c r="W29" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="n">
         <v>0.29</v>
@@ -2674,7 +2764,7 @@
         <v>0.28</v>
       </c>
       <c r="S30" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="T30" t="n">
         <v>0.27</v>
@@ -2683,21 +2773,24 @@
         <v>0.26</v>
       </c>
       <c r="V30" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="W30" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
+        <v>0.25</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" t="n">
         <v>0.54</v>
@@ -2745,7 +2838,7 @@
         <v>0.54</v>
       </c>
       <c r="S31" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="T31" t="n">
         <v>0.55</v>
@@ -2754,21 +2847,24 @@
         <v>0.58</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5599999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="W31" t="n">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D32" t="n">
         <v>0.09</v>
@@ -2822,7 +2918,7 @@
         <v>0.11</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="V32" t="n">
         <v>0.09</v>
@@ -2830,16 +2926,19 @@
       <c r="W32" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D33" t="n">
         <v>0.14</v>
@@ -2887,30 +2986,33 @@
         <v>0.17</v>
       </c>
       <c r="S33" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="T33" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="U33" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="V33" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="X33" t="n">
         <v>0.14</v>
       </c>
-      <c r="W33" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" t="n">
         <v>0.77</v>
@@ -2958,30 +3060,33 @@
         <v>0.74</v>
       </c>
       <c r="S34" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="T34" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="U34" t="n">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="V34" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="W34" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="X34" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D35" t="n">
         <v>0.03</v>
@@ -3043,16 +3148,19 @@
       <c r="W35" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" t="n">
         <v>0.06</v>
@@ -3100,10 +3208,10 @@
         <v>0.05</v>
       </c>
       <c r="S36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T36" t="n">
         <v>0.06</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0.07000000000000001</v>
       </c>
       <c r="U36" t="n">
         <v>0.05</v>
@@ -3114,16 +3222,19 @@
       <c r="W36" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" t="n">
         <v>0.91</v>
@@ -3171,10 +3282,10 @@
         <v>0.91</v>
       </c>
       <c r="S37" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="T37" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="U37" t="n">
         <v>0.9299999999999999</v>
@@ -3185,19 +3296,22 @@
       <c r="W37" t="n">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D38" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E38" t="n">
         <v>0.3</v>
@@ -3248,7 +3362,7 @@
         <v>0.17</v>
       </c>
       <c r="U38" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="V38" t="n">
         <v>0.14</v>
@@ -3256,16 +3370,19 @@
       <c r="W38" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D39" t="n">
         <v>0.25</v>
@@ -3313,33 +3430,36 @@
         <v>0.23</v>
       </c>
       <c r="S39" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="T39" t="n">
         <v>0.24</v>
       </c>
-      <c r="T39" t="n">
-        <v>0.25</v>
-      </c>
       <c r="U39" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="V39" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="W39" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="X39" t="n">
         <v>0.21</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="E40" t="n">
         <v>0.52</v>
@@ -3384,30 +3504,33 @@
         <v>0.59</v>
       </c>
       <c r="S40" t="n">
-        <v>0.5800000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="T40" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="U40" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="V40" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="W40" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
+        <v>0.63</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D41" t="n">
         <v>0.09</v>
@@ -3437,7 +3560,7 @@
         <v>0.1</v>
       </c>
       <c r="M41" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="N41" t="n">
         <v>0.09</v>
@@ -3469,16 +3592,19 @@
       <c r="W41" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D42" t="n">
         <v>0.17</v>
@@ -3540,16 +3666,19 @@
       <c r="W42" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" t="n">
         <v>0.74</v>
@@ -3579,7 +3708,7 @@
         <v>0.73</v>
       </c>
       <c r="M43" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="N43" t="n">
         <v>0.75</v>
@@ -3611,16 +3740,19 @@
       <c r="W43" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -3629,22 +3761,22 @@
         <v>0.98</v>
       </c>
       <c r="F44" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G44" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="H44" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="I44" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="J44" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="K44" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="L44" t="n">
         <v>0.85</v>
@@ -3659,7 +3791,7 @@
         <v>0.75</v>
       </c>
       <c r="P44" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="Q44" t="n">
         <v>0.8</v>
@@ -3671,7 +3803,7 @@
         <v>0.75</v>
       </c>
       <c r="T44" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="U44" t="n">
         <v>0.73</v>
@@ -3682,16 +3814,19 @@
       <c r="W44" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -3715,13 +3850,13 @@
         <v>0.05</v>
       </c>
       <c r="K45" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L45" t="n">
         <v>0.05</v>
       </c>
       <c r="M45" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="N45" t="n">
         <v>0.08</v>
@@ -3733,13 +3868,13 @@
         <v>0.08</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="R45" t="n">
         <v>0.13</v>
       </c>
       <c r="S45" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="T45" t="n">
         <v>0.11</v>
@@ -3753,16 +3888,19 @@
       <c r="W45" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -3771,19 +3909,19 @@
         <v>0.01000000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05999999999999994</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="H46" t="n">
-        <v>0.05999999999999994</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="I46" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="J46" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="K46" t="n">
         <v>0.09000000000000008</v>
@@ -3792,7 +3930,7 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="M46" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="N46" t="n">
         <v>0.17</v>
@@ -3801,19 +3939,19 @@
         <v>0.15</v>
       </c>
       <c r="P46" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.1299999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="R46" t="n">
         <v>0.13</v>
       </c>
       <c r="S46" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="T46" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="U46" t="n">
         <v>0.15</v>
@@ -3824,16 +3962,19 @@
       <c r="W46" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="X46" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
         <v>26</v>
-      </c>
-      <c r="C47" t="s">
-        <v>25</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -3863,7 +4004,7 @@
         <v>0.17</v>
       </c>
       <c r="M47" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="N47" t="n">
         <v>0.13</v>
@@ -3881,30 +4022,33 @@
         <v>0.12</v>
       </c>
       <c r="S47" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T47" t="n">
         <v>0.12</v>
       </c>
-      <c r="T47" t="n">
+      <c r="U47" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="V47" t="n">
         <v>0.13</v>
       </c>
-      <c r="U47" t="n">
+      <c r="W47" t="n">
         <v>0.15</v>
       </c>
-      <c r="V47" t="n">
+      <c r="X47" t="n">
         <v>0.14</v>
       </c>
-      <c r="W47" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -3928,16 +4072,16 @@
         <v>0.61</v>
       </c>
       <c r="K48" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L48" t="n">
         <v>0.59</v>
       </c>
-      <c r="L48" t="n">
+      <c r="M48" t="n">
         <v>0.6</v>
       </c>
-      <c r="M48" t="n">
-        <v>0.59</v>
-      </c>
       <c r="N48" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="O48" t="n">
         <v>0.59</v>
@@ -3946,16 +4090,16 @@
         <v>0.61</v>
       </c>
       <c r="Q48" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="R48" t="n">
         <v>0.63</v>
       </c>
-      <c r="R48" t="n">
-        <v>0.64</v>
-      </c>
       <c r="S48" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="T48" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="U48" t="n">
         <v>0.57</v>
@@ -3964,18 +4108,21 @@
         <v>0.58</v>
       </c>
       <c r="W48" t="n">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23">
+        <v>0.57</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -3999,16 +4146,16 @@
         <v>0.2</v>
       </c>
       <c r="K49" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L49" t="n">
         <v>0.24</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.23</v>
       </c>
       <c r="M49" t="n">
         <v>0.26</v>
       </c>
       <c r="N49" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="O49" t="n">
         <v>0.29</v>
@@ -4017,36 +4164,39 @@
         <v>0.27</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="R49" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="S49" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="T49" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="U49" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="W49" t="n">
         <v>0.28</v>
       </c>
-      <c r="V49" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="W49" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="X49" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -4055,7 +4205,7 @@
         <v>0.05</v>
       </c>
       <c r="F50" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G50" t="n">
         <v>0.04</v>
@@ -4108,16 +4258,19 @@
       <c r="W50" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="X50" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
         <v>27</v>
-      </c>
-      <c r="C51" t="s">
-        <v>26</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -4138,7 +4291,7 @@
         <v>0.08</v>
       </c>
       <c r="J51" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="K51" t="n">
         <v>0.09</v>
@@ -4165,7 +4318,7 @@
         <v>0.08</v>
       </c>
       <c r="S51" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="T51" t="n">
         <v>0.08</v>
@@ -4174,21 +4327,24 @@
         <v>0.08</v>
       </c>
       <c r="V51" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="W51" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -4197,7 +4353,7 @@
         <v>0.89</v>
       </c>
       <c r="F52" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="G52" t="n">
         <v>0.89</v>
@@ -4209,7 +4365,7 @@
         <v>0.88</v>
       </c>
       <c r="J52" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="K52" t="n">
         <v>0.88</v>
@@ -4236,7 +4392,7 @@
         <v>0.89</v>
       </c>
       <c r="S52" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="T52" t="n">
         <v>0.89</v>
@@ -4245,21 +4401,24 @@
         <v>0.89</v>
       </c>
       <c r="V52" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="W52" t="n">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23">
+        <v>0.9</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D53" t="n">
         <v>0.1</v>
@@ -4313,7 +4472,7 @@
         <v>0.16</v>
       </c>
       <c r="U53" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="V53" t="n">
         <v>0.11</v>
@@ -4321,16 +4480,19 @@
       <c r="W53" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="X53" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D54" t="n">
         <v>0.18</v>
@@ -4378,30 +4540,33 @@
         <v>0.18</v>
       </c>
       <c r="S54" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="T54" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="U54" t="n">
         <v>0.2</v>
       </c>
       <c r="V54" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="W54" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23">
+        <v>0.19</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" t="n">
         <v>0.72</v>
@@ -4449,30 +4614,33 @@
         <v>0.67</v>
       </c>
       <c r="S55" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="T55" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="U55" t="n">
-        <v>0.65</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="V55" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W55" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23">
+        <v>0.66</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -4534,16 +4702,19 @@
       <c r="W56" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="X56" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D57" t="n">
         <v>0.04</v>
@@ -4603,18 +4774,21 @@
         <v>0.1</v>
       </c>
       <c r="W57" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23">
+        <v>0.1</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" t="n">
         <v>0.96</v>
@@ -4674,18 +4848,21 @@
         <v>0.86</v>
       </c>
       <c r="W58" t="n">
-        <v>0.885</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23">
+        <v>0.895</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.905</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D59" t="n">
         <v>0.07000000000000001</v>
@@ -4730,7 +4907,7 @@
         <v>0.08</v>
       </c>
       <c r="R59" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="S59" t="n">
         <v>0.08</v>
@@ -4739,7 +4916,7 @@
         <v>0.09</v>
       </c>
       <c r="U59" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="V59" t="n">
         <v>0.07000000000000001</v>
@@ -4747,16 +4924,19 @@
       <c r="W59" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="60" spans="1:23">
+      <c r="X59" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C60" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D60" t="n">
         <v>0.23</v>
@@ -4771,7 +4951,7 @@
         <v>0.17</v>
       </c>
       <c r="H60" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I60" t="n">
         <v>0.21</v>
@@ -4798,7 +4978,7 @@
         <v>0.21</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="R60" t="n">
         <v>0.21</v>
@@ -4818,16 +4998,19 @@
       <c r="W60" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="61" spans="1:23">
+      <c r="X60" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" t="n">
         <v>0.7</v>
@@ -4842,7 +5025,7 @@
         <v>0.6799999999999999</v>
       </c>
       <c r="H61" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="I61" t="n">
         <v>0.62</v>
@@ -4869,10 +5052,10 @@
         <v>0.6799999999999999</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="R61" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S61" t="n">
         <v>0.6899999999999999</v>
@@ -4881,7 +5064,7 @@
         <v>0.71</v>
       </c>
       <c r="U61" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="V61" t="n">
         <v>0.73</v>
@@ -4889,16 +5072,19 @@
       <c r="W61" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="62" spans="1:23">
+      <c r="X61" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C62" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D62" t="n">
         <v>0.08</v>
@@ -4949,7 +5135,7 @@
         <v>0.08</v>
       </c>
       <c r="T62" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="U62" t="n">
         <v>0.06</v>
@@ -4960,16 +5146,19 @@
       <c r="W62" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="63" spans="1:23">
+      <c r="X62" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D63" t="n">
         <v>0.07000000000000001</v>
@@ -5017,30 +5206,33 @@
         <v>0.08</v>
       </c>
       <c r="S63" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="T63" t="n">
         <v>0.08</v>
       </c>
       <c r="U63" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="V63" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="X63" t="n">
         <v>0.06</v>
       </c>
-      <c r="W63" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23">
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" t="n">
         <v>0.85</v>
@@ -5088,30 +5280,33 @@
         <v>0.86</v>
       </c>
       <c r="S64" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="T64" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="U64" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W64" t="n">
         <v>0.86</v>
       </c>
-      <c r="V64" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="W64" t="n">
-        <v>0.8300000000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23">
+      <c r="X64" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D65" t="n">
         <v>0.09</v>
@@ -5173,16 +5368,19 @@
       <c r="W65" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="66" spans="1:23">
+      <c r="X65" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D66" t="n">
         <v>0.07000000000000001</v>
@@ -5230,7 +5428,7 @@
         <v>0.09</v>
       </c>
       <c r="S66" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="T66" t="n">
         <v>0.08</v>
@@ -5239,21 +5437,24 @@
         <v>0.05</v>
       </c>
       <c r="V66" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="X66" t="n">
         <v>0.09</v>
       </c>
-      <c r="W66" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23">
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" t="n">
         <v>0.84</v>
@@ -5301,7 +5502,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="S67" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="T67" t="n">
         <v>0.8200000000000001</v>
@@ -5310,15 +5511,18 @@
         <v>0.88</v>
       </c>
       <c r="V67" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="W67" t="n">
         <v>0.8300000000000001</v>
       </c>
-      <c r="W67" t="n">
+      <c r="X67" t="n">
         <v>0.8100000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -5332,7 +5536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5340,7 +5544,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5407,16 +5611,19 @@
       <c r="V1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D2" t="n">
         <v>2079</v>
@@ -5431,43 +5638,43 @@
         <v>2110</v>
       </c>
       <c r="H2" t="n">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="I2" t="n">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="J2" t="n">
         <v>1992</v>
       </c>
       <c r="K2" t="n">
-        <v>1949</v>
+        <v>1946</v>
       </c>
       <c r="L2" t="n">
-        <v>1901</v>
+        <v>1896</v>
       </c>
       <c r="M2" t="n">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="N2" t="n">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="O2" t="n">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="P2" t="n">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="Q2" t="n">
         <v>1928</v>
       </c>
       <c r="R2" t="n">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="S2" t="n">
         <v>1904</v>
       </c>
       <c r="T2" t="n">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="U2" t="n">
         <v>1751</v>
@@ -5475,16 +5682,19 @@
       <c r="V2" t="n">
         <v>1853</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" t="n">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D3" t="n">
         <v>981</v>
@@ -5499,10 +5709,10 @@
         <v>997</v>
       </c>
       <c r="H3" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I3" t="n">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="J3" t="n">
         <v>954</v>
@@ -5511,10 +5721,10 @@
         <v>917</v>
       </c>
       <c r="L3" t="n">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="M3" t="n">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="N3" t="n">
         <v>880</v>
@@ -5529,13 +5739,13 @@
         <v>919</v>
       </c>
       <c r="R3" t="n">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="S3" t="n">
         <v>898</v>
       </c>
       <c r="T3" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="U3" t="n">
         <v>829</v>
@@ -5543,13 +5753,16 @@
       <c r="V3" t="n">
         <v>880</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" t="n">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
         <v>218</v>
@@ -5611,13 +5824,16 @@
       <c r="V4" t="n">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
         <v>811</v>
@@ -5638,40 +5854,40 @@
         <v>689</v>
       </c>
       <c r="I5" t="n">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="J5" t="n">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K5" t="n">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="L5" t="n">
+        <v>587</v>
+      </c>
+      <c r="M5" t="n">
+        <v>596</v>
+      </c>
+      <c r="N5" t="n">
         <v>589</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
+        <v>583</v>
+      </c>
+      <c r="P5" t="n">
         <v>599</v>
-      </c>
-      <c r="N5" t="n">
-        <v>591</v>
-      </c>
-      <c r="O5" t="n">
-        <v>586</v>
-      </c>
-      <c r="P5" t="n">
-        <v>601</v>
       </c>
       <c r="Q5" t="n">
         <v>607</v>
       </c>
       <c r="R5" t="n">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="S5" t="n">
         <v>603</v>
       </c>
       <c r="T5" t="n">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="U5" t="n">
         <v>553</v>
@@ -5679,13 +5895,16 @@
       <c r="V5" t="n">
         <v>591</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" t="n">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
         <v>268</v>
@@ -5703,31 +5922,31 @@
         <v>238</v>
       </c>
       <c r="H6" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I6" t="n">
         <v>286</v>
       </c>
       <c r="J6" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K6" t="n">
         <v>269</v>
       </c>
       <c r="L6" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M6" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N6" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O6" t="n">
         <v>244</v>
       </c>
       <c r="P6" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q6" t="n">
         <v>248</v>
@@ -5747,13 +5966,16 @@
       <c r="V6" t="n">
         <v>232</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
         <v>1112</v>
@@ -5771,10 +5993,10 @@
         <v>944</v>
       </c>
       <c r="H7" t="n">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I7" t="n">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="J7" t="n">
         <v>894</v>
@@ -5783,16 +6005,16 @@
         <v>865</v>
       </c>
       <c r="L7" t="n">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="M7" t="n">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="N7" t="n">
         <v>829</v>
       </c>
       <c r="O7" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P7" t="n">
         <v>841</v>
@@ -5815,13 +6037,16 @@
       <c r="V7" t="n">
         <v>829</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
         <v>204</v>
@@ -5883,13 +6108,16 @@
       <c r="V8" t="n">
         <v>139</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
         <v>136</v>
@@ -5951,16 +6179,19 @@
       <c r="V9" t="n">
         <v>125</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="n">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D10" t="n">
         <v>851</v>
@@ -5975,43 +6206,43 @@
         <v>857</v>
       </c>
       <c r="H10" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I10" t="n">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="J10" t="n">
         <v>797</v>
       </c>
       <c r="K10" t="n">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="L10" t="n">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="M10" t="n">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="N10" t="n">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="O10" t="n">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="P10" t="n">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q10" t="n">
         <v>788</v>
       </c>
       <c r="R10" t="n">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="S10" t="n">
         <v>788</v>
       </c>
       <c r="T10" t="n">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="U10" t="n">
         <v>714</v>
@@ -6019,13 +6250,16 @@
       <c r="V10" t="n">
         <v>760</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" t="n">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="n">
         <v>1069</v>
@@ -6046,54 +6280,57 @@
         <v>988</v>
       </c>
       <c r="I11" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="J11" t="n">
         <v>925</v>
       </c>
       <c r="K11" t="n">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="L11" t="n">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="M11" t="n">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="N11" t="n">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="O11" t="n">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="P11" t="n">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="Q11" t="n">
         <v>897</v>
       </c>
       <c r="R11" t="n">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="S11" t="n">
         <v>881</v>
       </c>
       <c r="T11" t="n">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="U11" t="n">
         <v>818</v>
       </c>
       <c r="V11" t="n">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>868</v>
+      </c>
+      <c r="W11" t="n">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="n">
         <v>883</v>
@@ -6111,10 +6348,10 @@
         <v>729</v>
       </c>
       <c r="H12" t="n">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I12" t="n">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="J12" t="n">
         <v>674</v>
@@ -6123,7 +6360,7 @@
         <v>662</v>
       </c>
       <c r="L12" t="n">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="M12" t="n">
         <v>644</v>
@@ -6153,18 +6390,21 @@
         <v>592</v>
       </c>
       <c r="V12" t="n">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+        <v>621</v>
+      </c>
+      <c r="W12" t="n">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="n">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D13" t="n">
         <v>426</v>
@@ -6182,34 +6422,34 @@
         <v>423</v>
       </c>
       <c r="I13" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J13" t="n">
         <v>393</v>
       </c>
       <c r="K13" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L13" t="n">
         <v>374</v>
       </c>
       <c r="M13" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N13" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O13" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P13" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q13" t="n">
         <v>377</v>
       </c>
       <c r="R13" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S13" t="n">
         <v>380</v>
@@ -6221,15 +6461,18 @@
         <v>341</v>
       </c>
       <c r="V13" t="n">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+        <v>364</v>
+      </c>
+      <c r="W13" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="n">
         <v>688</v>
@@ -6291,16 +6534,19 @@
       <c r="V14" t="n">
         <v>527</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" t="n">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="n">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="D15" t="n">
         <v>1460</v>
@@ -6315,43 +6561,43 @@
         <v>1495</v>
       </c>
       <c r="H15" t="n">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="I15" t="n">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="J15" t="n">
         <v>1419</v>
       </c>
       <c r="K15" t="n">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="L15" t="n">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="M15" t="n">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="N15" t="n">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="O15" t="n">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="P15" t="n">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="Q15" t="n">
         <v>1385</v>
       </c>
       <c r="R15" t="n">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="S15" t="n">
         <v>1366</v>
       </c>
       <c r="T15" t="n">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="U15" t="n">
         <v>1260</v>
@@ -6359,43 +6605,46 @@
       <c r="V15" t="n">
         <v>1326</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" t="n">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D16" t="n">
         <v>206</v>
       </c>
       <c r="E16" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F16" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G16" t="n">
         <v>227</v>
       </c>
       <c r="H16" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I16" t="n">
         <v>233</v>
       </c>
       <c r="J16" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K16" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L16" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M16" t="n">
         <v>206</v>
@@ -6407,16 +6656,16 @@
         <v>197</v>
       </c>
       <c r="P16" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q16" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="R16" t="n">
         <v>206</v>
       </c>
       <c r="S16" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="T16" t="n">
         <v>186</v>
@@ -6425,66 +6674,69 @@
         <v>187</v>
       </c>
       <c r="V16" t="n">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+        <v>201</v>
+      </c>
+      <c r="W16" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="n">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D17" t="n">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E17" t="n">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F17" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="G17" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H17" t="n">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="I17" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J17" t="n">
+        <v>370</v>
+      </c>
+      <c r="K17" t="n">
+        <v>374</v>
+      </c>
+      <c r="L17" t="n">
+        <v>373</v>
+      </c>
+      <c r="M17" t="n">
+        <v>356</v>
+      </c>
+      <c r="N17" t="n">
+        <v>354</v>
+      </c>
+      <c r="O17" t="n">
+        <v>350</v>
+      </c>
+      <c r="P17" t="n">
+        <v>370</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>365</v>
+      </c>
+      <c r="R17" t="n">
+        <v>346</v>
+      </c>
+      <c r="S17" t="n">
         <v>367</v>
-      </c>
-      <c r="K17" t="n">
-        <v>372</v>
-      </c>
-      <c r="L17" t="n">
-        <v>370</v>
-      </c>
-      <c r="M17" t="n">
-        <v>353</v>
-      </c>
-      <c r="N17" t="n">
-        <v>355</v>
-      </c>
-      <c r="O17" t="n">
-        <v>348</v>
-      </c>
-      <c r="P17" t="n">
-        <v>367</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>362</v>
-      </c>
-      <c r="R17" t="n">
-        <v>344</v>
-      </c>
-      <c r="S17" t="n">
-        <v>364</v>
       </c>
       <c r="T17" t="n">
         <v>333</v>
@@ -6493,86 +6745,92 @@
         <v>314</v>
       </c>
       <c r="V17" t="n">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+        <v>352</v>
+      </c>
+      <c r="W17" t="n">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="n">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="D18" t="n">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="E18" t="n">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="F18" t="n">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="G18" t="n">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="H18" t="n">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="I18" t="n">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="J18" t="n">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="K18" t="n">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="L18" t="n">
-        <v>1326</v>
+        <v>1316</v>
       </c>
       <c r="M18" t="n">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="N18" t="n">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="O18" t="n">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="P18" t="n">
-        <v>1342</v>
+        <v>1335</v>
       </c>
       <c r="Q18" t="n">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="R18" t="n">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="S18" t="n">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="T18" t="n">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="U18" t="n">
         <v>1250</v>
       </c>
       <c r="V18" t="n">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+        <v>1300</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" t="n">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D19" t="n">
         <v>376</v>
@@ -6596,7 +6854,7 @@
         <v>352</v>
       </c>
       <c r="K19" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L19" t="n">
         <v>334</v>
@@ -6631,13 +6889,16 @@
       <c r="V19" t="n">
         <v>340</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19" t="n">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" t="n">
         <v>116</v>
@@ -6649,7 +6910,7 @@
         <v>103</v>
       </c>
       <c r="F20" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G20" t="n">
         <v>99</v>
@@ -6667,16 +6928,16 @@
         <v>95</v>
       </c>
       <c r="L20" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M20" t="n">
+        <v>88</v>
+      </c>
+      <c r="N20" t="n">
+        <v>91</v>
+      </c>
+      <c r="O20" t="n">
         <v>89</v>
-      </c>
-      <c r="N20" t="n">
-        <v>92</v>
-      </c>
-      <c r="O20" t="n">
-        <v>90</v>
       </c>
       <c r="P20" t="n">
         <v>94</v>
@@ -6688,7 +6949,7 @@
         <v>92</v>
       </c>
       <c r="S20" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T20" t="n">
         <v>89</v>
@@ -6699,16 +6960,19 @@
       <c r="V20" t="n">
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" t="n">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D21" t="n">
         <v>349</v>
@@ -6720,13 +6984,13 @@
         <v>387</v>
       </c>
       <c r="G21" t="n">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H21" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I21" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J21" t="n">
         <v>337</v>
@@ -6735,48 +6999,51 @@
         <v>330</v>
       </c>
       <c r="L21" t="n">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M21" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N21" t="n">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O21" t="n">
         <v>305</v>
       </c>
       <c r="P21" t="n">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q21" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="R21" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="S21" t="n">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="T21" t="n">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="U21" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="V21" t="n">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+        <v>296</v>
+      </c>
+      <c r="W21" t="n">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D22" t="n">
         <v>188</v>
@@ -6788,7 +7055,7 @@
         <v>204</v>
       </c>
       <c r="G22" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H22" t="n">
         <v>194</v>
@@ -6806,42 +7073,45 @@
         <v>163</v>
       </c>
       <c r="M22" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N22" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O22" t="n">
         <v>152</v>
       </c>
       <c r="P22" t="n">
+        <v>169</v>
+      </c>
+      <c r="Q22" t="n">
         <v>167</v>
       </c>
-      <c r="Q22" t="n">
-        <v>165</v>
-      </c>
       <c r="R22" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="S22" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="T22" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="U22" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="V22" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
+        <v>162</v>
+      </c>
+      <c r="W22" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" t="n">
         <v>132</v>
@@ -6853,13 +7123,13 @@
         <v>117</v>
       </c>
       <c r="F23" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G23" t="n">
         <v>108</v>
       </c>
       <c r="H23" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I23" t="n">
         <v>114</v>
@@ -6874,16 +7144,16 @@
         <v>103</v>
       </c>
       <c r="M23" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N23" t="n">
         <v>103</v>
       </c>
       <c r="O23" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P23" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q23" t="n">
         <v>95</v>
@@ -6892,10 +7162,10 @@
         <v>96</v>
       </c>
       <c r="S23" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="T23" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U23" t="n">
         <v>85</v>
@@ -6903,10 +7173,13 @@
       <c r="V23" t="n">
         <v>98</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -6929,6 +7202,7 @@
       <c r="T24" t="s"/>
       <c r="U24" t="s"/>
       <c r="V24" t="s"/>
+      <c r="W24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_02_zasazeni_domacnosti.xlsx
+++ b/ZBP_02_zasazeni_domacnosti.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>trideni</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>26. 1. 2021</t>
+  </si>
+  <si>
+    <t>16. 2. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -176,10 +179,10 @@
     <t>Školství a kultura</t>
   </si>
   <si>
-    <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 2. 2. 2021</t>
+    <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 23. 2. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 2. 2021</t>
+    <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 2. 2021</t>
   </si>
 </sst>
 </file>
@@ -554,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X68"/>
+  <dimension ref="A1:Y68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,7 +565,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,19 +638,22 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E2" t="n">
         <v>0.18</v>
@@ -707,21 +713,24 @@
         <v>0.12</v>
       </c>
       <c r="X2" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+        <v>0.11</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="E3" t="n">
         <v>0.19</v>
@@ -781,21 +790,24 @@
         <v>0.17</v>
       </c>
       <c r="X3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Y3" t="n">
         <v>0.17</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="E4" t="n">
         <v>0.63</v>
@@ -804,7 +816,7 @@
         <v>0.64</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="H4" t="n">
         <v>0.65</v>
@@ -819,7 +831,7 @@
         <v>0.67</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="M4" t="n">
         <v>0.6899999999999999</v>
@@ -857,19 +869,22 @@
       <c r="X4" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>0.16</v>
@@ -899,7 +914,7 @@
         <v>0.11</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="O5" t="n">
         <v>0.09</v>
@@ -931,19 +946,22 @@
       <c r="X5" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="E6" t="n">
         <v>0.16</v>
@@ -961,7 +979,7 @@
         <v>0.16</v>
       </c>
       <c r="J6" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="K6" t="n">
         <v>0.17</v>
@@ -970,7 +988,7 @@
         <v>0.16</v>
       </c>
       <c r="M6" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="N6" t="n">
         <v>0.15</v>
@@ -988,7 +1006,7 @@
         <v>0.16</v>
       </c>
       <c r="S6" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="T6" t="n">
         <v>0.16</v>
@@ -1000,30 +1018,33 @@
         <v>0.15</v>
       </c>
       <c r="W6" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="X6" t="n">
         <v>0.15</v>
       </c>
-      <c r="X6" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
       <c r="D7" t="n">
-        <v>0.73</v>
+        <v>0.78</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="G7" t="n">
         <v>0.6899999999999999</v>
@@ -1035,7 +1056,7 @@
         <v>0.71</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="K7" t="n">
         <v>0.71</v>
@@ -1044,10 +1065,10 @@
         <v>0.74</v>
       </c>
       <c r="M7" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="N7" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="O7" t="n">
         <v>0.75</v>
@@ -1062,7 +1083,7 @@
         <v>0.74</v>
       </c>
       <c r="S7" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="T7" t="n">
         <v>0.74</v>
@@ -1074,24 +1095,27 @@
         <v>0.76</v>
       </c>
       <c r="W7" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Y7" t="n">
         <v>0.74</v>
       </c>
-      <c r="X7" t="n">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E8" t="n">
         <v>0.25</v>
@@ -1100,7 +1124,7 @@
         <v>0.27</v>
       </c>
       <c r="G8" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="H8" t="n">
         <v>0.2</v>
@@ -1118,7 +1142,7 @@
         <v>0.12</v>
       </c>
       <c r="M8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="N8" t="n">
         <v>0.1</v>
@@ -1133,7 +1157,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="R8" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="S8" t="n">
         <v>0.13</v>
@@ -1145,27 +1169,30 @@
         <v>0.06</v>
       </c>
       <c r="V8" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="W8" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="X8" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E9" t="n">
         <v>0.15</v>
@@ -1227,16 +1254,19 @@
       <c r="X9" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
       </c>
       <c r="D10" t="n">
         <v>0.8100000000000001</v>
@@ -1248,13 +1278,13 @@
         <v>0.6</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="H10" t="n">
         <v>0.73</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="J10" t="n">
         <v>0.73</v>
@@ -1266,7 +1296,7 @@
         <v>0.75</v>
       </c>
       <c r="M10" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="N10" t="n">
         <v>0.79</v>
@@ -1281,7 +1311,7 @@
         <v>0.78</v>
       </c>
       <c r="R10" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="S10" t="n">
         <v>0.75</v>
@@ -1293,27 +1323,30 @@
         <v>0.78</v>
       </c>
       <c r="V10" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="W10" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="X10" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E11" t="n">
         <v>0.14</v>
@@ -1370,24 +1403,27 @@
         <v>0.1</v>
       </c>
       <c r="W11" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="X11" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="E12" t="n">
         <v>0.25</v>
@@ -1449,19 +1485,22 @@
       <c r="X12" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
       <c r="D13" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="E13" t="n">
         <v>0.61</v>
@@ -1473,7 +1512,7 @@
         <v>0.66</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="I13" t="n">
         <v>0.66</v>
@@ -1488,16 +1527,16 @@
         <v>0.67</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="N13" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="P13" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="Q13" t="n">
         <v>0.6899999999999999</v>
@@ -1509,33 +1548,36 @@
         <v>0.66</v>
       </c>
       <c r="T13" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="U13" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="W13" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="X13" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="E14" t="n">
         <v>0.36</v>
@@ -1556,10 +1598,10 @@
         <v>0.34</v>
       </c>
       <c r="K14" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="M14" t="n">
         <v>0.29</v>
@@ -1568,7 +1610,7 @@
         <v>0.23</v>
       </c>
       <c r="O14" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="P14" t="n">
         <v>0.22</v>
@@ -1577,39 +1619,42 @@
         <v>0.23</v>
       </c>
       <c r="R14" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="S14" t="n">
         <v>0.22</v>
       </c>
       <c r="T14" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="U14" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="V14" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="W14" t="n">
         <v>0.24</v>
       </c>
       <c r="X14" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+        <v>0.2</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="E15" t="n">
         <v>0.17</v>
@@ -1618,7 +1663,7 @@
         <v>0.13</v>
       </c>
       <c r="G15" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="H15" t="n">
         <v>0.13</v>
@@ -1627,63 +1672,66 @@
         <v>0.11</v>
       </c>
       <c r="J15" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="K15" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="L15" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="M15" t="n">
         <v>0.15</v>
       </c>
       <c r="N15" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="O15" t="n">
         <v>0.19</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>0.2</v>
       </c>
-      <c r="P15" t="n">
-        <v>0.21</v>
-      </c>
       <c r="Q15" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="R15" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="S15" t="n">
         <v>0.18</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="U15" t="n">
         <v>0.15</v>
       </c>
       <c r="V15" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="W15" t="n">
         <v>0.15</v>
       </c>
-      <c r="W15" t="n">
-        <v>0.13</v>
-      </c>
       <c r="X15" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+        <v>0.18</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
       <c r="D16" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="E16" t="n">
         <v>0.47</v>
@@ -1692,7 +1740,7 @@
         <v>0.49</v>
       </c>
       <c r="G16" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="H16" t="n">
         <v>0.54</v>
@@ -1701,7 +1749,7 @@
         <v>0.53</v>
       </c>
       <c r="J16" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="K16" t="n">
         <v>0.51</v>
@@ -1713,51 +1761,54 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="N16" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="O16" t="n">
         <v>0.57</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="Q16" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="R16" t="n">
         <v>0.58</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.5600000000000001</v>
       </c>
       <c r="S16" t="n">
         <v>0.6</v>
       </c>
       <c r="T16" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="U16" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="V16" t="n">
         <v>0.63</v>
       </c>
       <c r="W16" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="X16" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="E17" t="n">
         <v>0.16</v>
@@ -1769,7 +1820,7 @@
         <v>0.14</v>
       </c>
       <c r="H17" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I17" t="n">
         <v>0.12</v>
@@ -1784,7 +1835,7 @@
         <v>0.09</v>
       </c>
       <c r="M17" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="N17" t="n">
         <v>0.09</v>
@@ -1819,19 +1870,22 @@
       <c r="X17" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="E18" t="n">
         <v>0.16</v>
@@ -1888,27 +1942,30 @@
         <v>0.15</v>
       </c>
       <c r="W18" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="X18" t="n">
         <v>0.15</v>
       </c>
-      <c r="X18" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" t="n">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="F19" t="n">
         <v>0.6899999999999999</v>
@@ -1917,7 +1974,7 @@
         <v>0.7</v>
       </c>
       <c r="H19" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="I19" t="n">
         <v>0.71</v>
@@ -1932,7 +1989,7 @@
         <v>0.76</v>
       </c>
       <c r="M19" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="N19" t="n">
         <v>0.76</v>
@@ -1962,24 +2019,27 @@
         <v>0.77</v>
       </c>
       <c r="W19" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="Y19" t="n">
         <v>0.75</v>
       </c>
-      <c r="X19" t="n">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E20" t="n">
         <v>0.26</v>
@@ -1988,7 +2048,7 @@
         <v>0.26</v>
       </c>
       <c r="G20" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="H20" t="n">
         <v>0.18</v>
@@ -2006,7 +2066,7 @@
         <v>0.13</v>
       </c>
       <c r="M20" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="N20" t="n">
         <v>0.1</v>
@@ -2015,13 +2075,13 @@
         <v>0.08</v>
       </c>
       <c r="P20" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="Q20" t="n">
         <v>0.06</v>
       </c>
       <c r="R20" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="S20" t="n">
         <v>0.13</v>
@@ -2033,27 +2093,30 @@
         <v>0.05</v>
       </c>
       <c r="V20" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="W20" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="X20" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E21" t="n">
         <v>0.16</v>
@@ -2110,24 +2173,27 @@
         <v>0.13</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="X21" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="E22" t="n">
         <v>0.58</v>
@@ -2136,13 +2202,13 @@
         <v>0.6</v>
       </c>
       <c r="G22" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="H22" t="n">
         <v>0.76</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="J22" t="n">
         <v>0.73</v>
@@ -2154,22 +2220,22 @@
         <v>0.74</v>
       </c>
       <c r="M22" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="N22" t="n">
         <v>0.8</v>
       </c>
       <c r="O22" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="P22" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="Q22" t="n">
         <v>0.79</v>
       </c>
       <c r="R22" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="S22" t="n">
         <v>0.75</v>
@@ -2181,27 +2247,30 @@
         <v>0.78</v>
       </c>
       <c r="V22" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="W22" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="X22" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Y22" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E23" t="n">
         <v>0.26</v>
@@ -2210,7 +2279,7 @@
         <v>0.3</v>
       </c>
       <c r="G23" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="H23" t="n">
         <v>0.32</v>
@@ -2228,7 +2297,7 @@
         <v>0.22</v>
       </c>
       <c r="M23" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="N23" t="n">
         <v>0.18</v>
@@ -2263,16 +2332,19 @@
       <c r="X23" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" t="n">
         <v>0.2</v>
@@ -2302,7 +2374,7 @@
         <v>0.17</v>
       </c>
       <c r="M24" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="N24" t="n">
         <v>0.18</v>
@@ -2337,34 +2409,37 @@
       <c r="X24" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="Y24" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="E25" t="n">
         <v>0.53</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5800000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="H25" t="n">
         <v>0.53</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5900000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="J25" t="n">
         <v>0.59</v>
@@ -2376,7 +2451,7 @@
         <v>0.61</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="N25" t="n">
         <v>0.64</v>
@@ -2400,7 +2475,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="U25" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="V25" t="n">
         <v>0.61</v>
@@ -2411,19 +2486,22 @@
       <c r="X25" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="Y25" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E26" t="n">
         <v>0.18</v>
@@ -2480,24 +2558,27 @@
         <v>0.11</v>
       </c>
       <c r="W26" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="X26" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="Y26" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="E27" t="n">
         <v>0.23</v>
@@ -2506,7 +2587,7 @@
         <v>0.2</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="H27" t="n">
         <v>0.19</v>
@@ -2559,19 +2640,22 @@
       <c r="X27" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="Y27" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="E28" t="n">
         <v>0.59</v>
@@ -2580,7 +2664,7 @@
         <v>0.61</v>
       </c>
       <c r="G28" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="H28" t="n">
         <v>0.63</v>
@@ -2598,10 +2682,10 @@
         <v>0.64</v>
       </c>
       <c r="M28" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="N28" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="O28" t="n">
         <v>0.66</v>
@@ -2622,30 +2706,33 @@
         <v>0.65</v>
       </c>
       <c r="U28" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="V28" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="W28" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="X28" t="n">
-        <v>0.6799999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
+        <v>0.68</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="E29" t="n">
         <v>0.26</v>
@@ -2654,10 +2741,10 @@
         <v>0.27</v>
       </c>
       <c r="G29" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="H29" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I29" t="n">
         <v>0.23</v>
@@ -2681,13 +2768,13 @@
         <v>0.16</v>
       </c>
       <c r="P29" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q29" t="n">
         <v>0.15</v>
       </c>
       <c r="R29" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="S29" t="n">
         <v>0.18</v>
@@ -2707,19 +2794,22 @@
       <c r="X29" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="Y29" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="E30" t="n">
         <v>0.27</v>
@@ -2731,7 +2821,7 @@
         <v>0.25</v>
       </c>
       <c r="H30" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="I30" t="n">
         <v>0.26</v>
@@ -2755,7 +2845,7 @@
         <v>0.27</v>
       </c>
       <c r="P30" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="Q30" t="n">
         <v>0.26</v>
@@ -2773,27 +2863,30 @@
         <v>0.26</v>
       </c>
       <c r="V30" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="W30" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="X30" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="31" spans="1:24">
+      <c r="Y30" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E31" t="n">
         <v>0.47</v>
@@ -2802,10 +2895,10 @@
         <v>0.49</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H31" t="n">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="I31" t="n">
         <v>0.51</v>
@@ -2835,7 +2928,7 @@
         <v>0.59</v>
       </c>
       <c r="R31" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="S31" t="n">
         <v>0.54</v>
@@ -2847,27 +2940,30 @@
         <v>0.58</v>
       </c>
       <c r="V31" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W31" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="X31" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="32" spans="1:24">
+      <c r="Y31" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E32" t="n">
         <v>0.16</v>
@@ -2929,16 +3025,19 @@
       <c r="X32" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="33" spans="1:24">
+      <c r="Y32" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" t="n">
         <v>0.14</v>
@@ -2974,7 +3073,7 @@
         <v>0.14</v>
       </c>
       <c r="O33" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="P33" t="n">
         <v>0.16</v>
@@ -2998,24 +3097,27 @@
         <v>0.13</v>
       </c>
       <c r="W33" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="X33" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="34" spans="1:24">
+      <c r="Y33" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D34" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="E34" t="n">
         <v>0.6899999999999999</v>
@@ -3048,7 +3150,7 @@
         <v>0.77</v>
       </c>
       <c r="O34" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="P34" t="n">
         <v>0.72</v>
@@ -3072,24 +3174,27 @@
         <v>0.78</v>
       </c>
       <c r="W34" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="X34" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="35" spans="1:24">
+      <c r="Y34" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D35" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E35" t="n">
         <v>0.05</v>
@@ -3151,16 +3256,19 @@
       <c r="X35" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="36" spans="1:24">
+      <c r="Y35" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" t="n">
         <v>0.06</v>
@@ -3184,7 +3292,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="L36" t="n">
         <v>0.07000000000000001</v>
@@ -3208,7 +3316,7 @@
         <v>0.05</v>
       </c>
       <c r="S36" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="T36" t="n">
         <v>0.06</v>
@@ -3217,7 +3325,7 @@
         <v>0.05</v>
       </c>
       <c r="V36" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="W36" t="n">
         <v>0.06</v>
@@ -3225,19 +3333,22 @@
       <c r="X36" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:24">
+      <c r="Y36" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D37" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="E37" t="n">
         <v>0.85</v>
@@ -3258,7 +3369,7 @@
         <v>0.89</v>
       </c>
       <c r="K37" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="L37" t="n">
         <v>0.89</v>
@@ -3282,16 +3393,16 @@
         <v>0.91</v>
       </c>
       <c r="S37" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="T37" t="n">
         <v>0.9</v>
       </c>
       <c r="U37" t="n">
-        <v>0.9299999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="V37" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="W37" t="n">
         <v>0.92</v>
@@ -3299,19 +3410,22 @@
       <c r="X37" t="n">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="38" spans="1:24">
+      <c r="Y37" t="n">
+        <v>0.915</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="E38" t="n">
         <v>0.3</v>
@@ -3332,7 +3446,7 @@
         <v>0.27</v>
       </c>
       <c r="K38" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="L38" t="n">
         <v>0.22</v>
@@ -3368,21 +3482,24 @@
         <v>0.14</v>
       </c>
       <c r="W38" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="X38" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="39" spans="1:24">
+      <c r="Y38" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" t="n">
         <v>0.25</v>
@@ -3397,7 +3514,7 @@
         <v>0.17</v>
       </c>
       <c r="H39" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I39" t="n">
         <v>0.19</v>
@@ -3412,7 +3529,7 @@
         <v>0.21</v>
       </c>
       <c r="M39" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="N39" t="n">
         <v>0.19</v>
@@ -3421,16 +3538,16 @@
         <v>0.22</v>
       </c>
       <c r="P39" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="Q39" t="n">
         <v>0.25</v>
       </c>
       <c r="R39" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="S39" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="T39" t="n">
         <v>0.24</v>
@@ -3442,24 +3559,27 @@
         <v>0.21</v>
       </c>
       <c r="W39" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="X39" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24">
+        <v>0.23</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="E40" t="n">
         <v>0.52</v>
@@ -3468,10 +3588,10 @@
         <v>0.53</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5599999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="I40" t="n">
         <v>0.54</v>
@@ -3480,13 +3600,13 @@
         <v>0.53</v>
       </c>
       <c r="K40" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L40" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="M40" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="N40" t="n">
         <v>0.63</v>
@@ -3495,16 +3615,16 @@
         <v>0.62</v>
       </c>
       <c r="P40" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="Q40" t="n">
         <v>0.59</v>
       </c>
       <c r="R40" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="S40" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="T40" t="n">
         <v>0.59</v>
@@ -3516,24 +3636,27 @@
         <v>0.65</v>
       </c>
       <c r="W40" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="X40" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24">
+        <v>0.6</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E41" t="n">
         <v>0.14</v>
@@ -3595,19 +3718,22 @@
       <c r="X41" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="42" spans="1:24">
+      <c r="Y41" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="E42" t="n">
         <v>0.2</v>
@@ -3649,7 +3775,7 @@
         <v>0.16</v>
       </c>
       <c r="R42" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="S42" t="n">
         <v>0.18</v>
@@ -3661,7 +3787,7 @@
         <v>0.16</v>
       </c>
       <c r="V42" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="W42" t="n">
         <v>0.16</v>
@@ -3669,22 +3795,25 @@
       <c r="X42" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="43" spans="1:24">
+      <c r="Y42" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D43" t="n">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="F43" t="n">
         <v>0.6899999999999999</v>
@@ -3723,7 +3852,7 @@
         <v>0.75</v>
       </c>
       <c r="R43" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="S43" t="n">
         <v>0.72</v>
@@ -3735,7 +3864,7 @@
         <v>0.76</v>
       </c>
       <c r="V43" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="W43" t="n">
         <v>0.74</v>
@@ -3743,16 +3872,19 @@
       <c r="X43" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="44" spans="1:24">
+      <c r="Y43" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -3761,31 +3893,31 @@
         <v>0.98</v>
       </c>
       <c r="F44" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G44" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H44" t="n">
         <v>0.91</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>0.89</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="M44" t="n">
         <v>0.87</v>
       </c>
-      <c r="J44" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.85</v>
-      </c>
       <c r="N44" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="O44" t="n">
         <v>0.75</v>
@@ -3803,7 +3935,7 @@
         <v>0.75</v>
       </c>
       <c r="T44" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="U44" t="n">
         <v>0.73</v>
@@ -3812,21 +3944,24 @@
         <v>0.71</v>
       </c>
       <c r="W44" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="X44" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24">
+        <v>0.72</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -3838,13 +3973,13 @@
         <v>0.01</v>
       </c>
       <c r="G45" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H45" t="n">
         <v>0.03</v>
       </c>
       <c r="I45" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J45" t="n">
         <v>0.05</v>
@@ -3853,7 +3988,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="L45" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="M45" t="n">
         <v>0.04</v>
@@ -3862,13 +3997,13 @@
         <v>0.08</v>
       </c>
       <c r="O45" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="P45" t="n">
         <v>0.08</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R45" t="n">
         <v>0.13</v>
@@ -3886,72 +4021,75 @@
         <v>0.12</v>
       </c>
       <c r="W45" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="X45" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24">
+        <v>0.13</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="F46" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.01</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.05</v>
       </c>
       <c r="H46" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.06</v>
       </c>
       <c r="I46" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.05</v>
       </c>
       <c r="J46" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="K46" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L46" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.08</v>
       </c>
       <c r="M46" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="N46" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="O46" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="P46" t="n">
         <v>0.14</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="R46" t="n">
         <v>0.13</v>
       </c>
       <c r="S46" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="T46" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="U46" t="n">
         <v>0.15</v>
@@ -3960,205 +4098,214 @@
         <v>0.17</v>
       </c>
       <c r="W46" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="X46" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Y46" t="n">
         <v>0.16</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" t="s">
         <v>27</v>
-      </c>
-      <c r="C47" t="s">
-        <v>26</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="F47" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="G47" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="H47" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="J47" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="K47" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="L47" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="M47" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="N47" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="O47" t="n">
         <v>0.12</v>
       </c>
       <c r="P47" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U47" t="n">
         <v>0.12</v>
       </c>
-      <c r="Q47" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R47" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="S47" t="n">
+      <c r="V47" t="n">
         <v>0.11</v>
       </c>
-      <c r="T47" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="U47" t="n">
+      <c r="W47" t="n">
         <v>0.14</v>
       </c>
-      <c r="V47" t="n">
+      <c r="X47" t="n">
         <v>0.13</v>
       </c>
-      <c r="W47" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="X47" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24">
+      <c r="Y47" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="F48" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="H48" t="n">
         <v>0.59</v>
       </c>
       <c r="I48" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="J48" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M48" t="n">
         <v>0.61</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.6</v>
       </c>
       <c r="N48" t="n">
         <v>0.57</v>
       </c>
       <c r="O48" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="P48" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="R48" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="S48" t="n">
         <v>0.63</v>
       </c>
       <c r="T48" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="U48" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="V48" t="n">
         <v>0.58</v>
       </c>
       <c r="W48" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="X48" t="n">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24">
+        <v>0.58</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.02</v>
       </c>
       <c r="F49" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1900000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="H49" t="n">
-        <v>0.2000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="I49" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="K49" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L49" t="n">
         <v>0.25</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.24</v>
       </c>
       <c r="M49" t="n">
         <v>0.26</v>
       </c>
       <c r="N49" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="O49" t="n">
         <v>0.3</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0.29</v>
       </c>
       <c r="P49" t="n">
         <v>0.27</v>
@@ -4167,19 +4314,19 @@
         <v>0.28</v>
       </c>
       <c r="R49" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="S49" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="T49" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="U49" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="V49" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="W49" t="n">
         <v>0.28</v>
@@ -4187,16 +4334,19 @@
       <c r="X49" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="50" spans="1:24">
+      <c r="Y49" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -4205,90 +4355,93 @@
         <v>0.05</v>
       </c>
       <c r="F50" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H50" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="G50" t="n">
+      <c r="I50" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L50" t="n">
         <v>0.04</v>
       </c>
-      <c r="H50" t="n">
+      <c r="M50" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S50" t="n">
         <v>0.05</v>
       </c>
-      <c r="I50" t="n">
+      <c r="T50" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="U50" t="n">
         <v>0.04</v>
       </c>
-      <c r="J50" t="n">
+      <c r="V50" t="n">
         <v>0.04</v>
       </c>
-      <c r="K50" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R50" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S50" t="n">
+      <c r="W50" t="n">
         <v>0.04</v>
       </c>
-      <c r="T50" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="U50" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="V50" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W50" t="n">
-        <v>0.03</v>
-      </c>
       <c r="X50" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24">
+        <v>0.04</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
         <v>28</v>
-      </c>
-      <c r="C51" t="s">
-        <v>27</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F51" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="H51" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="J51" t="n">
         <v>0.09</v>
@@ -4300,7 +4453,7 @@
         <v>0.08</v>
       </c>
       <c r="M51" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N51" t="n">
         <v>0.07000000000000001</v>
@@ -4309,16 +4462,16 @@
         <v>0.08</v>
       </c>
       <c r="P51" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q51" t="n">
         <v>0.08</v>
       </c>
       <c r="R51" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="S51" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="T51" t="n">
         <v>0.08</v>
@@ -4327,101 +4480,107 @@
         <v>0.08</v>
       </c>
       <c r="V51" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="W51" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="X51" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24">
+        <v>0.08</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="F52" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G52" t="n">
         <v>0.86</v>
       </c>
-      <c r="G52" t="n">
-        <v>0.89</v>
-      </c>
       <c r="H52" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="L52" t="n">
         <v>0.88</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.9</v>
       </c>
       <c r="M52" t="n">
         <v>0.89</v>
       </c>
       <c r="N52" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="O52" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="P52" t="n">
         <v>0.89</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="R52" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="S52" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="U52" t="n">
         <v>0.88</v>
       </c>
-      <c r="T52" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="U52" t="n">
-        <v>0.89</v>
-      </c>
       <c r="V52" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="W52" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="X52" t="n">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24">
+        <v>0.88</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E53" t="n">
         <v>0.23</v>
@@ -4442,7 +4601,7 @@
         <v>0.17</v>
       </c>
       <c r="K53" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="L53" t="n">
         <v>0.14</v>
@@ -4457,10 +4616,10 @@
         <v>0.12</v>
       </c>
       <c r="P53" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="R53" t="n">
         <v>0.15</v>
@@ -4469,33 +4628,36 @@
         <v>0.16</v>
       </c>
       <c r="T53" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
+      <c r="A54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" t="n">
         <v>0.16</v>
-      </c>
-      <c r="U53" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="V53" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="W53" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="X53" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24">
-      <c r="A54" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.18</v>
       </c>
       <c r="E54" t="n">
         <v>0.18</v>
@@ -4519,13 +4681,13 @@
         <v>0.21</v>
       </c>
       <c r="L54" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="M54" t="n">
         <v>0.18</v>
       </c>
       <c r="N54" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="O54" t="n">
         <v>0.21</v>
@@ -4549,27 +4711,30 @@
         <v>0.2</v>
       </c>
       <c r="V54" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="W54" t="n">
         <v>0.2</v>
       </c>
-      <c r="W54" t="n">
+      <c r="X54" t="n">
         <v>0.19</v>
       </c>
-      <c r="X54" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24">
+      <c r="Y54" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D55" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="E55" t="n">
         <v>0.59</v>
@@ -4590,25 +4755,25 @@
         <v>0.62</v>
       </c>
       <c r="K55" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="L55" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="M55" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="N55" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="O55" t="n">
         <v>0.67</v>
       </c>
       <c r="P55" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="R55" t="n">
         <v>0.67</v>
@@ -4617,10 +4782,10 @@
         <v>0.66</v>
       </c>
       <c r="T55" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="U55" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="V55" t="n">
         <v>0.6899999999999999</v>
@@ -4631,16 +4796,19 @@
       <c r="X55" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="56" spans="1:24">
+      <c r="Y55" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -4688,7 +4856,7 @@
         <v>0.03</v>
       </c>
       <c r="S56" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="T56" t="n">
         <v>0.04</v>
@@ -4703,21 +4871,24 @@
         <v>0.005</v>
       </c>
       <c r="X56" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24">
+        <v>0.02</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E57" t="n">
         <v>0.13</v>
@@ -4774,24 +4945,27 @@
         <v>0.1</v>
       </c>
       <c r="W57" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="X57" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="58" spans="1:24">
+      <c r="Y57" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D58" t="n">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E58" t="n">
         <v>0.74</v>
@@ -4806,7 +4980,7 @@
         <v>0.85</v>
       </c>
       <c r="I58" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="J58" t="n">
         <v>0.84</v>
@@ -4824,7 +4998,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="O58" t="n">
-        <v>0.9299999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="P58" t="n">
         <v>0.92</v>
@@ -4836,7 +5010,7 @@
         <v>0.89</v>
       </c>
       <c r="S58" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="T58" t="n">
         <v>0.88</v>
@@ -4848,21 +5022,24 @@
         <v>0.86</v>
       </c>
       <c r="W58" t="n">
-        <v>0.895</v>
+        <v>0.885</v>
       </c>
       <c r="X58" t="n">
-        <v>0.905</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24">
+        <v>0.9</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D59" t="n">
         <v>0.07000000000000001</v>
@@ -4877,7 +5054,7 @@
         <v>0.15</v>
       </c>
       <c r="H59" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I59" t="n">
         <v>0.17</v>
@@ -4901,13 +5078,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="P59" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="Q59" t="n">
         <v>0.08</v>
       </c>
       <c r="R59" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="S59" t="n">
         <v>0.08</v>
@@ -4927,19 +5104,22 @@
       <c r="X59" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="60" spans="1:24">
+      <c r="Y59" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="E60" t="n">
         <v>0.21</v>
@@ -4951,16 +5131,16 @@
         <v>0.17</v>
       </c>
       <c r="H60" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I60" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="J60" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="K60" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="L60" t="n">
         <v>0.19</v>
@@ -4969,13 +5149,13 @@
         <v>0.23</v>
       </c>
       <c r="N60" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="O60" t="n">
         <v>0.19</v>
       </c>
       <c r="P60" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="Q60" t="n">
         <v>0.21</v>
@@ -4987,13 +5167,13 @@
         <v>0.23</v>
       </c>
       <c r="T60" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="U60" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="V60" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="W60" t="n">
         <v>0.18</v>
@@ -5001,19 +5181,22 @@
       <c r="X60" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="61" spans="1:24">
+      <c r="Y60" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="E61" t="n">
         <v>0.62</v>
@@ -5022,52 +5205,52 @@
         <v>0.63</v>
       </c>
       <c r="G61" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="H61" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="I61" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="J61" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="K61" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="L61" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="M61" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="N61" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="O61" t="n">
         <v>0.74</v>
       </c>
       <c r="P61" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="Q61" t="n">
         <v>0.71</v>
       </c>
       <c r="R61" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="S61" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="T61" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="U61" t="n">
         <v>0.71</v>
       </c>
-      <c r="U61" t="n">
-        <v>0.72</v>
-      </c>
       <c r="V61" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="W61" t="n">
         <v>0.71</v>
@@ -5075,19 +5258,22 @@
       <c r="X61" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:24">
+      <c r="Y61" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D62" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="E62" t="n">
         <v>0.07000000000000001</v>
@@ -5132,7 +5318,7 @@
         <v>0.06</v>
       </c>
       <c r="S62" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T62" t="n">
         <v>0.08</v>
@@ -5149,19 +5335,22 @@
       <c r="X62" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:24">
+      <c r="Y62" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E63" t="n">
         <v>0.07000000000000001</v>
@@ -5182,7 +5371,7 @@
         <v>0.06</v>
       </c>
       <c r="K63" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="L63" t="n">
         <v>0.07000000000000001</v>
@@ -5200,42 +5389,45 @@
         <v>0.08</v>
       </c>
       <c r="Q63" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R63" t="n">
         <v>0.09</v>
-      </c>
-      <c r="R63" t="n">
-        <v>0.08</v>
       </c>
       <c r="S63" t="n">
         <v>0.08</v>
       </c>
       <c r="T63" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="U63" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="V63" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="W63" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="X63" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="64" spans="1:24">
+      <c r="Y63" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D64" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="E64" t="n">
         <v>0.86</v>
@@ -5244,7 +5436,7 @@
         <v>0.84</v>
       </c>
       <c r="G64" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="H64" t="n">
         <v>0.89</v>
@@ -5256,7 +5448,7 @@
         <v>0.87</v>
       </c>
       <c r="K64" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="L64" t="n">
         <v>0.88</v>
@@ -5274,42 +5466,45 @@
         <v>0.85</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R64" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="S64" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="T64" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="U64" t="n">
         <v>0.87</v>
       </c>
       <c r="V64" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="W64" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="X64" t="n">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="65" spans="1:24">
+      <c r="Y64" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D65" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="E65" t="n">
         <v>0.17</v>
@@ -5371,19 +5566,22 @@
       <c r="X65" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="66" spans="1:24">
+      <c r="Y65" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E66" t="n">
         <v>0.08</v>
@@ -5392,7 +5590,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G66" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="H66" t="n">
         <v>0.09</v>
@@ -5407,10 +5605,10 @@
         <v>0.08</v>
       </c>
       <c r="L66" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M66" t="n">
         <v>0.05</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.04</v>
       </c>
       <c r="N66" t="n">
         <v>0.07000000000000001</v>
@@ -5425,10 +5623,10 @@
         <v>0.08</v>
       </c>
       <c r="R66" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="S66" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T66" t="n">
         <v>0.08</v>
@@ -5440,24 +5638,27 @@
         <v>0.08</v>
       </c>
       <c r="W66" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="X66" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24">
+        <v>0.1</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D67" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="E67" t="n">
         <v>0.75</v>
@@ -5466,7 +5667,7 @@
         <v>0.77</v>
       </c>
       <c r="G67" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="H67" t="n">
         <v>0.79</v>
@@ -5475,16 +5676,16 @@
         <v>0.84</v>
       </c>
       <c r="J67" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="K67" t="n">
         <v>0.84</v>
       </c>
       <c r="L67" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="M67" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="N67" t="n">
         <v>0.8100000000000001</v>
@@ -5493,19 +5694,19 @@
         <v>0.84</v>
       </c>
       <c r="P67" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="R67" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S67" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="T67" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="U67" t="n">
         <v>0.88</v>
@@ -5514,15 +5715,18 @@
         <v>0.84</v>
       </c>
       <c r="W67" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="X67" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24">
+        <v>0.8</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5536,7 +5740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5544,7 +5748,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5614,16 +5818,19 @@
       <c r="W1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>2464</v>
+        <v>2535</v>
       </c>
       <c r="D2" t="n">
         <v>2079</v>
@@ -5632,69 +5839,72 @@
         <v>2269</v>
       </c>
       <c r="F2" t="n">
-        <v>2248</v>
+        <v>2262</v>
       </c>
       <c r="G2" t="n">
-        <v>2110</v>
+        <v>2132</v>
       </c>
       <c r="H2" t="n">
-        <v>2150</v>
+        <v>2172</v>
       </c>
       <c r="I2" t="n">
-        <v>2100</v>
+        <v>2107</v>
       </c>
       <c r="J2" t="n">
-        <v>1992</v>
+        <v>1998</v>
       </c>
       <c r="K2" t="n">
-        <v>1946</v>
+        <v>1958</v>
       </c>
       <c r="L2" t="n">
-        <v>1896</v>
+        <v>1914</v>
       </c>
       <c r="M2" t="n">
-        <v>1904</v>
+        <v>1912</v>
       </c>
       <c r="N2" t="n">
-        <v>1869</v>
+        <v>1880</v>
       </c>
       <c r="O2" t="n">
-        <v>1824</v>
+        <v>1833</v>
       </c>
       <c r="P2" t="n">
-        <v>1895</v>
+        <v>1903</v>
       </c>
       <c r="Q2" t="n">
-        <v>1928</v>
+        <v>1938</v>
       </c>
       <c r="R2" t="n">
-        <v>1868</v>
+        <v>1886</v>
       </c>
       <c r="S2" t="n">
-        <v>1904</v>
+        <v>1925</v>
       </c>
       <c r="T2" t="n">
-        <v>1803</v>
+        <v>1822</v>
       </c>
       <c r="U2" t="n">
-        <v>1751</v>
+        <v>1758</v>
       </c>
       <c r="V2" t="n">
-        <v>1853</v>
+        <v>1857</v>
       </c>
       <c r="W2" t="n">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+        <v>1802</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>1167</v>
+        <v>1201</v>
       </c>
       <c r="D3" t="n">
         <v>981</v>
@@ -5703,69 +5913,72 @@
         <v>1083</v>
       </c>
       <c r="F3" t="n">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="G3" t="n">
-        <v>997</v>
+        <v>1010</v>
       </c>
       <c r="H3" t="n">
-        <v>1016</v>
+        <v>1032</v>
       </c>
       <c r="I3" t="n">
-        <v>992</v>
+        <v>999</v>
       </c>
       <c r="J3" t="n">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="K3" t="n">
-        <v>917</v>
+        <v>926</v>
       </c>
       <c r="L3" t="n">
+        <v>910</v>
+      </c>
+      <c r="M3" t="n">
+        <v>916</v>
+      </c>
+      <c r="N3" t="n">
+        <v>889</v>
+      </c>
+      <c r="O3" t="n">
+        <v>856</v>
+      </c>
+      <c r="P3" t="n">
         <v>898</v>
       </c>
-      <c r="M3" t="n">
-        <v>907</v>
-      </c>
-      <c r="N3" t="n">
-        <v>880</v>
-      </c>
-      <c r="O3" t="n">
-        <v>855</v>
-      </c>
-      <c r="P3" t="n">
-        <v>890</v>
-      </c>
       <c r="Q3" t="n">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="R3" t="n">
-        <v>887</v>
+        <v>897</v>
       </c>
       <c r="S3" t="n">
-        <v>898</v>
+        <v>905</v>
       </c>
       <c r="T3" t="n">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="U3" t="n">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="V3" t="n">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="W3" t="n">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+        <v>848</v>
+      </c>
+      <c r="X3" t="n">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D4" t="n">
         <v>193</v>
@@ -5774,7 +5987,7 @@
         <v>206</v>
       </c>
       <c r="F4" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G4" t="n">
         <v>197</v>
@@ -5792,7 +6005,7 @@
         <v>161</v>
       </c>
       <c r="L4" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M4" t="n">
         <v>153</v>
@@ -5801,42 +6014,45 @@
         <v>150</v>
       </c>
       <c r="O4" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P4" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q4" t="n">
         <v>153</v>
       </c>
-      <c r="Q4" t="n">
-        <v>154</v>
-      </c>
       <c r="R4" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="S4" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="T4" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U4" t="n">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="V4" t="n">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="W4" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+        <v>149</v>
+      </c>
+      <c r="X4" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>811</v>
+        <v>837</v>
       </c>
       <c r="D5" t="n">
         <v>674</v>
@@ -5845,69 +6061,72 @@
         <v>717</v>
       </c>
       <c r="F5" t="n">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="G5" t="n">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="H5" t="n">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="I5" t="n">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J5" t="n">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="K5" t="n">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L5" t="n">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="M5" t="n">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N5" t="n">
+        <v>593</v>
+      </c>
+      <c r="O5" t="n">
+        <v>588</v>
+      </c>
+      <c r="P5" t="n">
+        <v>601</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>610</v>
+      </c>
+      <c r="R5" t="n">
+        <v>585</v>
+      </c>
+      <c r="S5" t="n">
+        <v>610</v>
+      </c>
+      <c r="T5" t="n">
         <v>589</v>
       </c>
-      <c r="O5" t="n">
-        <v>583</v>
-      </c>
-      <c r="P5" t="n">
-        <v>599</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>607</v>
-      </c>
-      <c r="R5" t="n">
-        <v>580</v>
-      </c>
-      <c r="S5" t="n">
-        <v>603</v>
-      </c>
-      <c r="T5" t="n">
-        <v>584</v>
-      </c>
       <c r="U5" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="V5" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="W5" t="n">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+        <v>575</v>
+      </c>
+      <c r="X5" t="n">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D6" t="n">
         <v>231</v>
@@ -5916,69 +6135,72 @@
         <v>263</v>
       </c>
       <c r="F6" t="n">
+        <v>265</v>
+      </c>
+      <c r="G6" t="n">
+        <v>240</v>
+      </c>
+      <c r="H6" t="n">
+        <v>251</v>
+      </c>
+      <c r="I6" t="n">
+        <v>285</v>
+      </c>
+      <c r="J6" t="n">
+        <v>259</v>
+      </c>
+      <c r="K6" t="n">
+        <v>268</v>
+      </c>
+      <c r="L6" t="n">
+        <v>261</v>
+      </c>
+      <c r="M6" t="n">
+        <v>245</v>
+      </c>
+      <c r="N6" t="n">
+        <v>248</v>
+      </c>
+      <c r="O6" t="n">
+        <v>245</v>
+      </c>
+      <c r="P6" t="n">
+        <v>254</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>250</v>
+      </c>
+      <c r="R6" t="n">
         <v>264</v>
       </c>
-      <c r="G6" t="n">
+      <c r="S6" t="n">
+        <v>246</v>
+      </c>
+      <c r="T6" t="n">
+        <v>221</v>
+      </c>
+      <c r="U6" t="n">
+        <v>224</v>
+      </c>
+      <c r="V6" t="n">
+        <v>237</v>
+      </c>
+      <c r="W6" t="n">
+        <v>230</v>
+      </c>
+      <c r="X6" t="n">
         <v>238</v>
       </c>
-      <c r="H6" t="n">
-        <v>247</v>
-      </c>
-      <c r="I6" t="n">
-        <v>286</v>
-      </c>
-      <c r="J6" t="n">
-        <v>263</v>
-      </c>
-      <c r="K6" t="n">
-        <v>269</v>
-      </c>
-      <c r="L6" t="n">
-        <v>259</v>
-      </c>
-      <c r="M6" t="n">
-        <v>248</v>
-      </c>
-      <c r="N6" t="n">
-        <v>250</v>
-      </c>
-      <c r="O6" t="n">
-        <v>244</v>
-      </c>
-      <c r="P6" t="n">
-        <v>253</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>248</v>
-      </c>
-      <c r="R6" t="n">
-        <v>266</v>
-      </c>
-      <c r="S6" t="n">
-        <v>244</v>
-      </c>
-      <c r="T6" t="n">
-        <v>218</v>
-      </c>
-      <c r="U6" t="n">
-        <v>221</v>
-      </c>
-      <c r="V6" t="n">
-        <v>232</v>
-      </c>
-      <c r="W6" t="n">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
-        <v>1112</v>
+        <v>1145</v>
       </c>
       <c r="D7" t="n">
         <v>931</v>
@@ -5987,69 +6209,72 @@
         <v>1029</v>
       </c>
       <c r="F7" t="n">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="G7" t="n">
+        <v>957</v>
+      </c>
+      <c r="H7" t="n">
+        <v>979</v>
+      </c>
+      <c r="I7" t="n">
         <v>944</v>
       </c>
-      <c r="H7" t="n">
-        <v>963</v>
-      </c>
-      <c r="I7" t="n">
-        <v>938</v>
-      </c>
       <c r="J7" t="n">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="K7" t="n">
-        <v>865</v>
+        <v>874</v>
       </c>
       <c r="L7" t="n">
+        <v>856</v>
+      </c>
+      <c r="M7" t="n">
+        <v>863</v>
+      </c>
+      <c r="N7" t="n">
+        <v>838</v>
+      </c>
+      <c r="O7" t="n">
+        <v>807</v>
+      </c>
+      <c r="P7" t="n">
+        <v>849</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>874</v>
+      </c>
+      <c r="R7" t="n">
         <v>844</v>
       </c>
-      <c r="M7" t="n">
+      <c r="S7" t="n">
         <v>854</v>
       </c>
-      <c r="N7" t="n">
-        <v>829</v>
-      </c>
-      <c r="O7" t="n">
-        <v>805</v>
-      </c>
-      <c r="P7" t="n">
-        <v>841</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>868</v>
-      </c>
-      <c r="R7" t="n">
-        <v>835</v>
-      </c>
-      <c r="S7" t="n">
-        <v>847</v>
-      </c>
       <c r="T7" t="n">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="U7" t="n">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="V7" t="n">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="W7" t="n">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <v>803</v>
+      </c>
+      <c r="X7" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D8" t="n">
         <v>183</v>
@@ -6058,7 +6283,7 @@
         <v>193</v>
       </c>
       <c r="F8" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G8" t="n">
         <v>183</v>
@@ -6076,7 +6301,7 @@
         <v>148</v>
       </c>
       <c r="L8" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M8" t="n">
         <v>141</v>
@@ -6085,42 +6310,45 @@
         <v>141</v>
       </c>
       <c r="O8" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P8" t="n">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q8" t="n">
         <v>142</v>
       </c>
       <c r="R8" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="S8" t="n">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="T8" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="U8" t="n">
+        <v>130</v>
+      </c>
+      <c r="V8" t="n">
         <v>135</v>
-      </c>
-      <c r="V8" t="n">
-        <v>139</v>
       </c>
       <c r="W8" t="n">
         <v>138</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D9" t="n">
         <v>114</v>
@@ -6129,7 +6357,7 @@
         <v>126</v>
       </c>
       <c r="F9" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9" t="n">
         <v>126</v>
@@ -6141,7 +6369,7 @@
         <v>136</v>
       </c>
       <c r="J9" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K9" t="n">
         <v>133</v>
@@ -6182,16 +6410,19 @@
       <c r="W9" t="n">
         <v>119</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="n">
-        <v>1012</v>
+        <v>1045</v>
       </c>
       <c r="D10" t="n">
         <v>851</v>
@@ -6200,69 +6431,72 @@
         <v>921</v>
       </c>
       <c r="F10" t="n">
-        <v>917</v>
+        <v>925</v>
       </c>
       <c r="G10" t="n">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="H10" t="n">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="I10" t="n">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="J10" t="n">
+        <v>799</v>
+      </c>
+      <c r="K10" t="n">
+        <v>803</v>
+      </c>
+      <c r="L10" t="n">
+        <v>791</v>
+      </c>
+      <c r="M10" t="n">
+        <v>780</v>
+      </c>
+      <c r="N10" t="n">
+        <v>775</v>
+      </c>
+      <c r="O10" t="n">
+        <v>772</v>
+      </c>
+      <c r="P10" t="n">
+        <v>792</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>792</v>
+      </c>
+      <c r="R10" t="n">
+        <v>784</v>
+      </c>
+      <c r="S10" t="n">
         <v>797</v>
       </c>
-      <c r="K10" t="n">
-        <v>800</v>
-      </c>
-      <c r="L10" t="n">
-        <v>783</v>
-      </c>
-      <c r="M10" t="n">
-        <v>781</v>
-      </c>
-      <c r="N10" t="n">
-        <v>773</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="T10" t="n">
+        <v>748</v>
+      </c>
+      <c r="U10" t="n">
+        <v>718</v>
+      </c>
+      <c r="V10" t="n">
         <v>766</v>
       </c>
-      <c r="P10" t="n">
-        <v>789</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>788</v>
-      </c>
-      <c r="R10" t="n">
-        <v>779</v>
-      </c>
-      <c r="S10" t="n">
-        <v>788</v>
-      </c>
-      <c r="T10" t="n">
-        <v>739</v>
-      </c>
-      <c r="U10" t="n">
-        <v>714</v>
-      </c>
-      <c r="V10" t="n">
-        <v>760</v>
-      </c>
       <c r="W10" t="n">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+        <v>742</v>
+      </c>
+      <c r="X10" t="n">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="n">
-        <v>1069</v>
+        <v>1114</v>
       </c>
       <c r="D11" t="n">
         <v>931</v>
@@ -6271,69 +6505,72 @@
         <v>1049</v>
       </c>
       <c r="F11" t="n">
-        <v>1024</v>
+        <v>1043</v>
       </c>
       <c r="G11" t="n">
-        <v>967</v>
+        <v>980</v>
       </c>
       <c r="H11" t="n">
-        <v>988</v>
+        <v>1003</v>
       </c>
       <c r="I11" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="J11" t="n">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="K11" t="n">
-        <v>901</v>
+        <v>913</v>
       </c>
       <c r="L11" t="n">
+        <v>907</v>
+      </c>
+      <c r="M11" t="n">
         <v>891</v>
       </c>
-      <c r="M11" t="n">
-        <v>884</v>
-      </c>
       <c r="N11" t="n">
-        <v>870</v>
+        <v>879</v>
       </c>
       <c r="O11" t="n">
-        <v>848</v>
+        <v>859</v>
       </c>
       <c r="P11" t="n">
-        <v>884</v>
+        <v>892</v>
       </c>
       <c r="Q11" t="n">
-        <v>897</v>
+        <v>907</v>
       </c>
       <c r="R11" t="n">
-        <v>877</v>
+        <v>893</v>
       </c>
       <c r="S11" t="n">
-        <v>881</v>
+        <v>896</v>
       </c>
       <c r="T11" t="n">
-        <v>831</v>
+        <v>845</v>
       </c>
       <c r="U11" t="n">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="V11" t="n">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="W11" t="n">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+        <v>842</v>
+      </c>
+      <c r="X11" t="n">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="n">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="D12" t="n">
         <v>722</v>
@@ -6342,69 +6579,72 @@
         <v>777</v>
       </c>
       <c r="F12" t="n">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="G12" t="n">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="H12" t="n">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="I12" t="n">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="J12" t="n">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="K12" t="n">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="L12" t="n">
+        <v>632</v>
+      </c>
+      <c r="M12" t="n">
+        <v>643</v>
+      </c>
+      <c r="N12" t="n">
+        <v>630</v>
+      </c>
+      <c r="O12" t="n">
+        <v>612</v>
+      </c>
+      <c r="P12" t="n">
         <v>631</v>
       </c>
-      <c r="M12" t="n">
-        <v>644</v>
-      </c>
-      <c r="N12" t="n">
-        <v>631</v>
-      </c>
-      <c r="O12" t="n">
-        <v>617</v>
-      </c>
-      <c r="P12" t="n">
-        <v>633</v>
-      </c>
       <c r="Q12" t="n">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="R12" t="n">
         <v>613</v>
       </c>
       <c r="S12" t="n">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="T12" t="n">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="U12" t="n">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="V12" t="n">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="W12" t="n">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+        <v>605</v>
+      </c>
+      <c r="X12" t="n">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="n">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="D13" t="n">
         <v>426</v>
@@ -6413,69 +6653,72 @@
         <v>443</v>
       </c>
       <c r="F13" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G13" t="n">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H13" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="I13" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="J13" t="n">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K13" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L13" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M13" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="N13" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="O13" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="P13" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q13" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="R13" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="S13" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="T13" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="U13" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="V13" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="W13" t="n">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+        <v>355</v>
+      </c>
+      <c r="X13" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D14" t="n">
         <v>619</v>
@@ -6484,16 +6727,16 @@
         <v>697</v>
       </c>
       <c r="F14" t="n">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="G14" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H14" t="n">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="I14" t="n">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J14" t="n">
         <v>573</v>
@@ -6502,51 +6745,54 @@
         <v>573</v>
       </c>
       <c r="L14" t="n">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="M14" t="n">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="N14" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O14" t="n">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P14" t="n">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="Q14" t="n">
+        <v>545</v>
+      </c>
+      <c r="R14" t="n">
+        <v>533</v>
+      </c>
+      <c r="S14" t="n">
         <v>543</v>
       </c>
-      <c r="R14" t="n">
-        <v>535</v>
-      </c>
-      <c r="S14" t="n">
-        <v>538</v>
-      </c>
       <c r="T14" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="U14" t="n">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="V14" t="n">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="W14" t="n">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+        <v>505</v>
+      </c>
+      <c r="X14" t="n">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" t="n">
-        <v>1776</v>
+        <v>1846</v>
       </c>
       <c r="D15" t="n">
         <v>1460</v>
@@ -6555,282 +6801,294 @@
         <v>1572</v>
       </c>
       <c r="F15" t="n">
-        <v>1592</v>
+        <v>1603</v>
       </c>
       <c r="G15" t="n">
-        <v>1495</v>
+        <v>1515</v>
       </c>
       <c r="H15" t="n">
-        <v>1529</v>
+        <v>1546</v>
       </c>
       <c r="I15" t="n">
-        <v>1483</v>
+        <v>1491</v>
       </c>
       <c r="J15" t="n">
-        <v>1419</v>
+        <v>1425</v>
       </c>
       <c r="K15" t="n">
-        <v>1373</v>
+        <v>1385</v>
       </c>
       <c r="L15" t="n">
-        <v>1340</v>
+        <v>1362</v>
       </c>
       <c r="M15" t="n">
-        <v>1347</v>
+        <v>1357</v>
       </c>
       <c r="N15" t="n">
-        <v>1328</v>
+        <v>1338</v>
       </c>
       <c r="O15" t="n">
-        <v>1311</v>
+        <v>1321</v>
       </c>
       <c r="P15" t="n">
-        <v>1357</v>
+        <v>1370</v>
       </c>
       <c r="Q15" t="n">
-        <v>1385</v>
+        <v>1393</v>
       </c>
       <c r="R15" t="n">
-        <v>1333</v>
+        <v>1353</v>
       </c>
       <c r="S15" t="n">
-        <v>1366</v>
+        <v>1382</v>
       </c>
       <c r="T15" t="n">
+        <v>1325</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1271</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1335</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1297</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="n">
+        <v>234</v>
+      </c>
+      <c r="D16" t="n">
+        <v>208</v>
+      </c>
+      <c r="E16" t="n">
+        <v>249</v>
+      </c>
+      <c r="F16" t="n">
+        <v>225</v>
+      </c>
+      <c r="G16" t="n">
+        <v>212</v>
+      </c>
+      <c r="H16" t="n">
+        <v>215</v>
+      </c>
+      <c r="I16" t="n">
+        <v>212</v>
+      </c>
+      <c r="J16" t="n">
+        <v>202</v>
+      </c>
+      <c r="K16" t="n">
+        <v>198</v>
+      </c>
+      <c r="L16" t="n">
+        <v>184</v>
+      </c>
+      <c r="M16" t="n">
+        <v>188</v>
+      </c>
+      <c r="N16" t="n">
+        <v>187</v>
+      </c>
+      <c r="O16" t="n">
+        <v>179</v>
+      </c>
+      <c r="P16" t="n">
+        <v>173</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>193</v>
+      </c>
+      <c r="R16" t="n">
+        <v>189</v>
+      </c>
+      <c r="S16" t="n">
+        <v>187</v>
+      </c>
+      <c r="T16" t="n">
+        <v>171</v>
+      </c>
+      <c r="U16" t="n">
+        <v>174</v>
+      </c>
+      <c r="V16" t="n">
+        <v>176</v>
+      </c>
+      <c r="W16" t="n">
+        <v>168</v>
+      </c>
+      <c r="X16" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="n">
+        <v>450</v>
+      </c>
+      <c r="D17" t="n">
+        <v>439</v>
+      </c>
+      <c r="E17" t="n">
+        <v>473</v>
+      </c>
+      <c r="F17" t="n">
+        <v>433</v>
+      </c>
+      <c r="G17" t="n">
+        <v>400</v>
+      </c>
+      <c r="H17" t="n">
+        <v>407</v>
+      </c>
+      <c r="I17" t="n">
+        <v>377</v>
+      </c>
+      <c r="J17" t="n">
+        <v>359</v>
+      </c>
+      <c r="K17" t="n">
+        <v>365</v>
+      </c>
+      <c r="L17" t="n">
+        <v>371</v>
+      </c>
+      <c r="M17" t="n">
+        <v>354</v>
+      </c>
+      <c r="N17" t="n">
+        <v>356</v>
+      </c>
+      <c r="O17" t="n">
+        <v>347</v>
+      </c>
+      <c r="P17" t="n">
+        <v>369</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>358</v>
+      </c>
+      <c r="R17" t="n">
+        <v>343</v>
+      </c>
+      <c r="S17" t="n">
+        <v>358</v>
+      </c>
+      <c r="T17" t="n">
+        <v>328</v>
+      </c>
+      <c r="U17" t="n">
+        <v>317</v>
+      </c>
+      <c r="V17" t="n">
+        <v>350</v>
+      </c>
+      <c r="W17" t="n">
+        <v>327</v>
+      </c>
+      <c r="X17" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1851</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1432</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1547</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1604</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1520</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1550</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1518</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1437</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1395</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1359</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1370</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1337</v>
+      </c>
+      <c r="O18" t="n">
         <v>1307</v>
       </c>
-      <c r="U15" t="n">
-        <v>1260</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1326</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="n">
-        <v>274</v>
-      </c>
-      <c r="D16" t="n">
-        <v>206</v>
-      </c>
-      <c r="E16" t="n">
-        <v>247</v>
-      </c>
-      <c r="F16" t="n">
-        <v>253</v>
-      </c>
-      <c r="G16" t="n">
-        <v>227</v>
-      </c>
-      <c r="H16" t="n">
-        <v>229</v>
-      </c>
-      <c r="I16" t="n">
-        <v>233</v>
-      </c>
-      <c r="J16" t="n">
-        <v>227</v>
-      </c>
-      <c r="K16" t="n">
-        <v>215</v>
-      </c>
-      <c r="L16" t="n">
-        <v>207</v>
-      </c>
-      <c r="M16" t="n">
-        <v>206</v>
-      </c>
-      <c r="N16" t="n">
-        <v>202</v>
-      </c>
-      <c r="O16" t="n">
-        <v>197</v>
-      </c>
-      <c r="P16" t="n">
-        <v>190</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>217</v>
-      </c>
-      <c r="R16" t="n">
-        <v>206</v>
-      </c>
-      <c r="S16" t="n">
-        <v>208</v>
-      </c>
-      <c r="T16" t="n">
-        <v>186</v>
-      </c>
-      <c r="U16" t="n">
-        <v>187</v>
-      </c>
-      <c r="V16" t="n">
-        <v>201</v>
-      </c>
-      <c r="W16" t="n">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" t="n">
-        <v>471</v>
-      </c>
-      <c r="D17" t="n">
-        <v>429</v>
-      </c>
-      <c r="E17" t="n">
-        <v>463</v>
-      </c>
-      <c r="F17" t="n">
-        <v>445</v>
-      </c>
-      <c r="G17" t="n">
-        <v>402</v>
-      </c>
-      <c r="H17" t="n">
-        <v>418</v>
-      </c>
-      <c r="I17" t="n">
-        <v>381</v>
-      </c>
-      <c r="J17" t="n">
-        <v>370</v>
-      </c>
-      <c r="K17" t="n">
-        <v>374</v>
-      </c>
-      <c r="L17" t="n">
-        <v>373</v>
-      </c>
-      <c r="M17" t="n">
-        <v>356</v>
-      </c>
-      <c r="N17" t="n">
-        <v>354</v>
-      </c>
-      <c r="O17" t="n">
-        <v>350</v>
-      </c>
-      <c r="P17" t="n">
-        <v>370</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>365</v>
-      </c>
-      <c r="R17" t="n">
-        <v>346</v>
-      </c>
-      <c r="S17" t="n">
-        <v>367</v>
-      </c>
-      <c r="T17" t="n">
-        <v>333</v>
-      </c>
-      <c r="U17" t="n">
-        <v>314</v>
-      </c>
-      <c r="V17" t="n">
-        <v>352</v>
-      </c>
-      <c r="W17" t="n">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1719</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1444</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1559</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1550</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1481</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1503</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1486</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1395</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1357</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1316</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1342</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1313</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1277</v>
-      </c>
       <c r="P18" t="n">
-        <v>1335</v>
+        <v>1361</v>
       </c>
       <c r="Q18" t="n">
-        <v>1346</v>
+        <v>1387</v>
       </c>
       <c r="R18" t="n">
-        <v>1316</v>
+        <v>1354</v>
       </c>
       <c r="S18" t="n">
-        <v>1329</v>
+        <v>1380</v>
       </c>
       <c r="T18" t="n">
-        <v>1284</v>
+        <v>1323</v>
       </c>
       <c r="U18" t="n">
-        <v>1250</v>
+        <v>1267</v>
       </c>
       <c r="V18" t="n">
-        <v>1300</v>
+        <v>1331</v>
       </c>
       <c r="W18" t="n">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+        <v>1307</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" t="n">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D19" t="n">
         <v>376</v>
@@ -6839,66 +7097,69 @@
         <v>405</v>
       </c>
       <c r="F19" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G19" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H19" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I19" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J19" t="n">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K19" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L19" t="n">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M19" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N19" t="n">
         <v>330</v>
       </c>
       <c r="O19" t="n">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P19" t="n">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q19" t="n">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="R19" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="S19" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="T19" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="U19" t="n">
+        <v>325</v>
+      </c>
+      <c r="V19" t="n">
         <v>333</v>
       </c>
-      <c r="V19" t="n">
-        <v>340</v>
-      </c>
       <c r="W19" t="n">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+        <v>330</v>
+      </c>
+      <c r="X19" t="n">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" t="n">
         <v>116</v>
@@ -6910,7 +7171,7 @@
         <v>103</v>
       </c>
       <c r="F20" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G20" t="n">
         <v>99</v>
@@ -6919,7 +7180,7 @@
         <v>101</v>
       </c>
       <c r="I20" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J20" t="n">
         <v>96</v>
@@ -6928,16 +7189,16 @@
         <v>95</v>
       </c>
       <c r="L20" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M20" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N20" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O20" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P20" t="n">
         <v>94</v>
@@ -6952,27 +7213,30 @@
         <v>91</v>
       </c>
       <c r="T20" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U20" t="n">
         <v>91</v>
       </c>
       <c r="V20" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W20" t="n">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" t="n">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="D21" t="n">
         <v>349</v>
@@ -6981,69 +7245,72 @@
         <v>392</v>
       </c>
       <c r="F21" t="n">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G21" t="n">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="H21" t="n">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="I21" t="n">
         <v>358</v>
       </c>
       <c r="J21" t="n">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K21" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L21" t="n">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="M21" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N21" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O21" t="n">
         <v>305</v>
       </c>
       <c r="P21" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q21" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="R21" t="n">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="S21" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="T21" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="U21" t="n">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="V21" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="W21" t="n">
+        <v>290</v>
+      </c>
+      <c r="X21" t="n">
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" t="n">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D22" t="n">
         <v>188</v>
@@ -7052,69 +7319,72 @@
         <v>203</v>
       </c>
       <c r="F22" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G22" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H22" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I22" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J22" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K22" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L22" t="n">
+        <v>166</v>
+      </c>
+      <c r="M22" t="n">
+        <v>168</v>
+      </c>
+      <c r="N22" t="n">
+        <v>153</v>
+      </c>
+      <c r="O22" t="n">
+        <v>153</v>
+      </c>
+      <c r="P22" t="n">
+        <v>170</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>168</v>
+      </c>
+      <c r="R22" t="n">
+        <v>161</v>
+      </c>
+      <c r="S22" t="n">
+        <v>162</v>
+      </c>
+      <c r="T22" t="n">
+        <v>155</v>
+      </c>
+      <c r="U22" t="n">
+        <v>155</v>
+      </c>
+      <c r="V22" t="n">
         <v>163</v>
       </c>
-      <c r="M22" t="n">
+      <c r="W22" t="n">
         <v>165</v>
       </c>
-      <c r="N22" t="n">
-        <v>152</v>
-      </c>
-      <c r="O22" t="n">
-        <v>152</v>
-      </c>
-      <c r="P22" t="n">
-        <v>169</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>167</v>
-      </c>
-      <c r="R22" t="n">
-        <v>159</v>
-      </c>
-      <c r="S22" t="n">
-        <v>160</v>
-      </c>
-      <c r="T22" t="n">
-        <v>154</v>
-      </c>
-      <c r="U22" t="n">
-        <v>154</v>
-      </c>
-      <c r="V22" t="n">
-        <v>162</v>
-      </c>
-      <c r="W22" t="n">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" t="n">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D23" t="n">
         <v>107</v>
@@ -7135,16 +7405,16 @@
         <v>114</v>
       </c>
       <c r="J23" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K23" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L23" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M23" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N23" t="n">
         <v>103</v>
@@ -7153,33 +7423,36 @@
         <v>92</v>
       </c>
       <c r="P23" t="n">
+        <v>99</v>
+      </c>
+      <c r="Q23" t="n">
         <v>97</v>
       </c>
-      <c r="Q23" t="n">
-        <v>95</v>
-      </c>
       <c r="R23" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S23" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="T23" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U23" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V23" t="n">
         <v>98</v>
       </c>
       <c r="W23" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
+        <v>95</v>
+      </c>
+      <c r="X23" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -7203,6 +7476,7 @@
       <c r="U24" t="s"/>
       <c r="V24" t="s"/>
       <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_02_zasazeni_domacnosti.xlsx
+++ b/ZBP_02_zasazeni_domacnosti.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>trideni</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>16. 2. 2021</t>
+  </si>
+  <si>
+    <t>2. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -179,10 +182,10 @@
     <t>Školství a kultura</t>
   </si>
   <si>
-    <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 23. 2. 2021</t>
+    <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 9. 3. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 2. 2021</t>
+    <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 9. 3. 2021</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y68"/>
+  <dimension ref="A1:Z68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +568,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,16 +644,19 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
         <v>0.09</v>
@@ -718,16 +724,19 @@
       <c r="Y2" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
         <v>0.18</v>
@@ -795,16 +804,19 @@
       <c r="Y3" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
         <v>0.73</v>
@@ -872,16 +884,19 @@
       <c r="Y4" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
         <v>0.07000000000000001</v>
@@ -949,16 +964,19 @@
       <c r="Y5" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
         <v>0.15</v>
@@ -1026,16 +1044,19 @@
       <c r="Y6" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
       </c>
       <c r="D7" t="n">
         <v>0.78</v>
@@ -1103,16 +1124,19 @@
       <c r="Y7" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
         <v>0.08</v>
@@ -1180,16 +1204,19 @@
       <c r="Y8" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
         <v>0.11</v>
@@ -1257,16 +1284,19 @@
       <c r="Y9" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
       </c>
       <c r="D10" t="n">
         <v>0.8100000000000001</v>
@@ -1334,16 +1364,19 @@
       <c r="Y10" t="n">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
         <v>0.09</v>
@@ -1411,16 +1444,19 @@
       <c r="Y11" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
         <v>0.23</v>
@@ -1488,16 +1524,19 @@
       <c r="Y12" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
       </c>
       <c r="D13" t="n">
         <v>0.68</v>
@@ -1565,16 +1604,19 @@
       <c r="Y13" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
         <v>0.2</v>
@@ -1642,16 +1684,19 @@
       <c r="Y14" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" t="n">
         <v>0.18</v>
@@ -1719,16 +1764,19 @@
       <c r="Y15" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
       </c>
       <c r="D16" t="n">
         <v>0.62</v>
@@ -1796,16 +1844,19 @@
       <c r="Y16" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
         <v>0.06</v>
@@ -1873,16 +1924,19 @@
       <c r="Y17" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
         <v>0.15</v>
@@ -1950,16 +2004,19 @@
       <c r="Y18" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
         <v>0.79</v>
@@ -2027,16 +2084,19 @@
       <c r="Y19" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" t="n">
         <v>0.08</v>
@@ -2104,16 +2164,19 @@
       <c r="Y20" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" t="n">
         <v>0.12</v>
@@ -2181,16 +2244,19 @@
       <c r="Y21" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
         <v>0.8</v>
@@ -2258,16 +2324,19 @@
       <c r="Y22" t="n">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" t="n">
         <v>0.13</v>
@@ -2335,16 +2404,19 @@
       <c r="Y23" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
         <v>0.2</v>
@@ -2412,16 +2484,19 @@
       <c r="Y24" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Z24" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
         <v>0.67</v>
@@ -2489,16 +2564,19 @@
       <c r="Y25" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="Z25" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" t="n">
         <v>0.12</v>
@@ -2566,16 +2644,19 @@
       <c r="Y26" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="Z26" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" t="n">
         <v>0.21</v>
@@ -2643,16 +2724,19 @@
       <c r="Y27" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="Z27" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
         <v>0.67</v>
@@ -2720,16 +2804,19 @@
       <c r="Y28" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="Z28" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" t="n">
         <v>0.14</v>
@@ -2797,16 +2884,19 @@
       <c r="Y29" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="Z29" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" t="n">
         <v>0.26</v>
@@ -2874,16 +2964,19 @@
       <c r="Y30" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="Z30" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
         <v>0.6</v>
@@ -2951,16 +3044,19 @@
       <c r="Y31" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="32" spans="1:25">
+      <c r="Z31" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" t="n">
         <v>0.08</v>
@@ -3028,16 +3124,19 @@
       <c r="Y32" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="Z32" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" t="n">
         <v>0.14</v>
@@ -3105,16 +3204,19 @@
       <c r="Y33" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="34" spans="1:25">
+      <c r="Z33" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34" t="n">
         <v>0.78</v>
@@ -3182,16 +3284,19 @@
       <c r="Y34" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="Z34" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" t="n">
         <v>0.02</v>
@@ -3259,16 +3364,19 @@
       <c r="Y35" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="Z35" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D36" t="n">
         <v>0.06</v>
@@ -3336,16 +3444,19 @@
       <c r="Y36" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:25">
+      <c r="Z36" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" t="n">
         <v>0.92</v>
@@ -3413,16 +3524,19 @@
       <c r="Y37" t="n">
         <v>0.915</v>
       </c>
-    </row>
-    <row r="38" spans="1:25">
+      <c r="Z37" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" t="n">
         <v>0.15</v>
@@ -3490,16 +3604,19 @@
       <c r="Y38" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="Z38" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D39" t="n">
         <v>0.25</v>
@@ -3567,16 +3684,19 @@
       <c r="Y39" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="40" spans="1:25">
+      <c r="Z39" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
         <v>0.6</v>
@@ -3644,16 +3764,19 @@
       <c r="Y40" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="41" spans="1:25">
+      <c r="Z40" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" t="n">
         <v>0.07000000000000001</v>
@@ -3721,16 +3844,19 @@
       <c r="Y41" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="Z41" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D42" t="n">
         <v>0.15</v>
@@ -3798,16 +3924,19 @@
       <c r="Y42" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="43" spans="1:25">
+      <c r="Z42" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D43" t="n">
         <v>0.78</v>
@@ -3875,16 +4004,19 @@
       <c r="Y43" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="44" spans="1:25">
+      <c r="Z43" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -3952,16 +4084,19 @@
       <c r="Y44" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="45" spans="1:25">
+      <c r="Z44" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4029,16 +4164,19 @@
       <c r="Y45" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="46" spans="1:25">
+      <c r="Z45" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4106,16 +4244,19 @@
       <c r="Y46" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="47" spans="1:25">
+      <c r="Z46" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
         <v>28</v>
-      </c>
-      <c r="C47" t="s">
-        <v>27</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -4183,16 +4324,19 @@
       <c r="Y47" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="48" spans="1:25">
+      <c r="Z47" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -4260,16 +4404,19 @@
       <c r="Y48" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="49" spans="1:25">
+      <c r="Z48" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -4337,16 +4484,19 @@
       <c r="Y49" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="50" spans="1:25">
+      <c r="Z49" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -4414,16 +4564,19 @@
       <c r="Y50" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="51" spans="1:25">
+      <c r="Z50" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" t="s">
         <v>29</v>
-      </c>
-      <c r="C51" t="s">
-        <v>28</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -4491,16 +4644,19 @@
       <c r="Y51" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="52" spans="1:25">
+      <c r="Z51" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -4568,16 +4724,19 @@
       <c r="Y52" t="n">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="53" spans="1:25">
+      <c r="Z52" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" t="n">
         <v>0.09</v>
@@ -4645,16 +4804,19 @@
       <c r="Y53" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="54" spans="1:25">
+      <c r="Z53" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D54" t="n">
         <v>0.16</v>
@@ -4722,16 +4884,19 @@
       <c r="Y54" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="55" spans="1:25">
+      <c r="Z54" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D55" t="n">
         <v>0.75</v>
@@ -4799,16 +4964,19 @@
       <c r="Y55" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="56" spans="1:25">
+      <c r="Z55" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -4876,16 +5044,19 @@
       <c r="Y56" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="57" spans="1:25">
+      <c r="Z56" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D57" t="n">
         <v>0.06</v>
@@ -4953,16 +5124,19 @@
       <c r="Y57" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="58" spans="1:25">
+      <c r="Z57" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D58" t="n">
         <v>0.9399999999999999</v>
@@ -5030,16 +5204,19 @@
       <c r="Y58" t="n">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="59" spans="1:25">
+      <c r="Z58" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" t="n">
         <v>0.07000000000000001</v>
@@ -5107,16 +5284,19 @@
       <c r="Y59" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:25">
+      <c r="Z59" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D60" t="n">
         <v>0.2</v>
@@ -5184,16 +5364,19 @@
       <c r="Y60" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="61" spans="1:25">
+      <c r="Z60" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D61" t="n">
         <v>0.73</v>
@@ -5261,16 +5444,19 @@
       <c r="Y61" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="62" spans="1:25">
+      <c r="Z61" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" t="n">
         <v>0.04</v>
@@ -5338,16 +5524,19 @@
       <c r="Y62" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="63" spans="1:25">
+      <c r="Z62" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
       <c r="A63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D63" t="n">
         <v>0.06</v>
@@ -5415,16 +5604,19 @@
       <c r="Y63" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="64" spans="1:25">
+      <c r="Z63" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D64" t="n">
         <v>0.9</v>
@@ -5492,16 +5684,19 @@
       <c r="Y64" t="n">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="65" spans="1:25">
+      <c r="Z64" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" t="n">
         <v>0.05</v>
@@ -5569,16 +5764,19 @@
       <c r="Y65" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="66" spans="1:25">
+      <c r="Z65" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
       <c r="A66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D66" t="n">
         <v>0.08</v>
@@ -5646,16 +5844,19 @@
       <c r="Y66" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:25">
+      <c r="Z66" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D67" t="n">
         <v>0.87</v>
@@ -5723,10 +5924,13 @@
       <c r="Y67" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="68" spans="1:25">
+      <c r="Z67" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
       <c r="A68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5740,7 +5944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5748,7 +5952,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5821,13 +6025,16 @@
       <c r="X1" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
         <v>2535</v>
@@ -5895,13 +6102,16 @@
       <c r="X2" t="n">
         <v>1807</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="n">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
         <v>1201</v>
@@ -5969,13 +6179,16 @@
       <c r="X3" t="n">
         <v>856</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="n">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
         <v>225</v>
@@ -6043,13 +6256,16 @@
       <c r="X4" t="n">
         <v>144</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
         <v>837</v>
@@ -6117,13 +6333,16 @@
       <c r="X5" t="n">
         <v>569</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="n">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
         <v>272</v>
@@ -6191,13 +6410,16 @@
       <c r="X6" t="n">
         <v>238</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
         <v>1145</v>
@@ -6265,13 +6487,16 @@
       <c r="X7" t="n">
         <v>812</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" t="n">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
         <v>210</v>
@@ -6339,13 +6564,16 @@
       <c r="X8" t="n">
         <v>134</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="n">
         <v>135</v>
@@ -6413,13 +6641,16 @@
       <c r="X9" t="n">
         <v>119</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
         <v>1045</v>
@@ -6487,13 +6718,16 @@
       <c r="X10" t="n">
         <v>742</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="n">
         <v>1114</v>
@@ -6561,13 +6795,16 @@
       <c r="X11" t="n">
         <v>852</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" t="n">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="n">
         <v>889</v>
@@ -6635,13 +6872,16 @@
       <c r="X12" t="n">
         <v>605</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" t="n">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="n">
         <v>532</v>
@@ -6709,13 +6949,16 @@
       <c r="X13" t="n">
         <v>350</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="n">
         <v>689</v>
@@ -6783,13 +7026,16 @@
       <c r="X14" t="n">
         <v>503</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" t="n">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="n">
         <v>1846</v>
@@ -6857,13 +7103,16 @@
       <c r="X15" t="n">
         <v>1304</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" t="n">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="n">
         <v>234</v>
@@ -6931,13 +7180,16 @@
       <c r="X16" t="n">
         <v>159</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="n">
         <v>450</v>
@@ -7005,13 +7257,16 @@
       <c r="X17" t="n">
         <v>325</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" t="n">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
         <v>1851</v>
@@ -7079,13 +7334,16 @@
       <c r="X18" t="n">
         <v>1323</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18" t="n">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" t="n">
         <v>434</v>
@@ -7153,13 +7411,16 @@
       <c r="X19" t="n">
         <v>317</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19" t="n">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" t="n">
         <v>116</v>
@@ -7227,13 +7488,16 @@
       <c r="X20" t="n">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" t="n">
         <v>421</v>
@@ -7301,13 +7565,16 @@
       <c r="X21" t="n">
         <v>293</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" t="n">
         <v>239</v>
@@ -7375,13 +7642,16 @@
       <c r="X22" t="n">
         <v>156</v>
       </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Y22" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" t="n">
         <v>141</v>
@@ -7449,10 +7719,13 @@
       <c r="X23" t="n">
         <v>94</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -7477,6 +7750,7 @@
       <c r="V24" t="s"/>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_02_zasazeni_domacnosti.xlsx
+++ b/ZBP_02_zasazeni_domacnosti.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>trideni</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>2. 3. 2021</t>
+  </si>
+  <si>
+    <t>16. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -182,10 +185,10 @@
     <t>Školství a kultura</t>
   </si>
   <si>
-    <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+    <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 23. 3. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+    <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 3. 2021</t>
   </si>
 </sst>
 </file>
@@ -560,7 +563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z68"/>
+  <dimension ref="A1:AA68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,7 +571,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,16 +650,19 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
         <v>0.09</v>
@@ -727,16 +733,19 @@
       <c r="Z2" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
         <v>0.18</v>
@@ -807,16 +816,19 @@
       <c r="Z3" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
         <v>0.73</v>
@@ -887,16 +899,19 @@
       <c r="Z4" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
         <v>0.07000000000000001</v>
@@ -967,16 +982,19 @@
       <c r="Z5" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
         <v>0.15</v>
@@ -1047,16 +1065,19 @@
       <c r="Z6" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
       </c>
       <c r="D7" t="n">
         <v>0.78</v>
@@ -1127,16 +1148,19 @@
       <c r="Z7" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
         <v>0.08</v>
@@ -1207,16 +1231,19 @@
       <c r="Z8" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
         <v>0.11</v>
@@ -1287,16 +1314,19 @@
       <c r="Z9" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
       </c>
       <c r="D10" t="n">
         <v>0.8100000000000001</v>
@@ -1367,16 +1397,19 @@
       <c r="Z10" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="n">
         <v>0.09</v>
@@ -1447,16 +1480,19 @@
       <c r="Z11" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
         <v>0.23</v>
@@ -1527,16 +1563,19 @@
       <c r="Z12" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
       </c>
       <c r="D13" t="n">
         <v>0.68</v>
@@ -1607,16 +1646,19 @@
       <c r="Z13" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
         <v>0.2</v>
@@ -1687,16 +1729,19 @@
       <c r="Z14" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
         <v>0.18</v>
@@ -1767,16 +1812,19 @@
       <c r="Z15" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
       </c>
       <c r="D16" t="n">
         <v>0.62</v>
@@ -1847,16 +1895,19 @@
       <c r="Z16" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
         <v>0.06</v>
@@ -1927,16 +1978,19 @@
       <c r="Z17" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
         <v>0.15</v>
@@ -2007,16 +2061,19 @@
       <c r="Z18" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" t="n">
         <v>0.79</v>
@@ -2087,16 +2144,19 @@
       <c r="Z19" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
         <v>0.08</v>
@@ -2167,16 +2227,19 @@
       <c r="Z20" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
         <v>0.12</v>
@@ -2247,16 +2310,19 @@
       <c r="Z21" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" t="n">
         <v>0.8</v>
@@ -2327,16 +2393,19 @@
       <c r="Z22" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
         <v>0.13</v>
@@ -2407,16 +2476,19 @@
       <c r="Z23" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
         <v>0.2</v>
@@ -2487,16 +2559,19 @@
       <c r="Z24" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AA24" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25" t="n">
         <v>0.67</v>
@@ -2567,16 +2642,19 @@
       <c r="Z25" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="AA25" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" t="n">
         <v>0.12</v>
@@ -2647,16 +2725,19 @@
       <c r="Z26" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AA26" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
         <v>0.21</v>
@@ -2727,16 +2808,19 @@
       <c r="Z27" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="AA27" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" t="n">
         <v>0.67</v>
@@ -2807,16 +2891,19 @@
       <c r="Z28" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="AA28" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" t="n">
         <v>0.14</v>
@@ -2887,16 +2974,19 @@
       <c r="Z29" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="AA29" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
         <v>0.26</v>
@@ -2967,16 +3057,19 @@
       <c r="Z30" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="AA30" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31" t="n">
         <v>0.6</v>
@@ -3047,16 +3140,19 @@
       <c r="Z31" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="AA31" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32" t="n">
         <v>0.08</v>
@@ -3127,16 +3223,19 @@
       <c r="Z32" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="AA32" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
         <v>0.14</v>
@@ -3207,16 +3306,19 @@
       <c r="Z33" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="34" spans="1:26">
+      <c r="AA33" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D34" t="n">
         <v>0.78</v>
@@ -3287,16 +3389,19 @@
       <c r="Z34" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="AA34" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D35" t="n">
         <v>0.02</v>
@@ -3367,16 +3472,19 @@
       <c r="Z35" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="AA35" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D36" t="n">
         <v>0.06</v>
@@ -3447,16 +3555,19 @@
       <c r="Z36" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="AA36" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D37" t="n">
         <v>0.92</v>
@@ -3527,16 +3638,19 @@
       <c r="Z37" t="n">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="38" spans="1:26">
+      <c r="AA37" t="n">
+        <v>0.915</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D38" t="n">
         <v>0.15</v>
@@ -3607,16 +3721,19 @@
       <c r="Z38" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="AA38" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
         <v>0.25</v>
@@ -3687,16 +3804,19 @@
       <c r="Z39" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="40" spans="1:26">
+      <c r="AA39" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D40" t="n">
         <v>0.6</v>
@@ -3767,16 +3887,19 @@
       <c r="Z40" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="AA40" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D41" t="n">
         <v>0.07000000000000001</v>
@@ -3847,16 +3970,19 @@
       <c r="Z41" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="42" spans="1:26">
+      <c r="AA41" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D42" t="n">
         <v>0.15</v>
@@ -3927,16 +4053,19 @@
       <c r="Z42" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="AA42" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D43" t="n">
         <v>0.78</v>
@@ -4007,16 +4136,19 @@
       <c r="Z43" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="44" spans="1:26">
+      <c r="AA43" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -4087,16 +4219,19 @@
       <c r="Z44" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="45" spans="1:26">
+      <c r="AA44" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4167,16 +4302,19 @@
       <c r="Z45" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="46" spans="1:26">
+      <c r="AA45" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4247,16 +4385,19 @@
       <c r="Z46" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="47" spans="1:26">
+      <c r="AA46" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" t="s">
         <v>29</v>
-      </c>
-      <c r="C47" t="s">
-        <v>28</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -4327,16 +4468,19 @@
       <c r="Z47" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="48" spans="1:26">
+      <c r="AA47" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -4407,16 +4551,19 @@
       <c r="Z48" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="49" spans="1:26">
+      <c r="AA48" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -4487,16 +4634,19 @@
       <c r="Z49" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="50" spans="1:26">
+      <c r="AA49" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -4567,16 +4717,19 @@
       <c r="Z50" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="51" spans="1:26">
+      <c r="AA50" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" t="s">
         <v>30</v>
-      </c>
-      <c r="C51" t="s">
-        <v>29</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -4647,16 +4800,19 @@
       <c r="Z51" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="52" spans="1:26">
+      <c r="AA51" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -4727,16 +4883,19 @@
       <c r="Z52" t="n">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="53" spans="1:26">
+      <c r="AA52" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D53" t="n">
         <v>0.09</v>
@@ -4807,16 +4966,19 @@
       <c r="Z53" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="54" spans="1:26">
+      <c r="AA53" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54" t="n">
         <v>0.16</v>
@@ -4887,16 +5049,19 @@
       <c r="Z54" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="55" spans="1:26">
+      <c r="AA54" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D55" t="n">
         <v>0.75</v>
@@ -4967,16 +5132,19 @@
       <c r="Z55" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="56" spans="1:26">
+      <c r="AA55" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -5047,16 +5215,19 @@
       <c r="Z56" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="57" spans="1:26">
+      <c r="AA56" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D57" t="n">
         <v>0.06</v>
@@ -5127,16 +5298,19 @@
       <c r="Z57" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="58" spans="1:26">
+      <c r="AA57" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D58" t="n">
         <v>0.9399999999999999</v>
@@ -5207,16 +5381,19 @@
       <c r="Z58" t="n">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="59" spans="1:26">
+      <c r="AA58" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D59" t="n">
         <v>0.07000000000000001</v>
@@ -5287,16 +5464,19 @@
       <c r="Z59" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="60" spans="1:26">
+      <c r="AA59" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D60" t="n">
         <v>0.2</v>
@@ -5367,16 +5547,19 @@
       <c r="Z60" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="61" spans="1:26">
+      <c r="AA60" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D61" t="n">
         <v>0.73</v>
@@ -5447,16 +5630,19 @@
       <c r="Z61" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="62" spans="1:26">
+      <c r="AA61" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D62" t="n">
         <v>0.04</v>
@@ -5527,16 +5713,19 @@
       <c r="Z62" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="63" spans="1:26">
+      <c r="AA62" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D63" t="n">
         <v>0.06</v>
@@ -5607,16 +5796,19 @@
       <c r="Z63" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:26">
+      <c r="AA63" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D64" t="n">
         <v>0.9</v>
@@ -5687,16 +5879,19 @@
       <c r="Z64" t="n">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="65" spans="1:26">
+      <c r="AA64" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D65" t="n">
         <v>0.05</v>
@@ -5767,16 +5962,19 @@
       <c r="Z65" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="66" spans="1:26">
+      <c r="AA65" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D66" t="n">
         <v>0.08</v>
@@ -5847,16 +6045,19 @@
       <c r="Z66" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="67" spans="1:26">
+      <c r="AA66" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27">
       <c r="A67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D67" t="n">
         <v>0.87</v>
@@ -5927,10 +6128,13 @@
       <c r="Z67" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="68" spans="1:26">
+      <c r="AA67" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27">
       <c r="A68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -5944,7 +6148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5952,7 +6156,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6028,13 +6232,16 @@
       <c r="Y1" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
         <v>2535</v>
@@ -6105,13 +6312,16 @@
       <c r="Y2" t="n">
         <v>1813</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" t="n">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
         <v>1201</v>
@@ -6182,13 +6392,16 @@
       <c r="Y3" t="n">
         <v>859</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3" t="n">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
         <v>225</v>
@@ -6259,13 +6472,16 @@
       <c r="Y4" t="n">
         <v>143</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="n">
         <v>837</v>
@@ -6336,13 +6552,16 @@
       <c r="Y5" t="n">
         <v>573</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" t="n">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
         <v>272</v>
@@ -6413,13 +6632,16 @@
       <c r="Y6" t="n">
         <v>238</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="n">
         <v>1145</v>
@@ -6490,13 +6712,16 @@
       <c r="Y7" t="n">
         <v>814</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" t="n">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
         <v>210</v>
@@ -6567,13 +6792,16 @@
       <c r="Y8" t="n">
         <v>131</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="n">
         <v>135</v>
@@ -6644,13 +6872,16 @@
       <c r="Y9" t="n">
         <v>120</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="n">
         <v>1045</v>
@@ -6721,13 +6952,16 @@
       <c r="Y10" t="n">
         <v>748</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" t="n">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="n">
         <v>1114</v>
@@ -6798,13 +7032,16 @@
       <c r="Y11" t="n">
         <v>865</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" t="n">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="n">
         <v>889</v>
@@ -6875,13 +7112,16 @@
       <c r="Y12" t="n">
         <v>595</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" t="n">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="n">
         <v>532</v>
@@ -6952,13 +7192,16 @@
       <c r="Y13" t="n">
         <v>353</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" t="n">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="n">
         <v>689</v>
@@ -7029,13 +7272,16 @@
       <c r="Y14" t="n">
         <v>499</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" t="n">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" t="n">
         <v>1846</v>
@@ -7106,13 +7352,16 @@
       <c r="Y15" t="n">
         <v>1314</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" t="n">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="n">
         <v>234</v>
@@ -7183,13 +7432,16 @@
       <c r="Y16" t="n">
         <v>161</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
         <v>450</v>
@@ -7260,13 +7512,16 @@
       <c r="Y17" t="n">
         <v>332</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17" t="n">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" t="n">
         <v>1851</v>
@@ -7337,13 +7592,16 @@
       <c r="Y18" t="n">
         <v>1320</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18" t="n">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" t="n">
         <v>434</v>
@@ -7414,13 +7672,16 @@
       <c r="Y19" t="n">
         <v>318</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19" t="n">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="n">
         <v>116</v>
@@ -7491,13 +7752,16 @@
       <c r="Y20" t="n">
         <v>91</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="n">
         <v>421</v>
@@ -7568,13 +7832,16 @@
       <c r="Y21" t="n">
         <v>289</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" t="n">
         <v>239</v>
@@ -7645,13 +7912,16 @@
       <c r="Y22" t="n">
         <v>154</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" t="n">
         <v>141</v>
@@ -7722,10 +7992,13 @@
       <c r="Y23" t="n">
         <v>96</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -7751,6 +8024,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s"/>
+      <c r="Z24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_02_zasazeni_domacnosti.xlsx
+++ b/ZBP_02_zasazeni_domacnosti.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>trideni</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>16. 3. 2021</t>
+  </si>
+  <si>
+    <t>30. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -185,10 +188,10 @@
     <t>Školství a kultura</t>
   </si>
   <si>
-    <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 23. 3. 2021</t>
+    <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 7. 4. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 3. 2021</t>
+    <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 7. 4. 2021</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA68"/>
+  <dimension ref="A1:AB68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +574,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,16 +656,19 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
         <v>0.09</v>
@@ -736,16 +742,19 @@
       <c r="AA2" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
         <v>0.18</v>
@@ -819,16 +828,19 @@
       <c r="AA3" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
         <v>0.73</v>
@@ -902,16 +914,19 @@
       <c r="AA4" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
         <v>0.07000000000000001</v>
@@ -985,16 +1000,19 @@
       <c r="AA5" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
         <v>0.15</v>
@@ -1068,16 +1086,19 @@
       <c r="AA6" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
       </c>
       <c r="D7" t="n">
         <v>0.78</v>
@@ -1151,16 +1172,19 @@
       <c r="AA7" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
         <v>0.08</v>
@@ -1234,16 +1258,19 @@
       <c r="AA8" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
         <v>0.11</v>
@@ -1317,16 +1344,19 @@
       <c r="AA9" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
       </c>
       <c r="D10" t="n">
         <v>0.8100000000000001</v>
@@ -1400,16 +1430,19 @@
       <c r="AA10" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
         <v>0.09</v>
@@ -1483,16 +1516,19 @@
       <c r="AA11" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" t="n">
         <v>0.23</v>
@@ -1566,16 +1602,19 @@
       <c r="AA12" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
       </c>
       <c r="D13" t="n">
         <v>0.68</v>
@@ -1649,16 +1688,19 @@
       <c r="AA13" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
         <v>0.2</v>
@@ -1732,16 +1774,19 @@
       <c r="AA14" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" t="n">
         <v>0.18</v>
@@ -1815,16 +1860,19 @@
       <c r="AA15" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
       </c>
       <c r="D16" t="n">
         <v>0.62</v>
@@ -1898,16 +1946,19 @@
       <c r="AA16" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
         <v>0.06</v>
@@ -1981,16 +2032,19 @@
       <c r="AA17" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" t="n">
         <v>0.15</v>
@@ -2064,16 +2118,19 @@
       <c r="AA18" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" t="n">
         <v>0.79</v>
@@ -2147,16 +2204,19 @@
       <c r="AA19" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
         <v>0.08</v>
@@ -2230,16 +2290,19 @@
       <c r="AA20" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AB20" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" t="n">
         <v>0.12</v>
@@ -2313,16 +2376,19 @@
       <c r="AA21" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AB21" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" t="n">
         <v>0.8</v>
@@ -2396,16 +2462,19 @@
       <c r="AA22" t="n">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AB22" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
         <v>0.13</v>
@@ -2479,16 +2548,19 @@
       <c r="AA23" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AB23" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D24" t="n">
         <v>0.2</v>
@@ -2562,16 +2634,19 @@
       <c r="AA24" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AB24" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
         <v>0.67</v>
@@ -2645,16 +2720,19 @@
       <c r="AA25" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AB25" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
         <v>0.12</v>
@@ -2728,16 +2806,19 @@
       <c r="AA26" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AB26" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" t="n">
         <v>0.21</v>
@@ -2811,16 +2892,19 @@
       <c r="AA27" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AB27" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28" t="n">
         <v>0.67</v>
@@ -2894,16 +2978,19 @@
       <c r="AA28" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AB28" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
         <v>0.14</v>
@@ -2977,16 +3064,19 @@
       <c r="AA29" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AB29" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D30" t="n">
         <v>0.26</v>
@@ -3060,16 +3150,19 @@
       <c r="AA30" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AB30" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D31" t="n">
         <v>0.6</v>
@@ -3143,16 +3236,19 @@
       <c r="AA31" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AB31" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32" t="n">
         <v>0.08</v>
@@ -3226,16 +3322,19 @@
       <c r="AA32" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AB32" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D33" t="n">
         <v>0.14</v>
@@ -3309,16 +3408,19 @@
       <c r="AA33" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AB33" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D34" t="n">
         <v>0.78</v>
@@ -3392,16 +3494,19 @@
       <c r="AA34" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AB34" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D35" t="n">
         <v>0.02</v>
@@ -3475,16 +3580,19 @@
       <c r="AA35" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AB35" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D36" t="n">
         <v>0.06</v>
@@ -3558,16 +3666,19 @@
       <c r="AA36" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AB36" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D37" t="n">
         <v>0.92</v>
@@ -3641,16 +3752,19 @@
       <c r="AA37" t="n">
         <v>0.915</v>
       </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AB37" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D38" t="n">
         <v>0.15</v>
@@ -3724,16 +3838,19 @@
       <c r="AA38" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AB38" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D39" t="n">
         <v>0.25</v>
@@ -3807,16 +3924,19 @@
       <c r="AA39" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AB39" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D40" t="n">
         <v>0.6</v>
@@ -3890,16 +4010,19 @@
       <c r="AA40" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AB40" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D41" t="n">
         <v>0.07000000000000001</v>
@@ -3973,16 +4096,19 @@
       <c r="AA41" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AB41" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D42" t="n">
         <v>0.15</v>
@@ -4056,16 +4182,19 @@
       <c r="AA42" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AB42" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D43" t="n">
         <v>0.78</v>
@@ -4139,16 +4268,19 @@
       <c r="AA43" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AB43" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -4222,16 +4354,19 @@
       <c r="AA44" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AB44" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4305,16 +4440,19 @@
       <c r="AA45" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AB45" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4388,16 +4526,19 @@
       <c r="AA46" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AB46" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" t="s">
         <v>30</v>
-      </c>
-      <c r="C47" t="s">
-        <v>29</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -4471,16 +4612,19 @@
       <c r="AA47" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AB47" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -4554,16 +4698,19 @@
       <c r="AA48" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AB48" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -4637,16 +4784,19 @@
       <c r="AA49" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AB49" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -4720,16 +4870,19 @@
       <c r="AA50" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AB50" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
         <v>31</v>
-      </c>
-      <c r="C51" t="s">
-        <v>30</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -4803,16 +4956,19 @@
       <c r="AA51" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AB51" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -4886,16 +5042,19 @@
       <c r="AA52" t="n">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AB52" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" t="n">
         <v>0.09</v>
@@ -4969,16 +5128,19 @@
       <c r="AA53" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AB53" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D54" t="n">
         <v>0.16</v>
@@ -5052,16 +5214,19 @@
       <c r="AA54" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AB54" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D55" t="n">
         <v>0.75</v>
@@ -5135,16 +5300,19 @@
       <c r="AA55" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AB55" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -5218,16 +5386,19 @@
       <c r="AA56" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AB56" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D57" t="n">
         <v>0.06</v>
@@ -5301,16 +5472,19 @@
       <c r="AA57" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AB57" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D58" t="n">
         <v>0.9399999999999999</v>
@@ -5384,16 +5558,19 @@
       <c r="AA58" t="n">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AB58" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D59" t="n">
         <v>0.07000000000000001</v>
@@ -5467,16 +5644,19 @@
       <c r="AA59" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AB59" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D60" t="n">
         <v>0.2</v>
@@ -5550,16 +5730,19 @@
       <c r="AA60" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="61" spans="1:27">
+      <c r="AB60" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D61" t="n">
         <v>0.73</v>
@@ -5633,16 +5816,19 @@
       <c r="AA61" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="62" spans="1:27">
+      <c r="AB61" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
         <v>0.04</v>
@@ -5716,16 +5902,19 @@
       <c r="AA62" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="63" spans="1:27">
+      <c r="AB62" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D63" t="n">
         <v>0.06</v>
@@ -5799,16 +5988,19 @@
       <c r="AA63" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="64" spans="1:27">
+      <c r="AB63" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D64" t="n">
         <v>0.9</v>
@@ -5882,16 +6074,19 @@
       <c r="AA64" t="n">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="65" spans="1:27">
+      <c r="AB64" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D65" t="n">
         <v>0.05</v>
@@ -5965,16 +6160,19 @@
       <c r="AA65" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="66" spans="1:27">
+      <c r="AB65" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D66" t="n">
         <v>0.08</v>
@@ -6048,16 +6246,19 @@
       <c r="AA66" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="67" spans="1:27">
+      <c r="AB66" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D67" t="n">
         <v>0.87</v>
@@ -6131,10 +6332,13 @@
       <c r="AA67" t="n">
         <v>0.8100000000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:27">
+      <c r="AB67" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -6148,7 +6352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6156,7 +6360,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6235,13 +6439,16 @@
       <c r="Z1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
         <v>2535</v>
@@ -6315,13 +6522,16 @@
       <c r="Z2" t="n">
         <v>1786</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" t="n">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
         <v>1201</v>
@@ -6395,13 +6605,16 @@
       <c r="Z3" t="n">
         <v>848</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="n">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
         <v>225</v>
@@ -6475,13 +6688,16 @@
       <c r="Z4" t="n">
         <v>139</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="n">
         <v>837</v>
@@ -6555,13 +6771,16 @@
       <c r="Z5" t="n">
         <v>563</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n">
         <v>272</v>
@@ -6635,13 +6854,16 @@
       <c r="Z6" t="n">
         <v>236</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
         <v>1145</v>
@@ -6715,13 +6937,16 @@
       <c r="Z7" t="n">
         <v>807</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" t="n">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="n">
         <v>210</v>
@@ -6795,13 +7020,16 @@
       <c r="Z8" t="n">
         <v>127</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="n">
         <v>135</v>
@@ -6875,13 +7103,16 @@
       <c r="Z9" t="n">
         <v>116</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="n">
         <v>1045</v>
@@ -6955,13 +7186,16 @@
       <c r="Z10" t="n">
         <v>736</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" t="n">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="n">
         <v>1114</v>
@@ -7035,13 +7269,16 @@
       <c r="Z11" t="n">
         <v>842</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="n">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="n">
         <v>889</v>
@@ -7115,13 +7352,16 @@
       <c r="Z12" t="n">
         <v>601</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" t="n">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="n">
         <v>532</v>
@@ -7195,13 +7435,16 @@
       <c r="Z13" t="n">
         <v>343</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="n">
         <v>689</v>
@@ -7275,13 +7518,16 @@
       <c r="Z14" t="n">
         <v>511</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" t="n">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="n">
         <v>1846</v>
@@ -7355,13 +7601,16 @@
       <c r="Z15" t="n">
         <v>1275</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" t="n">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
         <v>234</v>
@@ -7435,13 +7684,16 @@
       <c r="Z16" t="n">
         <v>163</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" t="n">
         <v>450</v>
@@ -7515,13 +7767,16 @@
       <c r="Z17" t="n">
         <v>326</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" t="n">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" t="n">
         <v>1851</v>
@@ -7595,13 +7850,16 @@
       <c r="Z18" t="n">
         <v>1297</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" t="n">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" t="n">
         <v>434</v>
@@ -7675,13 +7933,16 @@
       <c r="Z19" t="n">
         <v>322</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" t="n">
         <v>116</v>
@@ -7755,13 +8016,16 @@
       <c r="Z20" t="n">
         <v>92</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" t="n">
         <v>421</v>
@@ -7835,13 +8099,16 @@
       <c r="Z21" t="n">
         <v>282</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21" t="n">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" t="n">
         <v>239</v>
@@ -7915,13 +8182,16 @@
       <c r="Z22" t="n">
         <v>151</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" t="n">
         <v>141</v>
@@ -7995,10 +8265,13 @@
       <c r="Z23" t="n">
         <v>96</v>
       </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -8025,6 +8298,7 @@
       <c r="X24" t="s"/>
       <c r="Y24" t="s"/>
       <c r="Z24" t="s"/>
+      <c r="AA24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_02_zasazeni_domacnosti.xlsx
+++ b/ZBP_02_zasazeni_domacnosti.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>trideni</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>30. 3. 2021</t>
+  </si>
+  <si>
+    <t>13. 4. 2021</t>
+  </si>
+  <si>
+    <t>4. 5. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -188,10 +194,10 @@
     <t>Školství a kultura</t>
   </si>
   <si>
-    <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 7. 4. 2021</t>
+    <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 11. 5. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 7. 4. 2021</t>
+    <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 11. 5. 2021</t>
   </si>
 </sst>
 </file>
@@ -566,7 +572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB68"/>
+  <dimension ref="A1:AD68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +580,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,16 +665,22 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
         <v>0.09</v>
@@ -745,16 +757,22 @@
       <c r="AB2" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:28">
+      <c r="AC2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
         <v>0.18</v>
@@ -823,24 +841,30 @@
         <v>0.17</v>
       </c>
       <c r="Z3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AC3" t="n">
         <v>0.18</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AD3" t="n">
         <v>0.18</v>
       </c>
-      <c r="AB3" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
         <v>0.73</v>
@@ -909,24 +933,30 @@
         <v>0.72</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AB4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AC4" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="AD4" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
         <v>0.07000000000000001</v>
@@ -1003,16 +1033,22 @@
       <c r="AB5" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="AC5" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
       </c>
       <c r="D6" t="n">
         <v>0.15</v>
@@ -1084,21 +1120,27 @@
         <v>0.16</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28">
+        <v>0.15</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
       </c>
       <c r="D7" t="n">
         <v>0.78</v>
@@ -1170,21 +1212,27 @@
         <v>0.74</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
+        <v>0.76</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
         <v>0.08</v>
@@ -1261,16 +1309,22 @@
       <c r="AB8" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="AC8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
       </c>
       <c r="D9" t="n">
         <v>0.11</v>
@@ -1347,16 +1401,22 @@
       <c r="AB9" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="AC9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" t="n">
         <v>0.8100000000000001</v>
@@ -1433,16 +1493,22 @@
       <c r="AB10" t="n">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="AC10" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
         <v>0.09</v>
@@ -1519,16 +1585,22 @@
       <c r="AB11" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="AC11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
       </c>
       <c r="D12" t="n">
         <v>0.23</v>
@@ -1600,21 +1672,27 @@
         <v>0.21</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AB12" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="AC12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
         <v>0.68</v>
@@ -1686,21 +1764,27 @@
         <v>0.68</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="AB13" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="AC13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
         <v>0.2</v>
@@ -1777,16 +1861,22 @@
       <c r="AB14" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="AC14" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
         <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
       </c>
       <c r="D15" t="n">
         <v>0.18</v>
@@ -1858,21 +1948,27 @@
         <v>0.17</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AB15" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="AC15" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D16" t="n">
         <v>0.62</v>
@@ -1944,21 +2040,27 @@
         <v>0.61</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="AB16" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="AC16" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
         <v>0.06</v>
@@ -2035,16 +2137,22 @@
       <c r="AB17" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="AC17" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
         <v>0.15</v>
@@ -2116,21 +2224,27 @@
         <v>0.16</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28">
+        <v>0.15</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D19" t="n">
         <v>0.79</v>
@@ -2202,21 +2316,27 @@
         <v>0.75</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
+        <v>0.77</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" t="n">
         <v>0.08</v>
@@ -2293,16 +2413,22 @@
       <c r="AB20" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="AC20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D21" t="n">
         <v>0.12</v>
@@ -2379,16 +2505,22 @@
       <c r="AB21" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="AC21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D22" t="n">
         <v>0.8</v>
@@ -2465,16 +2597,22 @@
       <c r="AB22" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:28">
+      <c r="AC22" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D23" t="n">
         <v>0.13</v>
@@ -2551,16 +2689,22 @@
       <c r="AB23" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="24" spans="1:28">
+      <c r="AC23" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D24" t="n">
         <v>0.2</v>
@@ -2637,16 +2781,22 @@
       <c r="AB24" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="25" spans="1:28">
+      <c r="AC24" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D25" t="n">
         <v>0.67</v>
@@ -2723,16 +2873,22 @@
       <c r="AB25" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="26" spans="1:28">
+      <c r="AC25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D26" t="n">
         <v>0.12</v>
@@ -2809,16 +2965,22 @@
       <c r="AB26" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="27" spans="1:28">
+      <c r="AC26" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D27" t="n">
         <v>0.21</v>
@@ -2890,21 +3052,27 @@
         <v>0.2</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28">
+        <v>0.19</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D28" t="n">
         <v>0.67</v>
@@ -2976,21 +3144,27 @@
         <v>0.68</v>
       </c>
       <c r="AA28" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AD28" t="n">
         <v>0.68</v>
       </c>
-      <c r="AB28" t="n">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28">
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D29" t="n">
         <v>0.14</v>
@@ -3067,16 +3241,22 @@
       <c r="AB29" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="30" spans="1:28">
+      <c r="AC29" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D30" t="n">
         <v>0.26</v>
@@ -3148,21 +3328,27 @@
         <v>0.26</v>
       </c>
       <c r="AA30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC30" t="n">
         <v>0.26</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AD30" t="n">
         <v>0.26</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:30">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D31" t="n">
         <v>0.6</v>
@@ -3234,21 +3420,27 @@
         <v>0.57</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28">
+        <v>0.59</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D32" t="n">
         <v>0.08</v>
@@ -3325,16 +3517,22 @@
       <c r="AB32" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="33" spans="1:28">
+      <c r="AC32" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D33" t="n">
         <v>0.14</v>
@@ -3403,7 +3601,7 @@
         <v>0.14</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AA33" t="n">
         <v>0.16</v>
@@ -3411,16 +3609,22 @@
       <c r="AB33" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="34" spans="1:28">
+      <c r="AC33" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D34" t="n">
         <v>0.78</v>
@@ -3489,7 +3693,7 @@
         <v>0.75</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AA34" t="n">
         <v>0.75</v>
@@ -3497,16 +3701,22 @@
       <c r="AB34" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="35" spans="1:28">
+      <c r="AC34" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D35" t="n">
         <v>0.02</v>
@@ -3583,16 +3793,22 @@
       <c r="AB35" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="36" spans="1:28">
+      <c r="AC35" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D36" t="n">
         <v>0.06</v>
@@ -3661,24 +3877,30 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA36" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AC36" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AD36" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:30">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D37" t="n">
         <v>0.92</v>
@@ -3747,24 +3969,30 @@
         <v>0.915</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AA37" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AC37" t="n">
         <v>0.915</v>
       </c>
-      <c r="AB37" t="n">
+      <c r="AD37" t="n">
         <v>0.92</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:30">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D38" t="n">
         <v>0.15</v>
@@ -3841,16 +4069,22 @@
       <c r="AB38" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="39" spans="1:28">
+      <c r="AC38" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D39" t="n">
         <v>0.25</v>
@@ -3922,21 +4156,27 @@
         <v>0.24</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28">
+        <v>0.22</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D40" t="n">
         <v>0.6</v>
@@ -4008,21 +4248,27 @@
         <v>0.6</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28">
+        <v>0.62</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D41" t="n">
         <v>0.07000000000000001</v>
@@ -4099,16 +4345,22 @@
       <c r="AB41" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="42" spans="1:28">
+      <c r="AC41" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D42" t="n">
         <v>0.15</v>
@@ -4180,21 +4432,27 @@
         <v>0.16</v>
       </c>
       <c r="AA42" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AB42" t="n">
         <v>0.16</v>
       </c>
-      <c r="AB42" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28">
+      <c r="AC42" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D43" t="n">
         <v>0.78</v>
@@ -4266,21 +4524,27 @@
         <v>0.74</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28">
+        <v>0.76</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -4357,16 +4621,22 @@
       <c r="AB44" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="45" spans="1:28">
+      <c r="AC44" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4443,16 +4713,22 @@
       <c r="AB45" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="46" spans="1:28">
+      <c r="AC45" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4529,16 +4805,22 @@
       <c r="AB46" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="47" spans="1:28">
+      <c r="AC46" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -4615,16 +4897,22 @@
       <c r="AB47" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="48" spans="1:28">
+      <c r="AC47" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -4693,24 +4981,30 @@
         <v>0.55</v>
       </c>
       <c r="Z48" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AA48" t="n">
         <v>0.58</v>
       </c>
-      <c r="AA48" t="n">
-        <v>0.61</v>
-      </c>
       <c r="AB48" t="n">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28">
+        <v>0.55</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -4779,24 +5073,30 @@
         <v>0.34</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28">
+        <v>0.36</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s">
         <v>32</v>
-      </c>
-      <c r="C50" t="s">
-        <v>30</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -4873,16 +5173,22 @@
       <c r="AB50" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="51" spans="1:28">
+      <c r="AC50" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -4957,18 +5263,24 @@
         <v>0.08</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28">
+        <v>0.08</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -5043,18 +5355,24 @@
         <v>0.88</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28">
+        <v>0.89</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D53" t="n">
         <v>0.09</v>
@@ -5131,16 +5449,22 @@
       <c r="AB53" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="54" spans="1:28">
+      <c r="AC53" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D54" t="n">
         <v>0.16</v>
@@ -5209,24 +5533,30 @@
         <v>0.22</v>
       </c>
       <c r="Z54" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AA54" t="n">
         <v>0.22</v>
       </c>
-      <c r="AA54" t="n">
-        <v>0.23</v>
-      </c>
       <c r="AB54" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28">
+        <v>0.22</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D55" t="n">
         <v>0.75</v>
@@ -5295,24 +5625,30 @@
         <v>0.64</v>
       </c>
       <c r="Z55" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AA55" t="n">
         <v>0.66</v>
       </c>
-      <c r="AA55" t="n">
-        <v>0.65</v>
-      </c>
       <c r="AB55" t="n">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28">
+        <v>0.7</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -5389,16 +5725,22 @@
       <c r="AB56" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="57" spans="1:28">
+      <c r="AC56" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D57" t="n">
         <v>0.06</v>
@@ -5475,16 +5817,22 @@
       <c r="AB57" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="58" spans="1:28">
+      <c r="AC57" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D58" t="n">
         <v>0.9399999999999999</v>
@@ -5561,16 +5909,22 @@
       <c r="AB58" t="n">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="59" spans="1:28">
+      <c r="AC58" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D59" t="n">
         <v>0.07000000000000001</v>
@@ -5647,16 +6001,22 @@
       <c r="AB59" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:28">
+      <c r="AC59" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D60" t="n">
         <v>0.2</v>
@@ -5728,21 +6088,27 @@
         <v>0.22</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="AB60" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28">
+        <v>0.21</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D61" t="n">
         <v>0.73</v>
@@ -5814,21 +6180,27 @@
         <v>0.7</v>
       </c>
       <c r="AA61" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AB61" t="n">
         <v>0.72</v>
       </c>
-      <c r="AB61" t="n">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28">
+      <c r="AC61" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D62" t="n">
         <v>0.04</v>
@@ -5905,16 +6277,22 @@
       <c r="AB62" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:28">
+      <c r="AC62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30">
       <c r="A63" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D63" t="n">
         <v>0.06</v>
@@ -5986,21 +6364,27 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AB63" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:28">
+      <c r="AC63" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30">
       <c r="A64" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D64" t="n">
         <v>0.9</v>
@@ -6072,21 +6456,27 @@
         <v>0.87</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AB64" t="n">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="65" spans="1:28">
+      <c r="AC64" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D65" t="n">
         <v>0.05</v>
@@ -6163,16 +6553,22 @@
       <c r="AB65" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="66" spans="1:28">
+      <c r="AC65" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30">
       <c r="A66" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D66" t="n">
         <v>0.08</v>
@@ -6241,24 +6637,30 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB66" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AC66" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="67" spans="1:28">
+      <c r="AD66" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D67" t="n">
         <v>0.87</v>
@@ -6327,18 +6729,24 @@
         <v>0.8</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AB67" t="n">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28">
+        <v>0.84</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -6352,7 +6760,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AC24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6360,7 +6768,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6442,13 +6850,19 @@
       <c r="AA1" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
         <v>2535</v>
@@ -6525,13 +6939,19 @@
       <c r="AA2" t="n">
         <v>1757</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" t="n">
+        <v>1731</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
         <v>1201</v>
@@ -6608,13 +7028,19 @@
       <c r="AA3" t="n">
         <v>837</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" t="n">
+        <v>824</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
         <v>225</v>
@@ -6691,13 +7117,19 @@
       <c r="AA4" t="n">
         <v>142</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" t="n">
+        <v>139</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
         <v>837</v>
@@ -6774,13 +7206,19 @@
       <c r="AA5" t="n">
         <v>550</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" t="n">
+        <v>549</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" t="n">
         <v>272</v>
@@ -6857,13 +7295,19 @@
       <c r="AA6" t="n">
         <v>228</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" t="n">
+        <v>219</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" t="n">
         <v>1145</v>
@@ -6940,13 +7384,19 @@
       <c r="AA7" t="n">
         <v>792</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" t="n">
+        <v>779</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8" t="n">
         <v>210</v>
@@ -7023,13 +7473,19 @@
       <c r="AA8" t="n">
         <v>129</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" t="n">
         <v>135</v>
@@ -7106,13 +7562,19 @@
       <c r="AA9" t="n">
         <v>119</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" t="n">
+        <v>114</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" t="n">
         <v>1045</v>
@@ -7189,13 +7651,19 @@
       <c r="AA10" t="n">
         <v>717</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" t="n">
+        <v>712</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" t="n">
         <v>1114</v>
@@ -7272,13 +7740,19 @@
       <c r="AA11" t="n">
         <v>827</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" t="n">
+        <v>813</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C12" t="n">
         <v>889</v>
@@ -7355,13 +7829,19 @@
       <c r="AA12" t="n">
         <v>586</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" t="n">
+        <v>580</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C13" t="n">
         <v>532</v>
@@ -7438,13 +7918,19 @@
       <c r="AA13" t="n">
         <v>344</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" t="n">
+        <v>338</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" t="n">
         <v>689</v>
@@ -7521,13 +8007,19 @@
       <c r="AA14" t="n">
         <v>494</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" t="n">
+        <v>490</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C15" t="n">
         <v>1846</v>
@@ -7604,13 +8096,19 @@
       <c r="AA15" t="n">
         <v>1263</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15" t="n">
+        <v>1241</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
         <v>234</v>
@@ -7687,13 +8185,19 @@
       <c r="AA16" t="n">
         <v>162</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16" t="n">
+        <v>158</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C17" t="n">
         <v>450</v>
@@ -7770,13 +8274,19 @@
       <c r="AA17" t="n">
         <v>317</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17" t="n">
+        <v>328</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
         <v>1851</v>
@@ -7853,13 +8363,19 @@
       <c r="AA18" t="n">
         <v>1278</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18" t="n">
+        <v>1245</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C19" t="n">
         <v>434</v>
@@ -7936,13 +8452,19 @@
       <c r="AA19" t="n">
         <v>308</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19" t="n">
+        <v>309</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C20" t="n">
         <v>116</v>
@@ -8019,13 +8541,19 @@
       <c r="AA20" t="n">
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AB20" t="n">
+        <v>89</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C21" t="n">
         <v>421</v>
@@ -8102,13 +8630,19 @@
       <c r="AA21" t="n">
         <v>287</v>
       </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AB21" t="n">
+        <v>277</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C22" t="n">
         <v>239</v>
@@ -8185,13 +8719,19 @@
       <c r="AA22" t="n">
         <v>158</v>
       </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AB22" t="n">
+        <v>147</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C23" t="n">
         <v>141</v>
@@ -8268,10 +8808,16 @@
       <c r="AA23" t="n">
         <v>93</v>
       </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AB23" t="n">
+        <v>93</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -8299,6 +8845,8 @@
       <c r="Y24" t="s"/>
       <c r="Z24" t="s"/>
       <c r="AA24" t="s"/>
+      <c r="AB24" t="s"/>
+      <c r="AC24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_02_zasazeni_domacnosti.xlsx
+++ b/ZBP_02_zasazeni_domacnosti.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>trideni</t>
   </si>
@@ -107,6 +107,9 @@
     <t>4. 5. 2021</t>
   </si>
   <si>
+    <t>25. 5. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -194,10 +197,10 @@
     <t>Školství a kultura</t>
   </si>
   <si>
-    <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 11. 5. 2021</t>
+    <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 11. 5. 2021</t>
+    <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD68"/>
+  <dimension ref="A1:AE68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,7 +583,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,16 +674,19 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
         <v>0.09</v>
@@ -763,16 +769,19 @@
       <c r="AD2" t="n">
         <v>0.1</v>
       </c>
+      <c r="AE2" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
         <v>0.18</v>
@@ -855,16 +864,19 @@
       <c r="AD3" t="n">
         <v>0.18</v>
       </c>
+      <c r="AE3" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
         <v>0.73</v>
@@ -947,16 +959,19 @@
       <c r="AD4" t="n">
         <v>0.72</v>
       </c>
+      <c r="AE4" t="n">
+        <v>0.72</v>
+      </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
         <v>0.07000000000000001</v>
@@ -1039,16 +1054,19 @@
       <c r="AD5" t="n">
         <v>0.08</v>
       </c>
+      <c r="AE5" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
         <v>0.15</v>
@@ -1129,18 +1147,21 @@
         <v>0.16</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.17</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
       </c>
       <c r="D7" t="n">
         <v>0.78</v>
@@ -1221,18 +1242,21 @@
         <v>0.76</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
         <v>0.08</v>
@@ -1315,16 +1339,19 @@
       <c r="AD8" t="n">
         <v>0.03</v>
       </c>
+      <c r="AE8" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
         <v>0.11</v>
@@ -1407,16 +1434,19 @@
       <c r="AD9" t="n">
         <v>0.13</v>
       </c>
+      <c r="AE9" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
       </c>
       <c r="D10" t="n">
         <v>0.8100000000000001</v>
@@ -1499,16 +1529,19 @@
       <c r="AD10" t="n">
         <v>0.84</v>
       </c>
+      <c r="AE10" t="n">
+        <v>0.84</v>
+      </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
         <v>0.09</v>
@@ -1591,16 +1624,19 @@
       <c r="AD11" t="n">
         <v>0.09</v>
       </c>
+      <c r="AE11" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="n">
         <v>0.23</v>
@@ -1683,16 +1719,19 @@
       <c r="AD12" t="n">
         <v>0.22</v>
       </c>
+      <c r="AE12" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
       </c>
       <c r="D13" t="n">
         <v>0.68</v>
@@ -1775,16 +1814,19 @@
       <c r="AD13" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AE13" t="n">
+        <v>0.72</v>
+      </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" t="n">
         <v>0.2</v>
@@ -1867,16 +1909,19 @@
       <c r="AD14" t="n">
         <v>0.23</v>
       </c>
+      <c r="AE14" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" t="n">
         <v>0.18</v>
@@ -1959,16 +2004,19 @@
       <c r="AD15" t="n">
         <v>0.14</v>
       </c>
+      <c r="AE15" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
         <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
       </c>
       <c r="D16" t="n">
         <v>0.62</v>
@@ -2051,16 +2099,19 @@
       <c r="AD16" t="n">
         <v>0.63</v>
       </c>
+      <c r="AE16" t="n">
+        <v>0.63</v>
+      </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
         <v>0.06</v>
@@ -2143,16 +2194,19 @@
       <c r="AD17" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AE17" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" t="n">
         <v>0.15</v>
@@ -2235,16 +2289,19 @@
       <c r="AD18" t="n">
         <v>0.16</v>
       </c>
+      <c r="AE18" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" t="n">
         <v>0.79</v>
@@ -2327,16 +2384,19 @@
       <c r="AD19" t="n">
         <v>0.77</v>
       </c>
+      <c r="AE19" t="n">
+        <v>0.76</v>
+      </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
         <v>0.08</v>
@@ -2419,16 +2479,19 @@
       <c r="AD20" t="n">
         <v>0.03</v>
       </c>
+      <c r="AE20" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" t="n">
         <v>0.12</v>
@@ -2511,16 +2574,19 @@
       <c r="AD21" t="n">
         <v>0.13</v>
       </c>
+      <c r="AE21" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" t="n">
         <v>0.8</v>
@@ -2603,16 +2669,19 @@
       <c r="AD22" t="n">
         <v>0.84</v>
       </c>
+      <c r="AE22" t="n">
+        <v>0.83</v>
+      </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" t="n">
         <v>0.13</v>
@@ -2695,16 +2764,19 @@
       <c r="AD23" t="n">
         <v>0.19</v>
       </c>
+      <c r="AE23" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
         <v>0.2</v>
@@ -2785,18 +2857,21 @@
         <v>0.22</v>
       </c>
       <c r="AD24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AE24" t="n">
         <v>0.19</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
         <v>0.67</v>
@@ -2877,18 +2952,21 @@
         <v>0.6</v>
       </c>
       <c r="AD25" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AE25" t="n">
         <v>0.62</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" t="n">
         <v>0.12</v>
@@ -2971,16 +3049,19 @@
       <c r="AD26" t="n">
         <v>0.11</v>
       </c>
+      <c r="AE26" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" t="n">
         <v>0.21</v>
@@ -3063,16 +3144,19 @@
       <c r="AD27" t="n">
         <v>0.21</v>
       </c>
+      <c r="AE27" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" t="n">
         <v>0.67</v>
@@ -3155,16 +3239,19 @@
       <c r="AD28" t="n">
         <v>0.68</v>
       </c>
+      <c r="AE28" t="n">
+        <v>0.71</v>
+      </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" t="n">
         <v>0.14</v>
@@ -3247,16 +3334,19 @@
       <c r="AD29" t="n">
         <v>0.15</v>
       </c>
+      <c r="AE29" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" t="n">
         <v>0.26</v>
@@ -3339,16 +3429,19 @@
       <c r="AD30" t="n">
         <v>0.26</v>
       </c>
+      <c r="AE30" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D31" t="n">
         <v>0.6</v>
@@ -3431,16 +3524,19 @@
       <c r="AD31" t="n">
         <v>0.59</v>
       </c>
+      <c r="AE31" t="n">
+        <v>0.62</v>
+      </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D32" t="n">
         <v>0.08</v>
@@ -3523,16 +3619,19 @@
       <c r="AD32" t="n">
         <v>0.08</v>
       </c>
+      <c r="AE32" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:31">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" t="n">
         <v>0.14</v>
@@ -3615,16 +3714,19 @@
       <c r="AD33" t="n">
         <v>0.15</v>
       </c>
+      <c r="AE33" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:31">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D34" t="n">
         <v>0.78</v>
@@ -3707,16 +3809,19 @@
       <c r="AD34" t="n">
         <v>0.77</v>
       </c>
+      <c r="AE34" t="n">
+        <v>0.77</v>
+      </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D35" t="n">
         <v>0.02</v>
@@ -3799,16 +3904,19 @@
       <c r="AD35" t="n">
         <v>0.01</v>
       </c>
+      <c r="AE35" t="n">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:31">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36" t="n">
         <v>0.06</v>
@@ -3891,16 +3999,19 @@
       <c r="AD36" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AE36" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:31">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D37" t="n">
         <v>0.92</v>
@@ -3983,16 +4094,19 @@
       <c r="AD37" t="n">
         <v>0.92</v>
       </c>
+      <c r="AE37" t="n">
+        <v>0.91</v>
+      </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:31">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D38" t="n">
         <v>0.15</v>
@@ -4073,18 +4187,21 @@
         <v>0.16</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.14</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:31">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D39" t="n">
         <v>0.25</v>
@@ -4165,18 +4282,21 @@
         <v>0.23</v>
       </c>
       <c r="AD39" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AE39" t="n">
         <v>0.23</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:31">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D40" t="n">
         <v>0.6</v>
@@ -4257,18 +4377,21 @@
         <v>0.61</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.61</v>
+        <v>0.59</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.63</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:31">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D41" t="n">
         <v>0.07000000000000001</v>
@@ -4351,16 +4474,19 @@
       <c r="AD41" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AE41" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:31">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D42" t="n">
         <v>0.15</v>
@@ -4443,16 +4569,19 @@
       <c r="AD42" t="n">
         <v>0.16</v>
       </c>
+      <c r="AE42" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:31">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D43" t="n">
         <v>0.78</v>
@@ -4535,16 +4664,19 @@
       <c r="AD43" t="n">
         <v>0.77</v>
       </c>
+      <c r="AE43" t="n">
+        <v>0.77</v>
+      </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:31">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -4627,16 +4759,19 @@
       <c r="AD44" t="n">
         <v>0.72</v>
       </c>
+      <c r="AE44" t="n">
+        <v>0.71</v>
+      </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:31">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4719,16 +4854,19 @@
       <c r="AD45" t="n">
         <v>0.13</v>
       </c>
+      <c r="AE45" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:31">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4811,16 +4949,19 @@
       <c r="AD46" t="n">
         <v>0.15</v>
       </c>
+      <c r="AE46" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:31">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
         <v>33</v>
-      </c>
-      <c r="C47" t="s">
-        <v>32</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -4903,16 +5044,19 @@
       <c r="AD47" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AE47" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:31">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -4995,16 +5139,19 @@
       <c r="AD48" t="n">
         <v>0.62</v>
       </c>
+      <c r="AE48" t="n">
+        <v>0.59</v>
+      </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:31">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -5087,16 +5234,19 @@
       <c r="AD49" t="n">
         <v>0.31</v>
       </c>
+      <c r="AE49" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:31">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -5179,16 +5329,19 @@
       <c r="AD50" t="n">
         <v>0.03</v>
       </c>
+      <c r="AE50" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:31">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" t="s">
         <v>34</v>
-      </c>
-      <c r="C51" t="s">
-        <v>33</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -5271,16 +5424,19 @@
       <c r="AD51" t="n">
         <v>0.08</v>
       </c>
+      <c r="AE51" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:31">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -5363,16 +5519,19 @@
       <c r="AD52" t="n">
         <v>0.89</v>
       </c>
+      <c r="AE52" t="n">
+        <v>0.89</v>
+      </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:31">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D53" t="n">
         <v>0.09</v>
@@ -5455,16 +5614,19 @@
       <c r="AD53" t="n">
         <v>0.09</v>
       </c>
+      <c r="AE53" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:31">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D54" t="n">
         <v>0.16</v>
@@ -5547,16 +5709,19 @@
       <c r="AD54" t="n">
         <v>0.19</v>
       </c>
+      <c r="AE54" t="n">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:31">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D55" t="n">
         <v>0.75</v>
@@ -5639,16 +5804,19 @@
       <c r="AD55" t="n">
         <v>0.72</v>
       </c>
+      <c r="AE55" t="n">
+        <v>0.71</v>
+      </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:31">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -5731,16 +5899,19 @@
       <c r="AD56" t="n">
         <v>0.02</v>
       </c>
+      <c r="AE56" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:31">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D57" t="n">
         <v>0.06</v>
@@ -5823,16 +5994,19 @@
       <c r="AD57" t="n">
         <v>0.1</v>
       </c>
+      <c r="AE57" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:31">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D58" t="n">
         <v>0.9399999999999999</v>
@@ -5915,16 +6089,19 @@
       <c r="AD58" t="n">
         <v>0.88</v>
       </c>
+      <c r="AE58" t="n">
+        <v>0.87</v>
+      </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:31">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D59" t="n">
         <v>0.07000000000000001</v>
@@ -6005,18 +6182,21 @@
         <v>0.05</v>
       </c>
       <c r="AD59" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0.06</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:31">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D60" t="n">
         <v>0.2</v>
@@ -6097,18 +6277,21 @@
         <v>0.26</v>
       </c>
       <c r="AD60" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0.23</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:31">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D61" t="n">
         <v>0.73</v>
@@ -6189,18 +6372,21 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AD61" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.71</v>
       </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:31">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D62" t="n">
         <v>0.04</v>
@@ -6283,16 +6469,19 @@
       <c r="AD62" t="n">
         <v>0.05</v>
       </c>
+      <c r="AE62" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:31">
       <c r="A63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D63" t="n">
         <v>0.06</v>
@@ -6375,16 +6564,19 @@
       <c r="AD63" t="n">
         <v>0.08</v>
       </c>
+      <c r="AE63" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:31">
       <c r="A64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D64" t="n">
         <v>0.9</v>
@@ -6467,16 +6659,19 @@
       <c r="AD64" t="n">
         <v>0.87</v>
       </c>
+      <c r="AE64" t="n">
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:31">
       <c r="A65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D65" t="n">
         <v>0.05</v>
@@ -6559,16 +6754,19 @@
       <c r="AD65" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AE65" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:31">
       <c r="A66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D66" t="n">
         <v>0.08</v>
@@ -6651,16 +6849,19 @@
       <c r="AD66" t="n">
         <v>0.06</v>
       </c>
+      <c r="AE66" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="67" spans="1:30">
+    <row r="67" spans="1:31">
       <c r="A67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D67" t="n">
         <v>0.87</v>
@@ -6743,10 +6944,13 @@
       <c r="AD67" t="n">
         <v>0.87</v>
       </c>
+      <c r="AE67" t="n">
+        <v>0.87</v>
+      </c>
     </row>
-    <row r="68" spans="1:30">
+    <row r="68" spans="1:31">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -6760,7 +6964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AD24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6768,7 +6972,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6856,13 +7060,16 @@
       <c r="AC1" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="AD1" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
         <v>2535</v>
@@ -6943,15 +7150,18 @@
         <v>1731</v>
       </c>
       <c r="AC2" t="n">
-        <v>1735</v>
+        <v>1733</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1665</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="n">
         <v>1201</v>
@@ -7032,15 +7242,18 @@
         <v>824</v>
       </c>
       <c r="AC3" t="n">
-        <v>819</v>
+        <v>817</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>787</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
         <v>225</v>
@@ -7123,13 +7336,16 @@
       <c r="AC4" t="n">
         <v>141</v>
       </c>
+      <c r="AD4" t="n">
+        <v>131</v>
+      </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" t="n">
         <v>837</v>
@@ -7212,13 +7428,16 @@
       <c r="AC5" t="n">
         <v>544</v>
       </c>
+      <c r="AD5" t="n">
+        <v>525</v>
+      </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
         <v>272</v>
@@ -7301,13 +7520,16 @@
       <c r="AC6" t="n">
         <v>231</v>
       </c>
+      <c r="AD6" t="n">
+        <v>222</v>
+      </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="n">
         <v>1145</v>
@@ -7388,15 +7610,18 @@
         <v>779</v>
       </c>
       <c r="AC7" t="n">
-        <v>770</v>
+        <v>771</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>741</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="n">
         <v>210</v>
@@ -7479,13 +7704,16 @@
       <c r="AC8" t="n">
         <v>130</v>
       </c>
+      <c r="AD8" t="n">
+        <v>122</v>
+      </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="n">
         <v>135</v>
@@ -7566,15 +7794,18 @@
         <v>114</v>
       </c>
       <c r="AC9" t="n">
-        <v>123</v>
+        <v>121</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="n">
         <v>1045</v>
@@ -7655,15 +7886,18 @@
         <v>712</v>
       </c>
       <c r="AC10" t="n">
-        <v>712</v>
+        <v>711</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>692</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
         <v>1114</v>
@@ -7744,15 +7978,18 @@
         <v>813</v>
       </c>
       <c r="AC11" t="n">
-        <v>815</v>
+        <v>814</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>776</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="n">
         <v>889</v>
@@ -7833,15 +8070,18 @@
         <v>580</v>
       </c>
       <c r="AC12" t="n">
-        <v>584</v>
+        <v>582</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>564</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="n">
         <v>532</v>
@@ -7922,15 +8162,18 @@
         <v>338</v>
       </c>
       <c r="AC13" t="n">
-        <v>336</v>
+        <v>337</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" t="n">
         <v>689</v>
@@ -8011,15 +8254,18 @@
         <v>490</v>
       </c>
       <c r="AC14" t="n">
-        <v>479</v>
+        <v>477</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>467</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" t="n">
         <v>1846</v>
@@ -8102,13 +8348,16 @@
       <c r="AC15" t="n">
         <v>1256</v>
       </c>
+      <c r="AD15" t="n">
+        <v>1198</v>
+      </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" t="n">
         <v>234</v>
@@ -8191,13 +8440,16 @@
       <c r="AC16" t="n">
         <v>159</v>
       </c>
+      <c r="AD16" t="n">
+        <v>142</v>
+      </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" t="n">
         <v>450</v>
@@ -8278,15 +8530,18 @@
         <v>328</v>
       </c>
       <c r="AC17" t="n">
-        <v>327</v>
+        <v>325</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>309</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="n">
         <v>1851</v>
@@ -8369,13 +8624,16 @@
       <c r="AC18" t="n">
         <v>1249</v>
       </c>
+      <c r="AD18" t="n">
+        <v>1214</v>
+      </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" t="n">
         <v>434</v>
@@ -8458,13 +8716,16 @@
       <c r="AC19" t="n">
         <v>305</v>
       </c>
+      <c r="AD19" t="n">
+        <v>290</v>
+      </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" t="n">
         <v>116</v>
@@ -8547,13 +8808,16 @@
       <c r="AC20" t="n">
         <v>91</v>
       </c>
+      <c r="AD20" t="n">
+        <v>89</v>
+      </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" t="n">
         <v>421</v>
@@ -8634,15 +8898,18 @@
         <v>277</v>
       </c>
       <c r="AC21" t="n">
-        <v>277</v>
+        <v>275</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>265</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" t="n">
         <v>239</v>
@@ -8725,13 +8992,16 @@
       <c r="AC22" t="n">
         <v>154</v>
       </c>
+      <c r="AD22" t="n">
+        <v>149</v>
+      </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" t="n">
         <v>141</v>
@@ -8814,10 +9084,13 @@
       <c r="AC23" t="n">
         <v>95</v>
       </c>
+      <c r="AD23" t="n">
+        <v>79</v>
+      </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -8847,6 +9120,7 @@
       <c r="AA24" t="s"/>
       <c r="AB24" t="s"/>
       <c r="AC24" t="s"/>
+      <c r="AD24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_02_zasazeni_domacnosti.xlsx
+++ b/ZBP_02_zasazeni_domacnosti.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>trideni</t>
   </si>
@@ -110,6 +110,9 @@
     <t>25. 5. 2021</t>
   </si>
   <si>
+    <t>22. 6. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -197,10 +200,10 @@
     <t>Školství a kultura</t>
   </si>
   <si>
-    <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE68"/>
+  <dimension ref="A1:AF68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +586,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,16 +680,19 @@
       <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
         <v>0.09</v>
@@ -772,16 +778,19 @@
       <c r="AE2" t="n">
         <v>0.1</v>
       </c>
+      <c r="AF2" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
         <v>0.18</v>
@@ -867,16 +876,19 @@
       <c r="AE3" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF3" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
         <v>0.73</v>
@@ -962,16 +974,19 @@
       <c r="AE4" t="n">
         <v>0.72</v>
       </c>
+      <c r="AF4" t="n">
+        <v>0.73</v>
+      </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
         <v>0.07000000000000001</v>
@@ -1057,16 +1072,19 @@
       <c r="AE5" t="n">
         <v>0.08</v>
       </c>
+      <c r="AF5" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
         <v>0.15</v>
@@ -1152,16 +1170,19 @@
       <c r="AE6" t="n">
         <v>0.17</v>
       </c>
+      <c r="AF6" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
       </c>
       <c r="D7" t="n">
         <v>0.78</v>
@@ -1247,16 +1268,19 @@
       <c r="AE7" t="n">
         <v>0.75</v>
       </c>
+      <c r="AF7" t="n">
+        <v>0.77</v>
+      </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
         <v>0.08</v>
@@ -1342,16 +1366,19 @@
       <c r="AE8" t="n">
         <v>0.02</v>
       </c>
+      <c r="AF8" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
         <v>0.11</v>
@@ -1437,16 +1464,19 @@
       <c r="AE9" t="n">
         <v>0.14</v>
       </c>
+      <c r="AF9" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
       </c>
       <c r="D10" t="n">
         <v>0.8100000000000001</v>
@@ -1532,16 +1562,19 @@
       <c r="AE10" t="n">
         <v>0.84</v>
       </c>
+      <c r="AF10" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:32">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
         <v>0.09</v>
@@ -1627,16 +1660,19 @@
       <c r="AE11" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF11" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" t="n">
         <v>0.23</v>
@@ -1722,16 +1758,19 @@
       <c r="AE12" t="n">
         <v>0.19</v>
       </c>
+      <c r="AF12" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:32">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
       </c>
       <c r="D13" t="n">
         <v>0.68</v>
@@ -1817,16 +1856,19 @@
       <c r="AE13" t="n">
         <v>0.72</v>
       </c>
+      <c r="AF13" t="n">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:32">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" t="n">
         <v>0.2</v>
@@ -1912,16 +1954,19 @@
       <c r="AE14" t="n">
         <v>0.19</v>
       </c>
+      <c r="AF14" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:32">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" t="n">
         <v>0.18</v>
@@ -2007,16 +2052,19 @@
       <c r="AE15" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF15" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
         <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
       </c>
       <c r="D16" t="n">
         <v>0.62</v>
@@ -2102,16 +2150,19 @@
       <c r="AE16" t="n">
         <v>0.63</v>
       </c>
+      <c r="AF16" t="n">
+        <v>0.68</v>
+      </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:32">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" t="n">
         <v>0.06</v>
@@ -2197,16 +2248,19 @@
       <c r="AE17" t="n">
         <v>0.06</v>
       </c>
+      <c r="AF17" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:32">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" t="n">
         <v>0.15</v>
@@ -2292,16 +2346,19 @@
       <c r="AE18" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF18" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:32">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" t="n">
         <v>0.79</v>
@@ -2387,16 +2444,19 @@
       <c r="AE19" t="n">
         <v>0.76</v>
       </c>
+      <c r="AF19" t="n">
+        <v>0.79</v>
+      </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:32">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" t="n">
         <v>0.08</v>
@@ -2482,16 +2542,19 @@
       <c r="AE20" t="n">
         <v>0.03</v>
       </c>
+      <c r="AF20" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:32">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21" t="n">
         <v>0.12</v>
@@ -2577,16 +2640,19 @@
       <c r="AE21" t="n">
         <v>0.14</v>
       </c>
+      <c r="AF21" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:32">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" t="n">
         <v>0.8</v>
@@ -2672,16 +2738,19 @@
       <c r="AE22" t="n">
         <v>0.83</v>
       </c>
+      <c r="AF22" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:32">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" t="n">
         <v>0.13</v>
@@ -2767,16 +2836,19 @@
       <c r="AE23" t="n">
         <v>0.19</v>
       </c>
+      <c r="AF23" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:32">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" t="n">
         <v>0.2</v>
@@ -2862,16 +2934,19 @@
       <c r="AE24" t="n">
         <v>0.19</v>
       </c>
+      <c r="AF24" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:32">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" t="n">
         <v>0.67</v>
@@ -2957,16 +3032,19 @@
       <c r="AE25" t="n">
         <v>0.62</v>
       </c>
+      <c r="AF25" t="n">
+        <v>0.63</v>
+      </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:32">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" t="n">
         <v>0.12</v>
@@ -3052,16 +3130,19 @@
       <c r="AE26" t="n">
         <v>0.1</v>
       </c>
+      <c r="AF26" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:32">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" t="n">
         <v>0.21</v>
@@ -3147,16 +3228,19 @@
       <c r="AE27" t="n">
         <v>0.19</v>
       </c>
+      <c r="AF27" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:32">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" t="n">
         <v>0.67</v>
@@ -3242,16 +3326,19 @@
       <c r="AE28" t="n">
         <v>0.71</v>
       </c>
+      <c r="AF28" t="n">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:32">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" t="n">
         <v>0.14</v>
@@ -3337,16 +3424,19 @@
       <c r="AE29" t="n">
         <v>0.13</v>
       </c>
+      <c r="AF29" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:32">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" t="n">
         <v>0.26</v>
@@ -3432,16 +3522,19 @@
       <c r="AE30" t="n">
         <v>0.25</v>
       </c>
+      <c r="AF30" t="n">
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:32">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D31" t="n">
         <v>0.6</v>
@@ -3527,16 +3620,19 @@
       <c r="AE31" t="n">
         <v>0.62</v>
       </c>
+      <c r="AF31" t="n">
+        <v>0.59</v>
+      </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:32">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" t="n">
         <v>0.08</v>
@@ -3622,16 +3718,19 @@
       <c r="AE32" t="n">
         <v>0.08</v>
       </c>
+      <c r="AF32" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:32">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D33" t="n">
         <v>0.14</v>
@@ -3717,16 +3816,19 @@
       <c r="AE33" t="n">
         <v>0.15</v>
       </c>
+      <c r="AF33" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:32">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D34" t="n">
         <v>0.78</v>
@@ -3812,16 +3914,19 @@
       <c r="AE34" t="n">
         <v>0.77</v>
       </c>
+      <c r="AF34" t="n">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:32">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D35" t="n">
         <v>0.02</v>
@@ -3907,16 +4012,19 @@
       <c r="AE35" t="n">
         <v>0.01</v>
       </c>
+      <c r="AF35" t="n">
+        <v>0.015</v>
+      </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:32">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D36" t="n">
         <v>0.06</v>
@@ -4002,16 +4110,19 @@
       <c r="AE36" t="n">
         <v>0.08</v>
       </c>
+      <c r="AF36" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:32">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D37" t="n">
         <v>0.92</v>
@@ -4097,16 +4208,19 @@
       <c r="AE37" t="n">
         <v>0.91</v>
       </c>
+      <c r="AF37" t="n">
+        <v>0.915</v>
+      </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:32">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D38" t="n">
         <v>0.15</v>
@@ -4192,16 +4306,19 @@
       <c r="AE38" t="n">
         <v>0.14</v>
       </c>
+      <c r="AF38" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:32">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D39" t="n">
         <v>0.25</v>
@@ -4287,16 +4404,19 @@
       <c r="AE39" t="n">
         <v>0.23</v>
       </c>
+      <c r="AF39" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:32">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D40" t="n">
         <v>0.6</v>
@@ -4382,16 +4502,19 @@
       <c r="AE40" t="n">
         <v>0.63</v>
       </c>
+      <c r="AF40" t="n">
+        <v>0.62</v>
+      </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:32">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D41" t="n">
         <v>0.07000000000000001</v>
@@ -4477,16 +4600,19 @@
       <c r="AE41" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AF41" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:32">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D42" t="n">
         <v>0.15</v>
@@ -4572,16 +4698,19 @@
       <c r="AE42" t="n">
         <v>0.16</v>
       </c>
+      <c r="AF42" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:32">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D43" t="n">
         <v>0.78</v>
@@ -4667,16 +4796,19 @@
       <c r="AE43" t="n">
         <v>0.77</v>
       </c>
+      <c r="AF43" t="n">
+        <v>0.78</v>
+      </c>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:32">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -4762,16 +4894,19 @@
       <c r="AE44" t="n">
         <v>0.71</v>
       </c>
+      <c r="AF44" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:32">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4857,16 +4992,19 @@
       <c r="AE45" t="n">
         <v>0.15</v>
       </c>
+      <c r="AF45" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:32">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4952,16 +5090,19 @@
       <c r="AE46" t="n">
         <v>0.14</v>
       </c>
+      <c r="AF46" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:32">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" t="s">
         <v>34</v>
-      </c>
-      <c r="C47" t="s">
-        <v>33</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -5047,16 +5188,19 @@
       <c r="AE47" t="n">
         <v>0.08</v>
       </c>
+      <c r="AF47" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:32">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -5142,16 +5286,19 @@
       <c r="AE48" t="n">
         <v>0.59</v>
       </c>
+      <c r="AF48" t="n">
+        <v>0.58</v>
+      </c>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:32">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -5237,16 +5384,19 @@
       <c r="AE49" t="n">
         <v>0.33</v>
       </c>
+      <c r="AF49" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:32">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -5332,16 +5482,19 @@
       <c r="AE50" t="n">
         <v>0.03</v>
       </c>
+      <c r="AF50" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:32">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" t="s">
         <v>35</v>
-      </c>
-      <c r="C51" t="s">
-        <v>34</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -5427,16 +5580,19 @@
       <c r="AE51" t="n">
         <v>0.08</v>
       </c>
+      <c r="AF51" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:32">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -5522,16 +5678,19 @@
       <c r="AE52" t="n">
         <v>0.89</v>
       </c>
+      <c r="AF52" t="n">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:32">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D53" t="n">
         <v>0.09</v>
@@ -5617,16 +5776,19 @@
       <c r="AE53" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AF53" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:32">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D54" t="n">
         <v>0.16</v>
@@ -5712,16 +5874,19 @@
       <c r="AE54" t="n">
         <v>0.22</v>
       </c>
+      <c r="AF54" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:32">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D55" t="n">
         <v>0.75</v>
@@ -5807,16 +5972,19 @@
       <c r="AE55" t="n">
         <v>0.71</v>
       </c>
+      <c r="AF55" t="n">
+        <v>0.72</v>
+      </c>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:32">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -5902,16 +6070,19 @@
       <c r="AE56" t="n">
         <v>0.02</v>
       </c>
+      <c r="AF56" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:32">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D57" t="n">
         <v>0.06</v>
@@ -5997,16 +6168,19 @@
       <c r="AE57" t="n">
         <v>0.11</v>
       </c>
+      <c r="AF57" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:32">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D58" t="n">
         <v>0.9399999999999999</v>
@@ -6092,16 +6266,19 @@
       <c r="AE58" t="n">
         <v>0.87</v>
       </c>
+      <c r="AF58" t="n">
+        <v>0.89</v>
+      </c>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:32">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D59" t="n">
         <v>0.07000000000000001</v>
@@ -6187,16 +6364,19 @@
       <c r="AE59" t="n">
         <v>0.06</v>
       </c>
+      <c r="AF59" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:32">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D60" t="n">
         <v>0.2</v>
@@ -6282,16 +6462,19 @@
       <c r="AE60" t="n">
         <v>0.23</v>
       </c>
+      <c r="AF60" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:32">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D61" t="n">
         <v>0.73</v>
@@ -6377,16 +6560,19 @@
       <c r="AE61" t="n">
         <v>0.71</v>
       </c>
+      <c r="AF61" t="n">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:32">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D62" t="n">
         <v>0.04</v>
@@ -6472,16 +6658,19 @@
       <c r="AE62" t="n">
         <v>0.06</v>
       </c>
+      <c r="AF62" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:32">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D63" t="n">
         <v>0.06</v>
@@ -6567,16 +6756,19 @@
       <c r="AE63" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF63" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:32">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D64" t="n">
         <v>0.9</v>
@@ -6662,16 +6854,19 @@
       <c r="AE64" t="n">
         <v>0.85</v>
       </c>
+      <c r="AF64" t="n">
+        <v>0.84</v>
+      </c>
     </row>
-    <row r="65" spans="1:31">
+    <row r="65" spans="1:32">
       <c r="A65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D65" t="n">
         <v>0.05</v>
@@ -6757,16 +6952,19 @@
       <c r="AE65" t="n">
         <v>0.06</v>
       </c>
+      <c r="AF65" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="66" spans="1:31">
+    <row r="66" spans="1:32">
       <c r="A66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D66" t="n">
         <v>0.08</v>
@@ -6852,16 +7050,19 @@
       <c r="AE66" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AF66" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:32">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D67" t="n">
         <v>0.87</v>
@@ -6947,10 +7148,13 @@
       <c r="AE67" t="n">
         <v>0.87</v>
       </c>
+      <c r="AF67" t="n">
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:32">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -6964,7 +7168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD24"/>
+  <dimension ref="A1:AE24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6972,7 +7176,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7063,13 +7267,16 @@
       <c r="AD1" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="AE1" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
         <v>2535</v>
@@ -7155,13 +7362,16 @@
       <c r="AD2" t="n">
         <v>1665</v>
       </c>
+      <c r="AE2" t="n">
+        <v>1626</v>
+      </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="n">
         <v>1201</v>
@@ -7247,13 +7457,16 @@
       <c r="AD3" t="n">
         <v>787</v>
       </c>
+      <c r="AE3" t="n">
+        <v>777</v>
+      </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="n">
         <v>225</v>
@@ -7339,13 +7552,16 @@
       <c r="AD4" t="n">
         <v>131</v>
       </c>
+      <c r="AE4" t="n">
+        <v>127</v>
+      </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
         <v>837</v>
@@ -7431,13 +7647,16 @@
       <c r="AD5" t="n">
         <v>525</v>
       </c>
+      <c r="AE5" t="n">
+        <v>509</v>
+      </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="n">
         <v>272</v>
@@ -7523,13 +7742,16 @@
       <c r="AD6" t="n">
         <v>222</v>
       </c>
+      <c r="AE6" t="n">
+        <v>213</v>
+      </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="n">
         <v>1145</v>
@@ -7615,13 +7837,16 @@
       <c r="AD7" t="n">
         <v>741</v>
       </c>
+      <c r="AE7" t="n">
+        <v>735</v>
+      </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="n">
         <v>210</v>
@@ -7707,13 +7932,16 @@
       <c r="AD8" t="n">
         <v>122</v>
       </c>
+      <c r="AE8" t="n">
+        <v>119</v>
+      </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" t="n">
         <v>135</v>
@@ -7799,13 +8027,16 @@
       <c r="AD9" t="n">
         <v>110</v>
       </c>
+      <c r="AE9" t="n">
+        <v>108</v>
+      </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" t="n">
         <v>1045</v>
@@ -7891,13 +8122,16 @@
       <c r="AD10" t="n">
         <v>692</v>
       </c>
+      <c r="AE10" t="n">
+        <v>664</v>
+      </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="n">
         <v>1114</v>
@@ -7983,13 +8217,16 @@
       <c r="AD11" t="n">
         <v>776</v>
       </c>
+      <c r="AE11" t="n">
+        <v>764</v>
+      </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" t="n">
         <v>889</v>
@@ -8075,13 +8312,16 @@
       <c r="AD12" t="n">
         <v>564</v>
       </c>
+      <c r="AE12" t="n">
+        <v>545</v>
+      </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" t="n">
         <v>532</v>
@@ -8167,13 +8407,16 @@
       <c r="AD13" t="n">
         <v>325</v>
       </c>
+      <c r="AE13" t="n">
+        <v>317</v>
+      </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" t="n">
         <v>689</v>
@@ -8259,13 +8502,16 @@
       <c r="AD14" t="n">
         <v>467</v>
       </c>
+      <c r="AE14" t="n">
+        <v>464</v>
+      </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" t="n">
         <v>1846</v>
@@ -8351,13 +8597,16 @@
       <c r="AD15" t="n">
         <v>1198</v>
       </c>
+      <c r="AE15" t="n">
+        <v>1162</v>
+      </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
         <v>234</v>
@@ -8443,13 +8692,16 @@
       <c r="AD16" t="n">
         <v>142</v>
       </c>
+      <c r="AE16" t="n">
+        <v>144</v>
+      </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" t="n">
         <v>450</v>
@@ -8535,13 +8787,16 @@
       <c r="AD17" t="n">
         <v>309</v>
       </c>
+      <c r="AE17" t="n">
+        <v>291</v>
+      </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
         <v>1851</v>
@@ -8627,13 +8882,16 @@
       <c r="AD18" t="n">
         <v>1214</v>
       </c>
+      <c r="AE18" t="n">
+        <v>1191</v>
+      </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" t="n">
         <v>434</v>
@@ -8719,13 +8977,16 @@
       <c r="AD19" t="n">
         <v>290</v>
       </c>
+      <c r="AE19" t="n">
+        <v>296</v>
+      </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" t="n">
         <v>116</v>
@@ -8811,13 +9072,16 @@
       <c r="AD20" t="n">
         <v>89</v>
       </c>
+      <c r="AE20" t="n">
+        <v>91</v>
+      </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" t="n">
         <v>421</v>
@@ -8903,13 +9167,16 @@
       <c r="AD21" t="n">
         <v>265</v>
       </c>
+      <c r="AE21" t="n">
+        <v>251</v>
+      </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" t="n">
         <v>239</v>
@@ -8995,13 +9262,16 @@
       <c r="AD22" t="n">
         <v>149</v>
       </c>
+      <c r="AE22" t="n">
+        <v>141</v>
+      </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" t="n">
         <v>141</v>
@@ -9087,10 +9357,13 @@
       <c r="AD23" t="n">
         <v>79</v>
       </c>
+      <c r="AE23" t="n">
+        <v>89</v>
+      </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -9121,6 +9394,7 @@
       <c r="AB24" t="s"/>
       <c r="AC24" t="s"/>
       <c r="AD24" t="s"/>
+      <c r="AE24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_02_zasazeni_domacnosti.xlsx
+++ b/ZBP_02_zasazeni_domacnosti.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,200 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
-  <si>
-    <t>trideni</t>
-  </si>
-  <si>
-    <t>kategorie trideni</t>
-  </si>
-  <si>
-    <t>ukazatel</t>
-  </si>
-  <si>
-    <t>před epidemií</t>
-  </si>
-  <si>
-    <t>1. 4. 2020</t>
-  </si>
-  <si>
-    <t>15. 4. 2020</t>
-  </si>
-  <si>
-    <t>28. 4. 2020</t>
-  </si>
-  <si>
-    <t>12. 5. 2020</t>
-  </si>
-  <si>
-    <t>26. 5. 2020</t>
-  </si>
-  <si>
-    <t>16. 6. 2020</t>
-  </si>
-  <si>
-    <t>30. 6. 2020</t>
-  </si>
-  <si>
-    <t>21. 7. 2020</t>
-  </si>
-  <si>
-    <t>11. 8. 2020</t>
-  </si>
-  <si>
-    <t>1. 9. 2020</t>
-  </si>
-  <si>
-    <t>15. 9. 2020</t>
-  </si>
-  <si>
-    <t>30. 9. 2020</t>
-  </si>
-  <si>
-    <t>13. 10. 2020</t>
-  </si>
-  <si>
-    <t>27. 10. 2020</t>
-  </si>
-  <si>
-    <t>10. 11. 2020</t>
-  </si>
-  <si>
-    <t>24. 11. 2020</t>
-  </si>
-  <si>
-    <t>8. 12. 2020</t>
-  </si>
-  <si>
-    <t>22. 12. 2020</t>
-  </si>
-  <si>
-    <t>5. 1. 2021</t>
-  </si>
-  <si>
-    <t>26. 1. 2021</t>
-  </si>
-  <si>
-    <t>16. 2. 2021</t>
-  </si>
-  <si>
-    <t>2. 3. 2021</t>
-  </si>
-  <si>
-    <t>16. 3. 2021</t>
-  </si>
-  <si>
-    <t>30. 3. 2021</t>
-  </si>
-  <si>
-    <t>13. 4. 2021</t>
-  </si>
-  <si>
-    <t>4. 5. 2021</t>
-  </si>
-  <si>
-    <t>25. 5. 2021</t>
-  </si>
-  <si>
-    <t>22. 6. 2021</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>Celkem</t>
-  </si>
-  <si>
-    <t>V příjmové chudobě</t>
-  </si>
-  <si>
-    <t>Nízkopříjmoví bez větších úspor</t>
-  </si>
-  <si>
-    <t>Standardně zajištění</t>
-  </si>
-  <si>
-    <t>Pracovní status před krizí</t>
-  </si>
-  <si>
-    <t>Zaměstnanec</t>
-  </si>
-  <si>
-    <t>OSVČ</t>
-  </si>
-  <si>
-    <t>Důchodce</t>
-  </si>
-  <si>
-    <t>Ostatní</t>
-  </si>
-  <si>
-    <t>Forma práce před krizí</t>
-  </si>
-  <si>
-    <t>Jen zaměstnanecká smlouva</t>
-  </si>
-  <si>
-    <t>Fakturující – OSVČ</t>
-  </si>
-  <si>
-    <t>Dohodáři a s příjmy na černo</t>
-  </si>
-  <si>
-    <t>Nepracující</t>
-  </si>
-  <si>
-    <t>Vzdělání</t>
-  </si>
-  <si>
-    <t>ZŠ a SŠ bez maturity</t>
-  </si>
-  <si>
-    <t>SŠ s maturitou</t>
-  </si>
-  <si>
-    <t>VŠ</t>
-  </si>
-  <si>
-    <t>Děti v domácnosti</t>
-  </si>
-  <si>
-    <t>Děti do 18 let v domácnosti</t>
-  </si>
-  <si>
-    <t>Bez dětí do 18 let v domácnosti</t>
-  </si>
-  <si>
-    <t>Finanční situace domácnosti před krizí</t>
-  </si>
-  <si>
-    <t>Obor práce</t>
-  </si>
-  <si>
-    <t>Obchod a služby</t>
-  </si>
-  <si>
-    <t>IT a finance</t>
-  </si>
-  <si>
-    <t>Průmysl a zemědělství</t>
-  </si>
-  <si>
-    <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
-  </si>
-  <si>
-    <t>Školství a kultura</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 28. 6. 2021</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -267,25 +73,92 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -578,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF68"/>
+  <dimension ref="A1:AG68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,113 +459,188 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>trideni</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>kategorie trideni</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ukazatel</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>před epidemií</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1. 4. 2020</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>15. 4. 2020</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>28. 4. 2020</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>12. 5. 2020</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>26. 5. 2020</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>16. 6. 2020</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>30. 6. 2020</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>21. 7. 2020</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>11. 8. 2020</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1. 9. 2020</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>15. 9. 2020</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30. 9. 2020</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>13. 10. 2020</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>27. 10. 2020</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>10. 11. 2020</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>24. 11. 2020</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>8. 12. 2020</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>22. 12. 2020</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>5. 1. 2021</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>26. 1. 2021</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>16. 2. 2021</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>16. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>30. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>13. 4. 2021</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>4. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>25. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>22. 6. 2021</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>20. 7. 2021</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:32">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>V příjmové chudobě</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>0.09</v>
@@ -781,16 +729,25 @@
       <c r="AF2" t="n">
         <v>0.1</v>
       </c>
+      <c r="AG2" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="3" spans="1:32">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Nízkopříjmoví bez větších úspor</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>0.18</v>
@@ -879,16 +836,25 @@
       <c r="AF3" t="n">
         <v>0.17</v>
       </c>
+      <c r="AG3" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="4" spans="1:32">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Standardně zajištění</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>0.73</v>
@@ -977,16 +943,25 @@
       <c r="AF4" t="n">
         <v>0.73</v>
       </c>
+      <c r="AG4" t="n">
+        <v>0.74</v>
+      </c>
     </row>
-    <row r="5" spans="1:32">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Zaměstnanec</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>V příjmové chudobě</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>0.07000000000000001</v>
@@ -1075,16 +1050,25 @@
       <c r="AF5" t="n">
         <v>0.08</v>
       </c>
+      <c r="AG5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:32">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Zaměstnanec</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Nízkopříjmoví bez větších úspor</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>0.15</v>
@@ -1173,16 +1157,25 @@
       <c r="AF6" t="n">
         <v>0.15</v>
       </c>
+      <c r="AG6" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="7" spans="1:32">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Zaměstnanec</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Standardně zajištění</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>0.78</v>
@@ -1271,16 +1264,25 @@
       <c r="AF7" t="n">
         <v>0.77</v>
       </c>
+      <c r="AG7" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:32">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>OSVČ</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>V příjmové chudobě</t>
+        </is>
       </c>
       <c r="D8" t="n">
         <v>0.08</v>
@@ -1369,16 +1371,25 @@
       <c r="AF8" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG8" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="9" spans="1:32">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>OSVČ</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Nízkopříjmoví bez větších úspor</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>0.11</v>
@@ -1467,16 +1478,25 @@
       <c r="AF9" t="n">
         <v>0.16</v>
       </c>
+      <c r="AG9" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="10" spans="1:32">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>OSVČ</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Standardně zajištění</t>
+        </is>
       </c>
       <c r="D10" t="n">
         <v>0.8100000000000001</v>
@@ -1565,16 +1585,25 @@
       <c r="AF10" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="AG10" t="n">
+        <v>0.86</v>
+      </c>
     </row>
-    <row r="11" spans="1:32">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Důchodce</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>V příjmové chudobě</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>0.09</v>
@@ -1663,16 +1692,25 @@
       <c r="AF11" t="n">
         <v>0.09</v>
       </c>
+      <c r="AG11" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="12" spans="1:32">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Důchodce</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Nízkopříjmoví bez větších úspor</t>
+        </is>
       </c>
       <c r="D12" t="n">
         <v>0.23</v>
@@ -1761,16 +1799,25 @@
       <c r="AF12" t="n">
         <v>0.21</v>
       </c>
+      <c r="AG12" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="13" spans="1:32">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Důchodce</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Standardně zajištění</t>
+        </is>
       </c>
       <c r="D13" t="n">
         <v>0.68</v>
@@ -1859,16 +1906,25 @@
       <c r="AF13" t="n">
         <v>0.7</v>
       </c>
+      <c r="AG13" t="n">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="14" spans="1:32">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Ostatní</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>V příjmové chudobě</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>0.2</v>
@@ -1957,16 +2013,25 @@
       <c r="AF14" t="n">
         <v>0.17</v>
       </c>
+      <c r="AG14" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="15" spans="1:32">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ostatní</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Nízkopříjmoví bez větších úspor</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>0.18</v>
@@ -2055,16 +2120,25 @@
       <c r="AF15" t="n">
         <v>0.15</v>
       </c>
+      <c r="AG15" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="16" spans="1:32">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Ostatní</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Standardně zajištění</t>
+        </is>
       </c>
       <c r="D16" t="n">
         <v>0.62</v>
@@ -2153,16 +2227,25 @@
       <c r="AF16" t="n">
         <v>0.68</v>
       </c>
+      <c r="AG16" t="n">
+        <v>0.67</v>
+      </c>
     </row>
-    <row r="17" spans="1:32">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Jen zaměstnanecká smlouva</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>V příjmové chudobě</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>0.06</v>
@@ -2251,16 +2334,25 @@
       <c r="AF17" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AG17" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="18" spans="1:32">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Jen zaměstnanecká smlouva</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Nízkopříjmoví bez větších úspor</t>
+        </is>
       </c>
       <c r="D18" t="n">
         <v>0.15</v>
@@ -2349,16 +2441,25 @@
       <c r="AF18" t="n">
         <v>0.14</v>
       </c>
+      <c r="AG18" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="19" spans="1:32">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Jen zaměstnanecká smlouva</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Standardně zajištění</t>
+        </is>
       </c>
       <c r="D19" t="n">
         <v>0.79</v>
@@ -2447,16 +2548,25 @@
       <c r="AF19" t="n">
         <v>0.79</v>
       </c>
+      <c r="AG19" t="n">
+        <v>0.82</v>
+      </c>
     </row>
-    <row r="20" spans="1:32">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fakturující – OSVČ</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>V příjmové chudobě</t>
+        </is>
       </c>
       <c r="D20" t="n">
         <v>0.08</v>
@@ -2545,16 +2655,25 @@
       <c r="AF20" t="n">
         <v>0.04</v>
       </c>
+      <c r="AG20" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="21" spans="1:32">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Fakturující – OSVČ</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Nízkopříjmoví bez větších úspor</t>
+        </is>
       </c>
       <c r="D21" t="n">
         <v>0.12</v>
@@ -2643,16 +2762,25 @@
       <c r="AF21" t="n">
         <v>0.15</v>
       </c>
+      <c r="AG21" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="22" spans="1:32">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Fakturující – OSVČ</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Standardně zajištění</t>
+        </is>
       </c>
       <c r="D22" t="n">
         <v>0.8</v>
@@ -2741,16 +2869,25 @@
       <c r="AF22" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="AG22" t="n">
+        <v>0.89</v>
+      </c>
     </row>
-    <row r="23" spans="1:32">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Dohodáři a s příjmy na černo</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>V příjmové chudobě</t>
+        </is>
       </c>
       <c r="D23" t="n">
         <v>0.13</v>
@@ -2839,16 +2976,25 @@
       <c r="AF23" t="n">
         <v>0.17</v>
       </c>
+      <c r="AG23" t="n">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="24" spans="1:32">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Dohodáři a s příjmy na černo</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Nízkopříjmoví bez větších úspor</t>
+        </is>
       </c>
       <c r="D24" t="n">
         <v>0.2</v>
@@ -2937,16 +3083,25 @@
       <c r="AF24" t="n">
         <v>0.2</v>
       </c>
+      <c r="AG24" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="25" spans="1:32">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Dohodáři a s příjmy na černo</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Standardně zajištění</t>
+        </is>
       </c>
       <c r="D25" t="n">
         <v>0.67</v>
@@ -3035,16 +3190,25 @@
       <c r="AF25" t="n">
         <v>0.63</v>
       </c>
+      <c r="AG25" t="n">
+        <v>0.64</v>
+      </c>
     </row>
-    <row r="26" spans="1:32">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nepracující</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>V příjmové chudobě</t>
+        </is>
       </c>
       <c r="D26" t="n">
         <v>0.12</v>
@@ -3133,16 +3297,25 @@
       <c r="AF26" t="n">
         <v>0.1</v>
       </c>
+      <c r="AG26" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="27" spans="1:32">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Nepracující</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Nízkopříjmoví bez větších úspor</t>
+        </is>
       </c>
       <c r="D27" t="n">
         <v>0.21</v>
@@ -3231,16 +3404,25 @@
       <c r="AF27" t="n">
         <v>0.2</v>
       </c>
+      <c r="AG27" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="28" spans="1:32">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nepracující</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Standardně zajištění</t>
+        </is>
       </c>
       <c r="D28" t="n">
         <v>0.67</v>
@@ -3329,16 +3511,25 @@
       <c r="AF28" t="n">
         <v>0.7</v>
       </c>
+      <c r="AG28" t="n">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="29" spans="1:32">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" t="s">
-        <v>34</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ZŠ a SŠ bez maturity</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>V příjmové chudobě</t>
+        </is>
       </c>
       <c r="D29" t="n">
         <v>0.14</v>
@@ -3427,16 +3618,25 @@
       <c r="AF29" t="n">
         <v>0.14</v>
       </c>
+      <c r="AG29" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="30" spans="1:32">
-      <c r="A30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ZŠ a SŠ bez maturity</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Nízkopříjmoví bez větších úspor</t>
+        </is>
       </c>
       <c r="D30" t="n">
         <v>0.26</v>
@@ -3525,16 +3725,25 @@
       <c r="AF30" t="n">
         <v>0.27</v>
       </c>
+      <c r="AG30" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="31" spans="1:32">
-      <c r="A31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ZŠ a SŠ bez maturity</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Standardně zajištění</t>
+        </is>
       </c>
       <c r="D31" t="n">
         <v>0.6</v>
@@ -3623,16 +3832,25 @@
       <c r="AF31" t="n">
         <v>0.59</v>
       </c>
+      <c r="AG31" t="n">
+        <v>0.61</v>
+      </c>
     </row>
-    <row r="32" spans="1:32">
-      <c r="A32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SŠ s maturitou</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>V příjmové chudobě</t>
+        </is>
       </c>
       <c r="D32" t="n">
         <v>0.08</v>
@@ -3721,16 +3939,25 @@
       <c r="AF32" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AG32" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="33" spans="1:32">
-      <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SŠ s maturitou</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Nízkopříjmoví bez větších úspor</t>
+        </is>
       </c>
       <c r="D33" t="n">
         <v>0.14</v>
@@ -3819,16 +4046,25 @@
       <c r="AF33" t="n">
         <v>0.13</v>
       </c>
+      <c r="AG33" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="34" spans="1:32">
-      <c r="A34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SŠ s maturitou</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Standardně zajištění</t>
+        </is>
       </c>
       <c r="D34" t="n">
         <v>0.78</v>
@@ -3917,16 +4153,25 @@
       <c r="AF34" t="n">
         <v>0.8</v>
       </c>
+      <c r="AG34" t="n">
+        <v>0.82</v>
+      </c>
     </row>
-    <row r="35" spans="1:32">
-      <c r="A35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" t="s">
-        <v>34</v>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>VŠ</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>V příjmové chudobě</t>
+        </is>
       </c>
       <c r="D35" t="n">
         <v>0.02</v>
@@ -4015,16 +4260,25 @@
       <c r="AF35" t="n">
         <v>0.015</v>
       </c>
+      <c r="AG35" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="36" spans="1:32">
-      <c r="A36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" t="s">
-        <v>35</v>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>VŠ</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Nízkopříjmoví bez větších úspor</t>
+        </is>
       </c>
       <c r="D36" t="n">
         <v>0.06</v>
@@ -4113,16 +4367,25 @@
       <c r="AF36" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AG36" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="37" spans="1:32">
-      <c r="A37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>VŠ</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Standardně zajištění</t>
+        </is>
       </c>
       <c r="D37" t="n">
         <v>0.92</v>
@@ -4211,16 +4474,25 @@
       <c r="AF37" t="n">
         <v>0.915</v>
       </c>
+      <c r="AG37" t="n">
+        <v>0.92</v>
+      </c>
     </row>
-    <row r="38" spans="1:32">
-      <c r="A38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" t="s">
-        <v>34</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Děti v domácnosti</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Děti do 18 let v domácnosti</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>V příjmové chudobě</t>
+        </is>
       </c>
       <c r="D38" t="n">
         <v>0.15</v>
@@ -4309,16 +4581,25 @@
       <c r="AF38" t="n">
         <v>0.13</v>
       </c>
+      <c r="AG38" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="39" spans="1:32">
-      <c r="A39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" t="s">
-        <v>35</v>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Děti v domácnosti</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Děti do 18 let v domácnosti</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Nízkopříjmoví bez větších úspor</t>
+        </is>
       </c>
       <c r="D39" t="n">
         <v>0.25</v>
@@ -4407,16 +4688,25 @@
       <c r="AF39" t="n">
         <v>0.25</v>
       </c>
+      <c r="AG39" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="40" spans="1:32">
-      <c r="A40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" t="s">
-        <v>36</v>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Děti v domácnosti</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Děti do 18 let v domácnosti</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Standardně zajištění</t>
+        </is>
       </c>
       <c r="D40" t="n">
         <v>0.6</v>
@@ -4505,16 +4795,25 @@
       <c r="AF40" t="n">
         <v>0.62</v>
       </c>
+      <c r="AG40" t="n">
+        <v>0.68</v>
+      </c>
     </row>
-    <row r="41" spans="1:32">
-      <c r="A41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" t="s">
-        <v>34</v>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Děti v domácnosti</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Bez dětí do 18 let v domácnosti</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>V příjmové chudobě</t>
+        </is>
       </c>
       <c r="D41" t="n">
         <v>0.07000000000000001</v>
@@ -4603,16 +4902,25 @@
       <c r="AF41" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AG41" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="42" spans="1:32">
-      <c r="A42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" t="s">
-        <v>35</v>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Děti v domácnosti</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Bez dětí do 18 let v domácnosti</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Nízkopříjmoví bez větších úspor</t>
+        </is>
       </c>
       <c r="D42" t="n">
         <v>0.15</v>
@@ -4701,16 +5009,25 @@
       <c r="AF42" t="n">
         <v>0.15</v>
       </c>
+      <c r="AG42" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="43" spans="1:32">
-      <c r="A43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" t="s">
-        <v>36</v>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Děti v domácnosti</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Bez dětí do 18 let v domácnosti</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Standardně zajištění</t>
+        </is>
       </c>
       <c r="D43" t="n">
         <v>0.78</v>
@@ -4799,16 +5116,25 @@
       <c r="AF43" t="n">
         <v>0.78</v>
       </c>
+      <c r="AG43" t="n">
+        <v>0.78</v>
+      </c>
     </row>
-    <row r="44" spans="1:32">
-      <c r="A44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" t="s">
-        <v>34</v>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Finanční situace domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>V příjmové chudobě</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>V příjmové chudobě</t>
+        </is>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -4897,16 +5223,25 @@
       <c r="AF44" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AG44" t="n">
+        <v>0.68</v>
+      </c>
     </row>
-    <row r="45" spans="1:32">
-      <c r="A45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" t="s">
-        <v>35</v>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Finanční situace domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>V příjmové chudobě</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Nízkopříjmoví bez větších úspor</t>
+        </is>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4995,16 +5330,25 @@
       <c r="AF45" t="n">
         <v>0.16</v>
       </c>
+      <c r="AG45" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="46" spans="1:32">
-      <c r="A46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" t="s">
-        <v>36</v>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Finanční situace domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>V příjmové chudobě</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Standardně zajištění</t>
+        </is>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -5093,16 +5437,25 @@
       <c r="AF46" t="n">
         <v>0.15</v>
       </c>
+      <c r="AG46" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="47" spans="1:32">
-      <c r="A47" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" t="s">
-        <v>34</v>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Finanční situace domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Nízkopříjmoví bez větších úspor</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>V příjmové chudobě</t>
+        </is>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -5191,16 +5544,25 @@
       <c r="AF47" t="n">
         <v>0.09</v>
       </c>
+      <c r="AG47" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="48" spans="1:32">
-      <c r="A48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" t="s">
-        <v>35</v>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Finanční situace domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Nízkopříjmoví bez větších úspor</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Nízkopříjmoví bez větších úspor</t>
+        </is>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -5289,16 +5651,25 @@
       <c r="AF48" t="n">
         <v>0.58</v>
       </c>
+      <c r="AG48" t="n">
+        <v>0.54</v>
+      </c>
     </row>
-    <row r="49" spans="1:32">
-      <c r="A49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" t="s">
-        <v>36</v>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Finanční situace domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Nízkopříjmoví bez větších úspor</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Standardně zajištění</t>
+        </is>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -5387,16 +5758,25 @@
       <c r="AF49" t="n">
         <v>0.33</v>
       </c>
+      <c r="AG49" t="n">
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="50" spans="1:32">
-      <c r="A50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" t="s">
-        <v>34</v>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Finanční situace domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Standardně zajištění</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>V příjmové chudobě</t>
+        </is>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -5485,16 +5865,25 @@
       <c r="AF50" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG50" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="51" spans="1:32">
-      <c r="A51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" t="s">
-        <v>35</v>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Finanční situace domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Standardně zajištění</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Nízkopříjmoví bez větších úspor</t>
+        </is>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -5583,16 +5972,25 @@
       <c r="AF51" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AG51" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="52" spans="1:32">
-      <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" t="s">
-        <v>36</v>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Finanční situace domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Standardně zajištění</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Standardně zajištění</t>
+        </is>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -5681,16 +6079,25 @@
       <c r="AF52" t="n">
         <v>0.9</v>
       </c>
+      <c r="AG52" t="n">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="53" spans="1:32">
-      <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" t="s">
-        <v>34</v>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Obchod a služby</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>V příjmové chudobě</t>
+        </is>
       </c>
       <c r="D53" t="n">
         <v>0.09</v>
@@ -5779,16 +6186,25 @@
       <c r="AF53" t="n">
         <v>0.08</v>
       </c>
+      <c r="AG53" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="54" spans="1:32">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" t="s">
-        <v>35</v>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Obchod a služby</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Nízkopříjmoví bez větších úspor</t>
+        </is>
       </c>
       <c r="D54" t="n">
         <v>0.16</v>
@@ -5877,16 +6293,25 @@
       <c r="AF54" t="n">
         <v>0.2</v>
       </c>
+      <c r="AG54" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="55" spans="1:32">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" t="s">
-        <v>36</v>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Obchod a služby</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Standardně zajištění</t>
+        </is>
       </c>
       <c r="D55" t="n">
         <v>0.75</v>
@@ -5975,16 +6400,25 @@
       <c r="AF55" t="n">
         <v>0.72</v>
       </c>
+      <c r="AG55" t="n">
+        <v>0.76</v>
+      </c>
     </row>
-    <row r="56" spans="1:32">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" t="s">
-        <v>34</v>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>IT a finance</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>V příjmové chudobě</t>
+        </is>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -6073,16 +6507,25 @@
       <c r="AF56" t="n">
         <v>0.05</v>
       </c>
+      <c r="AG56" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="57" spans="1:32">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" t="s">
-        <v>35</v>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>IT a finance</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Nízkopříjmoví bez větších úspor</t>
+        </is>
       </c>
       <c r="D57" t="n">
         <v>0.06</v>
@@ -6171,16 +6614,25 @@
       <c r="AF57" t="n">
         <v>0.06</v>
       </c>
+      <c r="AG57" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="58" spans="1:32">
-      <c r="A58" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" t="s">
-        <v>36</v>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>IT a finance</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Standardně zajištění</t>
+        </is>
       </c>
       <c r="D58" t="n">
         <v>0.9399999999999999</v>
@@ -6269,16 +6721,25 @@
       <c r="AF58" t="n">
         <v>0.89</v>
       </c>
+      <c r="AG58" t="n">
+        <v>0.91</v>
+      </c>
     </row>
-    <row r="59" spans="1:32">
-      <c r="A59" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" t="s">
-        <v>34</v>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Průmysl a zemědělství</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>V příjmové chudobě</t>
+        </is>
       </c>
       <c r="D59" t="n">
         <v>0.07000000000000001</v>
@@ -6367,16 +6828,25 @@
       <c r="AF59" t="n">
         <v>0.06</v>
       </c>
+      <c r="AG59" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="60" spans="1:32">
-      <c r="A60" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" t="s">
-        <v>35</v>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Průmysl a zemědělství</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Nízkopříjmoví bez větších úspor</t>
+        </is>
       </c>
       <c r="D60" t="n">
         <v>0.2</v>
@@ -6465,16 +6935,25 @@
       <c r="AF60" t="n">
         <v>0.19</v>
       </c>
+      <c r="AG60" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="61" spans="1:32">
-      <c r="A61" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61" t="s">
-        <v>36</v>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Průmysl a zemědělství</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Standardně zajištění</t>
+        </is>
       </c>
       <c r="D61" t="n">
         <v>0.73</v>
@@ -6563,16 +7042,25 @@
       <c r="AF61" t="n">
         <v>0.75</v>
       </c>
+      <c r="AG61" t="n">
+        <v>0.78</v>
+      </c>
     </row>
-    <row r="62" spans="1:32">
-      <c r="A62" t="s">
-        <v>55</v>
-      </c>
-      <c r="B62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62" t="s">
-        <v>34</v>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>V příjmové chudobě</t>
+        </is>
       </c>
       <c r="D62" t="n">
         <v>0.04</v>
@@ -6661,16 +7149,25 @@
       <c r="AF62" t="n">
         <v>0.08</v>
       </c>
+      <c r="AG62" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="63" spans="1:32">
-      <c r="A63" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" t="s">
-        <v>35</v>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Nízkopříjmoví bez větších úspor</t>
+        </is>
       </c>
       <c r="D63" t="n">
         <v>0.06</v>
@@ -6759,16 +7256,25 @@
       <c r="AF63" t="n">
         <v>0.08</v>
       </c>
+      <c r="AG63" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="64" spans="1:32">
-      <c r="A64" t="s">
-        <v>55</v>
-      </c>
-      <c r="B64" t="s">
-        <v>59</v>
-      </c>
-      <c r="C64" t="s">
-        <v>36</v>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Standardně zajištění</t>
+        </is>
       </c>
       <c r="D64" t="n">
         <v>0.9</v>
@@ -6857,16 +7363,25 @@
       <c r="AF64" t="n">
         <v>0.84</v>
       </c>
+      <c r="AG64" t="n">
+        <v>0.89</v>
+      </c>
     </row>
-    <row r="65" spans="1:32">
-      <c r="A65" t="s">
-        <v>55</v>
-      </c>
-      <c r="B65" t="s">
-        <v>60</v>
-      </c>
-      <c r="C65" t="s">
-        <v>34</v>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Školství a kultura</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>V příjmové chudobě</t>
+        </is>
       </c>
       <c r="D65" t="n">
         <v>0.05</v>
@@ -6955,16 +7470,25 @@
       <c r="AF65" t="n">
         <v>0.06</v>
       </c>
+      <c r="AG65" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="66" spans="1:32">
-      <c r="A66" t="s">
-        <v>55</v>
-      </c>
-      <c r="B66" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" t="s">
-        <v>35</v>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Školství a kultura</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Nízkopříjmoví bez větších úspor</t>
+        </is>
       </c>
       <c r="D66" t="n">
         <v>0.08</v>
@@ -7053,16 +7577,25 @@
       <c r="AF66" t="n">
         <v>0.09</v>
       </c>
+      <c r="AG66" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="67" spans="1:32">
-      <c r="A67" t="s">
-        <v>55</v>
-      </c>
-      <c r="B67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" t="s">
-        <v>36</v>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Školství a kultura</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Standardně zajištění</t>
+        </is>
       </c>
       <c r="D67" t="n">
         <v>0.87</v>
@@ -7151,14 +7684,19 @@
       <c r="AF67" t="n">
         <v>0.85</v>
       </c>
+      <c r="AG67" t="n">
+        <v>0.87</v>
+      </c>
     </row>
-    <row r="68" spans="1:32">
-      <c r="A68" t="s">
-        <v>61</v>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7168,7 +7706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE24"/>
+  <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7176,107 +7714,178 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>31</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>trideni</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>kategorie trideni</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>před epidemií</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>1. 4. 2020</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>15. 4. 2020</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>28. 4. 2020</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>12. 5. 2020</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>26. 5. 2020</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>16. 6. 2020</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>30. 6. 2020</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>21. 7. 2020</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>11. 8. 2020</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>1. 9. 2020</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>15. 9. 2020</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>30. 9. 2020</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>13. 10. 2020</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>27. 10. 2020</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>10. 11. 2020</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>24. 11. 2020</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>8. 12. 2020</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>22. 12. 2020</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>5. 1. 2021</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>26. 1. 2021</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>16. 2. 2021</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>2. 3. 2021</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>16. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>30. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>13. 4. 2021</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>4. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>25. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>22. 6. 2021</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>20. 7. 2021</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:31">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>2535</v>
@@ -7365,13 +7974,20 @@
       <c r="AE2" t="n">
         <v>1626</v>
       </c>
+      <c r="AF2" t="n">
+        <v>1520</v>
+      </c>
     </row>
-    <row r="3" spans="1:31">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Zaměstnanec</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>1201</v>
@@ -7460,13 +8076,20 @@
       <c r="AE3" t="n">
         <v>777</v>
       </c>
+      <c r="AF3" t="n">
+        <v>724</v>
+      </c>
     </row>
-    <row r="4" spans="1:31">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>OSVČ</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>225</v>
@@ -7555,13 +8178,20 @@
       <c r="AE4" t="n">
         <v>127</v>
       </c>
+      <c r="AF4" t="n">
+        <v>122</v>
+      </c>
     </row>
-    <row r="5" spans="1:31">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Důchodce</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>837</v>
@@ -7650,13 +8280,20 @@
       <c r="AE5" t="n">
         <v>509</v>
       </c>
+      <c r="AF5" t="n">
+        <v>476</v>
+      </c>
     </row>
-    <row r="6" spans="1:31">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ostatní</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>272</v>
@@ -7745,13 +8382,20 @@
       <c r="AE6" t="n">
         <v>213</v>
       </c>
+      <c r="AF6" t="n">
+        <v>198</v>
+      </c>
     </row>
-    <row r="7" spans="1:31">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jen zaměstnanecká smlouva</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>1145</v>
@@ -7840,13 +8484,20 @@
       <c r="AE7" t="n">
         <v>735</v>
       </c>
+      <c r="AF7" t="n">
+        <v>682</v>
+      </c>
     </row>
-    <row r="8" spans="1:31">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fakturující – OSVČ</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>210</v>
@@ -7935,13 +8586,20 @@
       <c r="AE8" t="n">
         <v>119</v>
       </c>
+      <c r="AF8" t="n">
+        <v>111</v>
+      </c>
     </row>
-    <row r="9" spans="1:31">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dohodáři a s příjmy na černo</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>135</v>
@@ -8030,13 +8688,20 @@
       <c r="AE9" t="n">
         <v>108</v>
       </c>
+      <c r="AF9" t="n">
+        <v>112</v>
+      </c>
     </row>
-    <row r="10" spans="1:31">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nepracující</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>1045</v>
@@ -8125,13 +8790,20 @@
       <c r="AE10" t="n">
         <v>664</v>
       </c>
+      <c r="AF10" t="n">
+        <v>615</v>
+      </c>
     </row>
-    <row r="11" spans="1:31">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ZŠ a SŠ bez maturity</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>1114</v>
@@ -8220,13 +8892,20 @@
       <c r="AE11" t="n">
         <v>764</v>
       </c>
+      <c r="AF11" t="n">
+        <v>705</v>
+      </c>
     </row>
-    <row r="12" spans="1:31">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SŠ s maturitou</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>889</v>
@@ -8315,13 +8994,20 @@
       <c r="AE12" t="n">
         <v>545</v>
       </c>
+      <c r="AF12" t="n">
+        <v>523</v>
+      </c>
     </row>
-    <row r="13" spans="1:31">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>VŠ</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>532</v>
@@ -8410,13 +9096,20 @@
       <c r="AE13" t="n">
         <v>317</v>
       </c>
+      <c r="AF13" t="n">
+        <v>292</v>
+      </c>
     </row>
-    <row r="14" spans="1:31">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Děti v domácnosti</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Děti do 18 let v domácnosti</t>
+        </is>
       </c>
       <c r="C14" t="n">
         <v>689</v>
@@ -8505,13 +9198,20 @@
       <c r="AE14" t="n">
         <v>464</v>
       </c>
+      <c r="AF14" t="n">
+        <v>425</v>
+      </c>
     </row>
-    <row r="15" spans="1:31">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Děti v domácnosti</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bez dětí do 18 let v domácnosti</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>1846</v>
@@ -8600,13 +9300,20 @@
       <c r="AE15" t="n">
         <v>1162</v>
       </c>
+      <c r="AF15" t="n">
+        <v>1095</v>
+      </c>
     </row>
-    <row r="16" spans="1:31">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Finanční situace domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>V příjmové chudobě</t>
+        </is>
       </c>
       <c r="C16" t="n">
         <v>234</v>
@@ -8695,13 +9402,20 @@
       <c r="AE16" t="n">
         <v>144</v>
       </c>
+      <c r="AF16" t="n">
+        <v>143</v>
+      </c>
     </row>
-    <row r="17" spans="1:31">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Finanční situace domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nízkopříjmoví bez větších úspor</t>
+        </is>
       </c>
       <c r="C17" t="n">
         <v>450</v>
@@ -8790,13 +9504,20 @@
       <c r="AE17" t="n">
         <v>291</v>
       </c>
+      <c r="AF17" t="n">
+        <v>270</v>
+      </c>
     </row>
-    <row r="18" spans="1:31">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Finanční situace domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Standardně zajištění</t>
+        </is>
       </c>
       <c r="C18" t="n">
         <v>1851</v>
@@ -8885,13 +9606,20 @@
       <c r="AE18" t="n">
         <v>1191</v>
       </c>
+      <c r="AF18" t="n">
+        <v>1107</v>
+      </c>
     </row>
-    <row r="19" spans="1:31">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Obchod a služby</t>
+        </is>
       </c>
       <c r="C19" t="n">
         <v>434</v>
@@ -8980,13 +9708,20 @@
       <c r="AE19" t="n">
         <v>296</v>
       </c>
+      <c r="AF19" t="n">
+        <v>280</v>
+      </c>
     </row>
-    <row r="20" spans="1:31">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>IT a finance</t>
+        </is>
       </c>
       <c r="C20" t="n">
         <v>116</v>
@@ -9075,13 +9810,20 @@
       <c r="AE20" t="n">
         <v>91</v>
       </c>
+      <c r="AF20" t="n">
+        <v>89</v>
+      </c>
     </row>
-    <row r="21" spans="1:31">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Průmysl a zemědělství</t>
+        </is>
       </c>
       <c r="C21" t="n">
         <v>421</v>
@@ -9170,13 +9912,20 @@
       <c r="AE21" t="n">
         <v>251</v>
       </c>
+      <c r="AF21" t="n">
+        <v>239</v>
+      </c>
     </row>
-    <row r="22" spans="1:31">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
+        </is>
       </c>
       <c r="C22" t="n">
         <v>239</v>
@@ -9265,13 +10014,20 @@
       <c r="AE22" t="n">
         <v>141</v>
       </c>
+      <c r="AF22" t="n">
+        <v>133</v>
+      </c>
     </row>
-    <row r="23" spans="1:31">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>60</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Školství a kultura</t>
+        </is>
       </c>
       <c r="C23" t="n">
         <v>141</v>
@@ -9360,43 +10116,49 @@
       <c r="AE23" t="n">
         <v>89</v>
       </c>
+      <c r="AF23" t="n">
+        <v>79</v>
+      </c>
     </row>
-    <row r="24" spans="1:31">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
-      <c r="D24" t="s"/>
-      <c r="E24" t="s"/>
-      <c r="F24" t="s"/>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s"/>
-      <c r="J24" t="s"/>
-      <c r="K24" t="s"/>
-      <c r="L24" t="s"/>
-      <c r="M24" t="s"/>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
-      <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
-      <c r="V24" t="s"/>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
-      <c r="Y24" t="s"/>
-      <c r="Z24" t="s"/>
-      <c r="AA24" t="s"/>
-      <c r="AB24" t="s"/>
-      <c r="AC24" t="s"/>
-      <c r="AD24" t="s"/>
-      <c r="AE24" t="s"/>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/ZBP_02_zasazeni_domacnosti.xlsx
+++ b/ZBP_02_zasazeni_domacnosti.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG68"/>
+  <dimension ref="A1:AH68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +625,11 @@
           <t>20. 7. 2021</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>24. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -732,6 +737,9 @@
       <c r="AG2" t="n">
         <v>0.1</v>
       </c>
+      <c r="AH2" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -837,7 +845,10 @@
         <v>0.17</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="4">
@@ -944,7 +955,10 @@
         <v>0.73</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row r="5">
@@ -1053,6 +1067,9 @@
       <c r="AG5" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1158,7 +1175,10 @@
         <v>0.15</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="7">
@@ -1265,7 +1285,10 @@
         <v>0.77</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.78</v>
       </c>
     </row>
     <row r="8">
@@ -1374,6 +1397,9 @@
       <c r="AG8" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH8" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1481,6 +1507,9 @@
       <c r="AG9" t="n">
         <v>0.1</v>
       </c>
+      <c r="AH9" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1588,6 +1617,9 @@
       <c r="AG10" t="n">
         <v>0.86</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1695,6 +1727,9 @@
       <c r="AG11" t="n">
         <v>0.1</v>
       </c>
+      <c r="AH11" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1802,6 +1837,9 @@
       <c r="AG12" t="n">
         <v>0.2</v>
       </c>
+      <c r="AH12" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1909,6 +1947,9 @@
       <c r="AG13" t="n">
         <v>0.7</v>
       </c>
+      <c r="AH13" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2016,6 +2057,9 @@
       <c r="AG14" t="n">
         <v>0.19</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2123,6 +2167,9 @@
       <c r="AG15" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH15" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2230,6 +2277,9 @@
       <c r="AG16" t="n">
         <v>0.67</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2337,6 +2387,9 @@
       <c r="AG17" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2444,6 +2497,9 @@
       <c r="AG18" t="n">
         <v>0.13</v>
       </c>
+      <c r="AH18" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2551,6 +2607,9 @@
       <c r="AG19" t="n">
         <v>0.82</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2658,6 +2717,9 @@
       <c r="AG20" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2765,6 +2827,9 @@
       <c r="AG21" t="n">
         <v>0.09</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2872,6 +2937,9 @@
       <c r="AG22" t="n">
         <v>0.89</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2979,6 +3047,9 @@
       <c r="AG23" t="n">
         <v>0.22</v>
       </c>
+      <c r="AH23" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3086,6 +3157,9 @@
       <c r="AG24" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH24" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3193,6 +3267,9 @@
       <c r="AG25" t="n">
         <v>0.64</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3300,6 +3377,9 @@
       <c r="AG26" t="n">
         <v>0.11</v>
       </c>
+      <c r="AH26" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3407,6 +3487,9 @@
       <c r="AG27" t="n">
         <v>0.19</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3514,6 +3597,9 @@
       <c r="AG28" t="n">
         <v>0.7</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3621,6 +3707,9 @@
       <c r="AG29" t="n">
         <v>0.15</v>
       </c>
+      <c r="AH29" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3728,6 +3817,9 @@
       <c r="AG30" t="n">
         <v>0.24</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3835,6 +3927,9 @@
       <c r="AG31" t="n">
         <v>0.61</v>
       </c>
+      <c r="AH31" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3942,6 +4037,9 @@
       <c r="AG32" t="n">
         <v>0.06</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4049,6 +4147,9 @@
       <c r="AG33" t="n">
         <v>0.12</v>
       </c>
+      <c r="AH33" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4156,6 +4257,9 @@
       <c r="AG34" t="n">
         <v>0.82</v>
       </c>
+      <c r="AH34" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4263,6 +4367,9 @@
       <c r="AG35" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH35" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4370,6 +4477,9 @@
       <c r="AG36" t="n">
         <v>0.06</v>
       </c>
+      <c r="AH36" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4477,6 +4587,9 @@
       <c r="AG37" t="n">
         <v>0.92</v>
       </c>
+      <c r="AH37" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4584,6 +4697,9 @@
       <c r="AG38" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH38" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4689,7 +4805,10 @@
         <v>0.25</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="40">
@@ -4796,7 +4915,10 @@
         <v>0.62</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="41">
@@ -4905,6 +5027,9 @@
       <c r="AG41" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AH41" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5012,6 +5137,9 @@
       <c r="AG42" t="n">
         <v>0.15</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5119,6 +5247,9 @@
       <c r="AG43" t="n">
         <v>0.78</v>
       </c>
+      <c r="AH43" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5226,6 +5357,9 @@
       <c r="AG44" t="n">
         <v>0.68</v>
       </c>
+      <c r="AH44" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5331,7 +5465,10 @@
         <v>0.16</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="46">
@@ -5438,7 +5575,10 @@
         <v>0.15</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="47">
@@ -5547,6 +5687,9 @@
       <c r="AG47" t="n">
         <v>0.1</v>
       </c>
+      <c r="AH47" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5652,7 +5795,10 @@
         <v>0.58</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0.57</v>
       </c>
     </row>
     <row r="49">
@@ -5759,7 +5905,10 @@
         <v>0.33</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="50">
@@ -5868,6 +6017,9 @@
       <c r="AG50" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH50" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5975,6 +6127,9 @@
       <c r="AG51" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AH51" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6082,6 +6237,9 @@
       <c r="AG52" t="n">
         <v>0.9</v>
       </c>
+      <c r="AH52" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6189,6 +6347,9 @@
       <c r="AG53" t="n">
         <v>0.08</v>
       </c>
+      <c r="AH53" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6296,6 +6457,9 @@
       <c r="AG54" t="n">
         <v>0.16</v>
       </c>
+      <c r="AH54" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6403,6 +6567,9 @@
       <c r="AG55" t="n">
         <v>0.76</v>
       </c>
+      <c r="AH55" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6510,6 +6677,9 @@
       <c r="AG56" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH56" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6617,6 +6787,9 @@
       <c r="AG57" t="n">
         <v>0.06</v>
       </c>
+      <c r="AH57" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6724,6 +6897,9 @@
       <c r="AG58" t="n">
         <v>0.91</v>
       </c>
+      <c r="AH58" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6831,6 +7007,9 @@
       <c r="AG59" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH59" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6938,6 +7117,9 @@
       <c r="AG60" t="n">
         <v>0.17</v>
       </c>
+      <c r="AH60" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7045,6 +7227,9 @@
       <c r="AG61" t="n">
         <v>0.78</v>
       </c>
+      <c r="AH61" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7152,6 +7337,9 @@
       <c r="AG62" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH62" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7259,6 +7447,9 @@
       <c r="AG63" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AH63" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7366,6 +7557,9 @@
       <c r="AG64" t="n">
         <v>0.89</v>
       </c>
+      <c r="AH64" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7473,6 +7667,9 @@
       <c r="AG65" t="n">
         <v>0.06</v>
       </c>
+      <c r="AH65" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7580,6 +7777,9 @@
       <c r="AG66" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AH66" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7687,11 +7887,14 @@
       <c r="AG67" t="n">
         <v>0.87</v>
       </c>
+      <c r="AH67" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
     </row>
@@ -7706,7 +7909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF24"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7875,6 +8078,11 @@
           <t>20. 7. 2021</t>
         </is>
       </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>24. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7977,6 +8185,9 @@
       <c r="AF2" t="n">
         <v>1520</v>
       </c>
+      <c r="AG2" t="n">
+        <v>1620</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -8079,6 +8290,9 @@
       <c r="AF3" t="n">
         <v>724</v>
       </c>
+      <c r="AG3" t="n">
+        <v>768</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -8181,6 +8395,9 @@
       <c r="AF4" t="n">
         <v>122</v>
       </c>
+      <c r="AG4" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8283,6 +8500,9 @@
       <c r="AF5" t="n">
         <v>476</v>
       </c>
+      <c r="AG5" t="n">
+        <v>505</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8385,6 +8605,9 @@
       <c r="AF6" t="n">
         <v>198</v>
       </c>
+      <c r="AG6" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8487,6 +8710,9 @@
       <c r="AF7" t="n">
         <v>682</v>
       </c>
+      <c r="AG7" t="n">
+        <v>726</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8589,6 +8815,9 @@
       <c r="AF8" t="n">
         <v>111</v>
       </c>
+      <c r="AG8" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8691,6 +8920,9 @@
       <c r="AF9" t="n">
         <v>112</v>
       </c>
+      <c r="AG9" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8793,6 +9025,9 @@
       <c r="AF10" t="n">
         <v>615</v>
       </c>
+      <c r="AG10" t="n">
+        <v>665</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8895,6 +9130,9 @@
       <c r="AF11" t="n">
         <v>705</v>
       </c>
+      <c r="AG11" t="n">
+        <v>759</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8997,6 +9235,9 @@
       <c r="AF12" t="n">
         <v>523</v>
       </c>
+      <c r="AG12" t="n">
+        <v>546</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9099,6 +9340,9 @@
       <c r="AF13" t="n">
         <v>292</v>
       </c>
+      <c r="AG13" t="n">
+        <v>315</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9201,6 +9445,9 @@
       <c r="AF14" t="n">
         <v>425</v>
       </c>
+      <c r="AG14" t="n">
+        <v>453</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9303,6 +9550,9 @@
       <c r="AF15" t="n">
         <v>1095</v>
       </c>
+      <c r="AG15" t="n">
+        <v>1167</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9405,6 +9655,9 @@
       <c r="AF16" t="n">
         <v>143</v>
       </c>
+      <c r="AG16" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9507,6 +9760,9 @@
       <c r="AF17" t="n">
         <v>270</v>
       </c>
+      <c r="AG17" t="n">
+        <v>297</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9609,6 +9865,9 @@
       <c r="AF18" t="n">
         <v>1107</v>
       </c>
+      <c r="AG18" t="n">
+        <v>1179</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9711,6 +9970,9 @@
       <c r="AF19" t="n">
         <v>280</v>
       </c>
+      <c r="AG19" t="n">
+        <v>285</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9813,6 +10075,9 @@
       <c r="AF20" t="n">
         <v>89</v>
       </c>
+      <c r="AG20" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9915,6 +10180,9 @@
       <c r="AF21" t="n">
         <v>239</v>
       </c>
+      <c r="AG21" t="n">
+        <v>272</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -10017,6 +10285,9 @@
       <c r="AF22" t="n">
         <v>133</v>
       </c>
+      <c r="AG22" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -10119,11 +10390,14 @@
       <c r="AF23" t="n">
         <v>79</v>
       </c>
+      <c r="AG23" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -10157,6 +10431,7 @@
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_02_zasazeni_domacnosti.xlsx
+++ b/ZBP_02_zasazeni_domacnosti.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH68"/>
+  <dimension ref="A1:AI68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,6 +630,11 @@
           <t>24. 8. 2021</t>
         </is>
       </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>28. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -740,6 +745,9 @@
       <c r="AH2" t="n">
         <v>0.09</v>
       </c>
+      <c r="AI2" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -850,6 +858,9 @@
       <c r="AH3" t="n">
         <v>0.18</v>
       </c>
+      <c r="AI3" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -960,6 +971,9 @@
       <c r="AH4" t="n">
         <v>0.73</v>
       </c>
+      <c r="AI4" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1070,6 +1084,9 @@
       <c r="AH5" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1180,6 +1197,9 @@
       <c r="AH6" t="n">
         <v>0.14</v>
       </c>
+      <c r="AI6" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1290,6 +1310,9 @@
       <c r="AH7" t="n">
         <v>0.78</v>
       </c>
+      <c r="AI7" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1400,6 +1423,9 @@
       <c r="AH8" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI8" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1510,6 +1536,9 @@
       <c r="AH9" t="n">
         <v>0.12</v>
       </c>
+      <c r="AI9" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1620,6 +1649,9 @@
       <c r="AH10" t="n">
         <v>0.84</v>
       </c>
+      <c r="AI10" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1730,6 +1762,9 @@
       <c r="AH11" t="n">
         <v>0.09</v>
       </c>
+      <c r="AI11" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1840,6 +1875,9 @@
       <c r="AH12" t="n">
         <v>0.22</v>
       </c>
+      <c r="AI12" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1950,6 +1988,9 @@
       <c r="AH13" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AI13" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2060,6 +2101,9 @@
       <c r="AH14" t="n">
         <v>0.25</v>
       </c>
+      <c r="AI14" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2170,6 +2214,9 @@
       <c r="AH15" t="n">
         <v>0.16</v>
       </c>
+      <c r="AI15" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2280,6 +2327,9 @@
       <c r="AH16" t="n">
         <v>0.59</v>
       </c>
+      <c r="AI16" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2390,6 +2440,9 @@
       <c r="AH17" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI17" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2500,6 +2553,9 @@
       <c r="AH18" t="n">
         <v>0.14</v>
       </c>
+      <c r="AI18" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2610,6 +2666,9 @@
       <c r="AH19" t="n">
         <v>0.79</v>
       </c>
+      <c r="AI19" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2720,6 +2779,9 @@
       <c r="AH20" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI20" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2830,6 +2892,9 @@
       <c r="AH21" t="n">
         <v>0.11</v>
       </c>
+      <c r="AI21" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2940,6 +3005,9 @@
       <c r="AH22" t="n">
         <v>0.84</v>
       </c>
+      <c r="AI22" t="n">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3050,6 +3118,9 @@
       <c r="AH23" t="n">
         <v>0.2</v>
       </c>
+      <c r="AI23" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3160,6 +3231,9 @@
       <c r="AH24" t="n">
         <v>0.17</v>
       </c>
+      <c r="AI24" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3270,6 +3344,9 @@
       <c r="AH25" t="n">
         <v>0.63</v>
       </c>
+      <c r="AI25" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3380,6 +3457,9 @@
       <c r="AH26" t="n">
         <v>0.11</v>
       </c>
+      <c r="AI26" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3490,6 +3570,9 @@
       <c r="AH27" t="n">
         <v>0.21</v>
       </c>
+      <c r="AI27" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3600,6 +3683,9 @@
       <c r="AH28" t="n">
         <v>0.68</v>
       </c>
+      <c r="AI28" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3710,6 +3796,9 @@
       <c r="AH29" t="n">
         <v>0.15</v>
       </c>
+      <c r="AI29" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3820,6 +3909,9 @@
       <c r="AH30" t="n">
         <v>0.26</v>
       </c>
+      <c r="AI30" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3930,6 +4022,9 @@
       <c r="AH31" t="n">
         <v>0.59</v>
       </c>
+      <c r="AI31" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4040,6 +4135,9 @@
       <c r="AH32" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI32" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4150,6 +4248,9 @@
       <c r="AH33" t="n">
         <v>0.14</v>
       </c>
+      <c r="AI33" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4260,6 +4361,9 @@
       <c r="AH34" t="n">
         <v>0.8</v>
       </c>
+      <c r="AI34" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4370,6 +4474,9 @@
       <c r="AH35" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI35" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4480,6 +4587,9 @@
       <c r="AH36" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI36" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4590,6 +4700,9 @@
       <c r="AH37" t="n">
         <v>0.91</v>
       </c>
+      <c r="AI37" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4700,6 +4813,9 @@
       <c r="AH38" t="n">
         <v>0.16</v>
       </c>
+      <c r="AI38" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4810,6 +4926,9 @@
       <c r="AH39" t="n">
         <v>0.19</v>
       </c>
+      <c r="AI39" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4920,6 +5039,9 @@
       <c r="AH40" t="n">
         <v>0.65</v>
       </c>
+      <c r="AI40" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5030,6 +5152,9 @@
       <c r="AH41" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI41" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5140,6 +5265,9 @@
       <c r="AH42" t="n">
         <v>0.17</v>
       </c>
+      <c r="AI42" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5250,6 +5378,9 @@
       <c r="AH43" t="n">
         <v>0.76</v>
       </c>
+      <c r="AI43" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5360,6 +5491,9 @@
       <c r="AH44" t="n">
         <v>0.66</v>
       </c>
+      <c r="AI44" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5470,6 +5604,9 @@
       <c r="AH45" t="n">
         <v>0.18</v>
       </c>
+      <c r="AI45" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5580,6 +5717,9 @@
       <c r="AH46" t="n">
         <v>0.16</v>
       </c>
+      <c r="AI46" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5690,6 +5830,9 @@
       <c r="AH47" t="n">
         <v>0.09</v>
       </c>
+      <c r="AI47" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5800,6 +5943,9 @@
       <c r="AH48" t="n">
         <v>0.57</v>
       </c>
+      <c r="AI48" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5910,6 +6056,9 @@
       <c r="AH49" t="n">
         <v>0.34</v>
       </c>
+      <c r="AI49" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6020,6 +6169,9 @@
       <c r="AH50" t="n">
         <v>0.02</v>
       </c>
+      <c r="AI50" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6130,6 +6282,9 @@
       <c r="AH51" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI51" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6240,6 +6395,9 @@
       <c r="AH52" t="n">
         <v>0.9</v>
       </c>
+      <c r="AI52" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6350,6 +6508,9 @@
       <c r="AH53" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI53" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6460,6 +6621,9 @@
       <c r="AH54" t="n">
         <v>0.17</v>
       </c>
+      <c r="AI54" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6570,6 +6734,9 @@
       <c r="AH55" t="n">
         <v>0.75</v>
       </c>
+      <c r="AI55" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6680,6 +6847,9 @@
       <c r="AH56" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6790,6 +6960,9 @@
       <c r="AH57" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI57" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6900,6 +7073,9 @@
       <c r="AH58" t="n">
         <v>0.9</v>
       </c>
+      <c r="AI58" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7010,6 +7186,9 @@
       <c r="AH59" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI59" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7120,6 +7299,9 @@
       <c r="AH60" t="n">
         <v>0.2</v>
       </c>
+      <c r="AI60" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7230,6 +7412,9 @@
       <c r="AH61" t="n">
         <v>0.72</v>
       </c>
+      <c r="AI61" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7340,6 +7525,9 @@
       <c r="AH62" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI62" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7450,6 +7638,9 @@
       <c r="AH63" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI63" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7560,6 +7751,9 @@
       <c r="AH64" t="n">
         <v>0.87</v>
       </c>
+      <c r="AI64" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7670,6 +7864,9 @@
       <c r="AH65" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI65" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7780,6 +7977,9 @@
       <c r="AH66" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI66" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7890,11 +8090,14 @@
       <c r="AH67" t="n">
         <v>0.88</v>
       </c>
+      <c r="AI67" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
     </row>
@@ -7909,7 +8112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AH24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8083,6 +8286,11 @@
           <t>24. 8. 2021</t>
         </is>
       </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>28. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -8188,6 +8396,9 @@
       <c r="AG2" t="n">
         <v>1620</v>
       </c>
+      <c r="AH2" t="n">
+        <v>1575</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -8293,6 +8504,9 @@
       <c r="AG3" t="n">
         <v>768</v>
       </c>
+      <c r="AH3" t="n">
+        <v>750</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -8398,6 +8612,9 @@
       <c r="AG4" t="n">
         <v>132</v>
       </c>
+      <c r="AH4" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8503,6 +8720,9 @@
       <c r="AG5" t="n">
         <v>505</v>
       </c>
+      <c r="AH5" t="n">
+        <v>489</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8608,6 +8828,9 @@
       <c r="AG6" t="n">
         <v>215</v>
       </c>
+      <c r="AH6" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8713,6 +8936,9 @@
       <c r="AG7" t="n">
         <v>726</v>
       </c>
+      <c r="AH7" t="n">
+        <v>717</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8818,6 +9044,9 @@
       <c r="AG8" t="n">
         <v>124</v>
       </c>
+      <c r="AH8" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8923,6 +9152,9 @@
       <c r="AG9" t="n">
         <v>105</v>
       </c>
+      <c r="AH9" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9028,6 +9260,9 @@
       <c r="AG10" t="n">
         <v>665</v>
       </c>
+      <c r="AH10" t="n">
+        <v>647</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9133,6 +9368,9 @@
       <c r="AG11" t="n">
         <v>759</v>
       </c>
+      <c r="AH11" t="n">
+        <v>746</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9238,6 +9476,9 @@
       <c r="AG12" t="n">
         <v>546</v>
       </c>
+      <c r="AH12" t="n">
+        <v>525</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9343,6 +9584,9 @@
       <c r="AG13" t="n">
         <v>315</v>
       </c>
+      <c r="AH13" t="n">
+        <v>304</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9448,6 +9692,9 @@
       <c r="AG14" t="n">
         <v>453</v>
       </c>
+      <c r="AH14" t="n">
+        <v>422</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9553,6 +9800,9 @@
       <c r="AG15" t="n">
         <v>1167</v>
       </c>
+      <c r="AH15" t="n">
+        <v>1153</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9658,6 +9908,9 @@
       <c r="AG16" t="n">
         <v>144</v>
       </c>
+      <c r="AH16" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9763,6 +10016,9 @@
       <c r="AG17" t="n">
         <v>297</v>
       </c>
+      <c r="AH17" t="n">
+        <v>283</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9868,6 +10124,9 @@
       <c r="AG18" t="n">
         <v>1179</v>
       </c>
+      <c r="AH18" t="n">
+        <v>1152</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9973,6 +10232,9 @@
       <c r="AG19" t="n">
         <v>285</v>
       </c>
+      <c r="AH19" t="n">
+        <v>274</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -10078,6 +10340,9 @@
       <c r="AG20" t="n">
         <v>90</v>
       </c>
+      <c r="AH20" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10183,6 +10448,9 @@
       <c r="AG21" t="n">
         <v>272</v>
       </c>
+      <c r="AH21" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -10288,6 +10556,9 @@
       <c r="AG22" t="n">
         <v>149</v>
       </c>
+      <c r="AH22" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -10393,11 +10664,14 @@
       <c r="AG23" t="n">
         <v>77</v>
       </c>
+      <c r="AH23" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -10432,6 +10706,7 @@
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_02_zasazeni_domacnosti.xlsx
+++ b/ZBP_02_zasazeni_domacnosti.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI68"/>
+  <dimension ref="A1:AJ68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,6 +635,11 @@
           <t>28. 9. 2021</t>
         </is>
       </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>12. 10. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -748,6 +753,9 @@
       <c r="AI2" t="n">
         <v>0.09</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -861,6 +869,9 @@
       <c r="AI3" t="n">
         <v>0.18</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -974,6 +985,9 @@
       <c r="AI4" t="n">
         <v>0.73</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1087,6 +1101,9 @@
       <c r="AI5" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1200,6 +1217,9 @@
       <c r="AI6" t="n">
         <v>0.17</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1313,6 +1333,9 @@
       <c r="AI7" t="n">
         <v>0.76</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1426,6 +1449,9 @@
       <c r="AI8" t="n">
         <v>0.02</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1539,6 +1565,9 @@
       <c r="AI9" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1652,6 +1681,9 @@
       <c r="AI10" t="n">
         <v>0.91</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1765,6 +1797,9 @@
       <c r="AI11" t="n">
         <v>0.09</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1878,6 +1913,9 @@
       <c r="AI12" t="n">
         <v>0.23</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1991,6 +2029,9 @@
       <c r="AI13" t="n">
         <v>0.68</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2104,6 +2145,9 @@
       <c r="AI14" t="n">
         <v>0.21</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2217,6 +2261,9 @@
       <c r="AI15" t="n">
         <v>0.16</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2330,6 +2377,9 @@
       <c r="AI16" t="n">
         <v>0.63</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2443,6 +2493,9 @@
       <c r="AI17" t="n">
         <v>0.06</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2556,6 +2609,9 @@
       <c r="AI18" t="n">
         <v>0.17</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2669,6 +2725,9 @@
       <c r="AI19" t="n">
         <v>0.77</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2782,6 +2841,9 @@
       <c r="AI20" t="n">
         <v>0.02</v>
       </c>
+      <c r="AJ20" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2895,6 +2957,9 @@
       <c r="AI21" t="n">
         <v>0.06</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3008,6 +3073,9 @@
       <c r="AI22" t="n">
         <v>0.92</v>
       </c>
+      <c r="AJ22" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3121,6 +3189,9 @@
       <c r="AI23" t="n">
         <v>0.2</v>
       </c>
+      <c r="AJ23" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3234,6 +3305,9 @@
       <c r="AI24" t="n">
         <v>0.18</v>
       </c>
+      <c r="AJ24" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3347,6 +3421,9 @@
       <c r="AI25" t="n">
         <v>0.62</v>
       </c>
+      <c r="AJ25" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3460,6 +3537,9 @@
       <c r="AI26" t="n">
         <v>0.11</v>
       </c>
+      <c r="AJ26" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3573,6 +3653,9 @@
       <c r="AI27" t="n">
         <v>0.22</v>
       </c>
+      <c r="AJ27" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3686,6 +3769,9 @@
       <c r="AI28" t="n">
         <v>0.67</v>
       </c>
+      <c r="AJ28" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3799,6 +3885,9 @@
       <c r="AI29" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ29" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3912,6 +4001,9 @@
       <c r="AI30" t="n">
         <v>0.27</v>
       </c>
+      <c r="AJ30" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4025,6 +4117,9 @@
       <c r="AI31" t="n">
         <v>0.59</v>
       </c>
+      <c r="AJ31" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4138,6 +4233,9 @@
       <c r="AI32" t="n">
         <v>0.06</v>
       </c>
+      <c r="AJ32" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4251,6 +4349,9 @@
       <c r="AI33" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ33" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4364,6 +4465,9 @@
       <c r="AI34" t="n">
         <v>0.8</v>
       </c>
+      <c r="AJ34" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4477,6 +4581,9 @@
       <c r="AI35" t="n">
         <v>0.01</v>
       </c>
+      <c r="AJ35" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4590,6 +4697,9 @@
       <c r="AI36" t="n">
         <v>0.08</v>
       </c>
+      <c r="AJ36" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4703,6 +4813,9 @@
       <c r="AI37" t="n">
         <v>0.91</v>
       </c>
+      <c r="AJ37" t="n">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4816,6 +4929,9 @@
       <c r="AI38" t="n">
         <v>0.16</v>
       </c>
+      <c r="AJ38" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4929,6 +5045,9 @@
       <c r="AI39" t="n">
         <v>0.21</v>
       </c>
+      <c r="AJ39" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5042,6 +5161,9 @@
       <c r="AI40" t="n">
         <v>0.63</v>
       </c>
+      <c r="AJ40" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5155,6 +5277,9 @@
       <c r="AI41" t="n">
         <v>0.06</v>
       </c>
+      <c r="AJ41" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5268,6 +5393,9 @@
       <c r="AI42" t="n">
         <v>0.17</v>
       </c>
+      <c r="AJ42" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5381,6 +5509,9 @@
       <c r="AI43" t="n">
         <v>0.77</v>
       </c>
+      <c r="AJ43" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5494,6 +5625,9 @@
       <c r="AI44" t="n">
         <v>0.66</v>
       </c>
+      <c r="AJ44" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5607,6 +5741,9 @@
       <c r="AI45" t="n">
         <v>0.15</v>
       </c>
+      <c r="AJ45" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5720,6 +5857,9 @@
       <c r="AI46" t="n">
         <v>0.19</v>
       </c>
+      <c r="AJ46" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5833,6 +5973,9 @@
       <c r="AI47" t="n">
         <v>0.09</v>
       </c>
+      <c r="AJ47" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5946,6 +6089,9 @@
       <c r="AI48" t="n">
         <v>0.6</v>
       </c>
+      <c r="AJ48" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6059,6 +6205,9 @@
       <c r="AI49" t="n">
         <v>0.31</v>
       </c>
+      <c r="AJ49" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6172,6 +6321,9 @@
       <c r="AI50" t="n">
         <v>0.02</v>
       </c>
+      <c r="AJ50" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6285,6 +6437,9 @@
       <c r="AI51" t="n">
         <v>0.08</v>
       </c>
+      <c r="AJ51" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6398,6 +6553,9 @@
       <c r="AI52" t="n">
         <v>0.9</v>
       </c>
+      <c r="AJ52" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6511,6 +6669,9 @@
       <c r="AI53" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AJ53" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6624,6 +6785,9 @@
       <c r="AI54" t="n">
         <v>0.19</v>
       </c>
+      <c r="AJ54" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6737,6 +6901,9 @@
       <c r="AI55" t="n">
         <v>0.74</v>
       </c>
+      <c r="AJ55" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6850,6 +7017,9 @@
       <c r="AI56" t="n">
         <v>0</v>
       </c>
+      <c r="AJ56" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6963,6 +7133,9 @@
       <c r="AI57" t="n">
         <v>0.1</v>
       </c>
+      <c r="AJ57" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7076,6 +7249,9 @@
       <c r="AI58" t="n">
         <v>0.9</v>
       </c>
+      <c r="AJ58" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7189,6 +7365,9 @@
       <c r="AI59" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ59" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7302,6 +7481,9 @@
       <c r="AI60" t="n">
         <v>0.21</v>
       </c>
+      <c r="AJ60" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7415,6 +7597,9 @@
       <c r="AI61" t="n">
         <v>0.74</v>
       </c>
+      <c r="AJ61" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7528,6 +7713,9 @@
       <c r="AI62" t="n">
         <v>0.04</v>
       </c>
+      <c r="AJ62" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7641,6 +7829,9 @@
       <c r="AI63" t="n">
         <v>0.1</v>
       </c>
+      <c r="AJ63" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7754,6 +7945,9 @@
       <c r="AI64" t="n">
         <v>0.86</v>
       </c>
+      <c r="AJ64" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7867,6 +8061,9 @@
       <c r="AI65" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AJ65" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7980,6 +8177,9 @@
       <c r="AI66" t="n">
         <v>0.09</v>
       </c>
+      <c r="AJ66" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8093,11 +8293,14 @@
       <c r="AI67" t="n">
         <v>0.84</v>
       </c>
+      <c r="AJ67" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+          <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 20. 10. 2021</t>
         </is>
       </c>
     </row>
@@ -8112,7 +8315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH24"/>
+  <dimension ref="A1:AI24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8291,6 +8494,11 @@
           <t>28. 9. 2021</t>
         </is>
       </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>12. 10. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -8399,6 +8607,9 @@
       <c r="AH2" t="n">
         <v>1575</v>
       </c>
+      <c r="AI2" t="n">
+        <v>1562</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -8507,6 +8718,9 @@
       <c r="AH3" t="n">
         <v>750</v>
       </c>
+      <c r="AI3" t="n">
+        <v>741</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -8615,6 +8829,9 @@
       <c r="AH4" t="n">
         <v>125</v>
       </c>
+      <c r="AI4" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8723,6 +8940,9 @@
       <c r="AH5" t="n">
         <v>489</v>
       </c>
+      <c r="AI5" t="n">
+        <v>491</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8831,6 +9051,9 @@
       <c r="AH6" t="n">
         <v>211</v>
       </c>
+      <c r="AI6" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8939,6 +9162,9 @@
       <c r="AH7" t="n">
         <v>717</v>
       </c>
+      <c r="AI7" t="n">
+        <v>706</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9047,6 +9273,9 @@
       <c r="AH8" t="n">
         <v>116</v>
       </c>
+      <c r="AI8" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9155,6 +9384,9 @@
       <c r="AH9" t="n">
         <v>95</v>
       </c>
+      <c r="AI9" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9263,6 +9495,9 @@
       <c r="AH10" t="n">
         <v>647</v>
       </c>
+      <c r="AI10" t="n">
+        <v>639</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9371,6 +9606,9 @@
       <c r="AH11" t="n">
         <v>746</v>
       </c>
+      <c r="AI11" t="n">
+        <v>745</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9479,6 +9717,9 @@
       <c r="AH12" t="n">
         <v>525</v>
       </c>
+      <c r="AI12" t="n">
+        <v>514</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9587,6 +9828,9 @@
       <c r="AH13" t="n">
         <v>304</v>
       </c>
+      <c r="AI13" t="n">
+        <v>303</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9695,6 +9939,9 @@
       <c r="AH14" t="n">
         <v>422</v>
       </c>
+      <c r="AI14" t="n">
+        <v>426</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9803,6 +10050,9 @@
       <c r="AH15" t="n">
         <v>1153</v>
       </c>
+      <c r="AI15" t="n">
+        <v>1136</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9911,6 +10161,9 @@
       <c r="AH16" t="n">
         <v>140</v>
       </c>
+      <c r="AI16" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10019,6 +10272,9 @@
       <c r="AH17" t="n">
         <v>283</v>
       </c>
+      <c r="AI17" t="n">
+        <v>280</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10127,6 +10383,9 @@
       <c r="AH18" t="n">
         <v>1152</v>
       </c>
+      <c r="AI18" t="n">
+        <v>1138</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10235,6 +10494,9 @@
       <c r="AH19" t="n">
         <v>274</v>
       </c>
+      <c r="AI19" t="n">
+        <v>279</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -10343,6 +10605,9 @@
       <c r="AH20" t="n">
         <v>97</v>
       </c>
+      <c r="AI20" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10451,6 +10716,9 @@
       <c r="AH21" t="n">
         <v>251</v>
       </c>
+      <c r="AI21" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -10559,6 +10827,9 @@
       <c r="AH22" t="n">
         <v>137</v>
       </c>
+      <c r="AI22" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -10667,11 +10938,14 @@
       <c r="AH23" t="n">
         <v>83</v>
       </c>
+      <c r="AI23" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+          <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 20. 10. 2021</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -10707,6 +10981,7 @@
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_02_zasazeni_domacnosti.xlsx
+++ b/ZBP_02_zasazeni_domacnosti.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ68"/>
+  <dimension ref="A1:AK68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,6 +640,11 @@
           <t>12. 10. 2021</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>11. 11. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -756,6 +761,9 @@
       <c r="AJ2" t="n">
         <v>0.09</v>
       </c>
+      <c r="AK2" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -872,6 +880,9 @@
       <c r="AJ3" t="n">
         <v>0.17</v>
       </c>
+      <c r="AK3" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -988,6 +999,9 @@
       <c r="AJ4" t="n">
         <v>0.74</v>
       </c>
+      <c r="AK4" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1104,6 +1118,9 @@
       <c r="AJ5" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AK5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1220,6 +1237,9 @@
       <c r="AJ6" t="n">
         <v>0.15</v>
       </c>
+      <c r="AK6" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1336,6 +1356,9 @@
       <c r="AJ7" t="n">
         <v>0.78</v>
       </c>
+      <c r="AK7" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1452,6 +1475,9 @@
       <c r="AJ8" t="n">
         <v>0.05</v>
       </c>
+      <c r="AK8" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1568,6 +1594,9 @@
       <c r="AJ9" t="n">
         <v>0.09</v>
       </c>
+      <c r="AK9" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1684,6 +1713,9 @@
       <c r="AJ10" t="n">
         <v>0.86</v>
       </c>
+      <c r="AK10" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1800,6 +1832,9 @@
       <c r="AJ11" t="n">
         <v>0.09</v>
       </c>
+      <c r="AK11" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1916,6 +1951,9 @@
       <c r="AJ12" t="n">
         <v>0.22</v>
       </c>
+      <c r="AK12" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2032,6 +2070,9 @@
       <c r="AJ13" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AK13" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2148,6 +2189,9 @@
       <c r="AJ14" t="n">
         <v>0.23</v>
       </c>
+      <c r="AK14" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2264,6 +2308,9 @@
       <c r="AJ15" t="n">
         <v>0.15</v>
       </c>
+      <c r="AK15" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2380,6 +2427,9 @@
       <c r="AJ16" t="n">
         <v>0.62</v>
       </c>
+      <c r="AK16" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2496,6 +2546,9 @@
       <c r="AJ17" t="n">
         <v>0.06</v>
       </c>
+      <c r="AK17" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2612,6 +2665,9 @@
       <c r="AJ18" t="n">
         <v>0.15</v>
       </c>
+      <c r="AK18" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2728,6 +2784,9 @@
       <c r="AJ19" t="n">
         <v>0.79</v>
       </c>
+      <c r="AK19" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2844,6 +2903,9 @@
       <c r="AJ20" t="n">
         <v>0.06</v>
       </c>
+      <c r="AK20" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2960,6 +3022,9 @@
       <c r="AJ21" t="n">
         <v>0.08</v>
       </c>
+      <c r="AK21" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3076,6 +3141,9 @@
       <c r="AJ22" t="n">
         <v>0.86</v>
       </c>
+      <c r="AK22" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3192,6 +3260,9 @@
       <c r="AJ23" t="n">
         <v>0.19</v>
       </c>
+      <c r="AK23" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3308,6 +3379,9 @@
       <c r="AJ24" t="n">
         <v>0.18</v>
       </c>
+      <c r="AK24" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3424,6 +3498,9 @@
       <c r="AJ25" t="n">
         <v>0.63</v>
       </c>
+      <c r="AK25" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3540,6 +3617,9 @@
       <c r="AJ26" t="n">
         <v>0.11</v>
       </c>
+      <c r="AK26" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3656,6 +3736,9 @@
       <c r="AJ27" t="n">
         <v>0.22</v>
       </c>
+      <c r="AK27" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3772,6 +3855,9 @@
       <c r="AJ28" t="n">
         <v>0.67</v>
       </c>
+      <c r="AK28" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3888,6 +3974,9 @@
       <c r="AJ29" t="n">
         <v>0.15</v>
       </c>
+      <c r="AK29" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4004,6 +4093,9 @@
       <c r="AJ30" t="n">
         <v>0.27</v>
       </c>
+      <c r="AK30" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4120,6 +4212,9 @@
       <c r="AJ31" t="n">
         <v>0.58</v>
       </c>
+      <c r="AK31" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4236,6 +4331,9 @@
       <c r="AJ32" t="n">
         <v>0.06</v>
       </c>
+      <c r="AK32" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4352,6 +4450,9 @@
       <c r="AJ33" t="n">
         <v>0.15</v>
       </c>
+      <c r="AK33" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4468,6 +4569,9 @@
       <c r="AJ34" t="n">
         <v>0.79</v>
       </c>
+      <c r="AK34" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4584,6 +4688,9 @@
       <c r="AJ35" t="n">
         <v>0.03</v>
       </c>
+      <c r="AK35" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4700,6 +4807,9 @@
       <c r="AJ36" t="n">
         <v>0.05</v>
       </c>
+      <c r="AK36" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4816,6 +4926,9 @@
       <c r="AJ37" t="n">
         <v>0.92</v>
       </c>
+      <c r="AK37" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4932,6 +5045,9 @@
       <c r="AJ38" t="n">
         <v>0.16</v>
       </c>
+      <c r="AK38" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5048,6 +5164,9 @@
       <c r="AJ39" t="n">
         <v>0.2</v>
       </c>
+      <c r="AK39" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5164,6 +5283,9 @@
       <c r="AJ40" t="n">
         <v>0.64</v>
       </c>
+      <c r="AK40" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5280,6 +5402,9 @@
       <c r="AJ41" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AK41" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5396,6 +5521,9 @@
       <c r="AJ42" t="n">
         <v>0.17</v>
       </c>
+      <c r="AK42" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5512,6 +5640,9 @@
       <c r="AJ43" t="n">
         <v>0.76</v>
       </c>
+      <c r="AK43" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5628,6 +5759,9 @@
       <c r="AJ44" t="n">
         <v>0.65</v>
       </c>
+      <c r="AK44" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5744,6 +5878,9 @@
       <c r="AJ45" t="n">
         <v>0.16</v>
       </c>
+      <c r="AK45" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5860,6 +5997,9 @@
       <c r="AJ46" t="n">
         <v>0.19</v>
       </c>
+      <c r="AK46" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5976,6 +6116,9 @@
       <c r="AJ47" t="n">
         <v>0.1</v>
       </c>
+      <c r="AK47" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6092,6 +6235,9 @@
       <c r="AJ48" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AK48" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6208,6 +6354,9 @@
       <c r="AJ49" t="n">
         <v>0.34</v>
       </c>
+      <c r="AK49" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6324,6 +6473,9 @@
       <c r="AJ50" t="n">
         <v>0.02</v>
       </c>
+      <c r="AK50" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6440,6 +6592,9 @@
       <c r="AJ51" t="n">
         <v>0.08</v>
       </c>
+      <c r="AK51" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6556,6 +6711,9 @@
       <c r="AJ52" t="n">
         <v>0.9</v>
       </c>
+      <c r="AK52" t="n">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6672,6 +6830,9 @@
       <c r="AJ53" t="n">
         <v>0.06</v>
       </c>
+      <c r="AK53" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6788,6 +6949,9 @@
       <c r="AJ54" t="n">
         <v>0.19</v>
       </c>
+      <c r="AK54" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6904,6 +7068,9 @@
       <c r="AJ55" t="n">
         <v>0.75</v>
       </c>
+      <c r="AK55" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7020,6 +7187,9 @@
       <c r="AJ56" t="n">
         <v>0.03</v>
       </c>
+      <c r="AK56" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7136,6 +7306,9 @@
       <c r="AJ57" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AK57" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7252,6 +7425,9 @@
       <c r="AJ58" t="n">
         <v>0.9</v>
       </c>
+      <c r="AK58" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7368,6 +7544,9 @@
       <c r="AJ59" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AK59" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7484,6 +7663,9 @@
       <c r="AJ60" t="n">
         <v>0.19</v>
       </c>
+      <c r="AK60" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7600,6 +7782,9 @@
       <c r="AJ61" t="n">
         <v>0.74</v>
       </c>
+      <c r="AK61" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7716,6 +7901,9 @@
       <c r="AJ62" t="n">
         <v>0.05</v>
       </c>
+      <c r="AK62" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7832,6 +8020,9 @@
       <c r="AJ63" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AK63" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7948,6 +8139,9 @@
       <c r="AJ64" t="n">
         <v>0.88</v>
       </c>
+      <c r="AK64" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8064,6 +8258,9 @@
       <c r="AJ65" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AK65" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8180,6 +8377,9 @@
       <c r="AJ66" t="n">
         <v>0.11</v>
       </c>
+      <c r="AK66" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8296,11 +8496,14 @@
       <c r="AJ67" t="n">
         <v>0.82</v>
       </c>
+      <c r="AK67" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 20. 10. 2021</t>
+          <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 18. 11. 2021</t>
         </is>
       </c>
     </row>
@@ -8315,7 +8518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI24"/>
+  <dimension ref="A1:AJ24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8499,6 +8702,11 @@
           <t>12. 10. 2021</t>
         </is>
       </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>11. 11. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -8610,6 +8818,9 @@
       <c r="AI2" t="n">
         <v>1562</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>1447</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -8721,6 +8932,9 @@
       <c r="AI3" t="n">
         <v>741</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>689</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -8832,6 +9046,9 @@
       <c r="AI4" t="n">
         <v>123</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8943,6 +9160,9 @@
       <c r="AI5" t="n">
         <v>491</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>451</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9054,6 +9274,9 @@
       <c r="AI6" t="n">
         <v>207</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>195</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9165,6 +9388,9 @@
       <c r="AI7" t="n">
         <v>706</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>654</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9276,6 +9502,9 @@
       <c r="AI8" t="n">
         <v>114</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9387,6 +9616,9 @@
       <c r="AI9" t="n">
         <v>103</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9498,6 +9730,9 @@
       <c r="AI10" t="n">
         <v>639</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>596</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9609,6 +9844,9 @@
       <c r="AI11" t="n">
         <v>745</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>674</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9720,6 +9958,9 @@
       <c r="AI12" t="n">
         <v>514</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>492</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9831,6 +10072,9 @@
       <c r="AI13" t="n">
         <v>303</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>281</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9942,6 +10186,9 @@
       <c r="AI14" t="n">
         <v>426</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10053,6 +10300,9 @@
       <c r="AI15" t="n">
         <v>1136</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>1047</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10164,6 +10414,9 @@
       <c r="AI16" t="n">
         <v>144</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10275,6 +10528,9 @@
       <c r="AI17" t="n">
         <v>280</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>296</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10386,6 +10642,9 @@
       <c r="AI18" t="n">
         <v>1138</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>1019</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10497,6 +10756,9 @@
       <c r="AI19" t="n">
         <v>279</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -10608,6 +10870,9 @@
       <c r="AI20" t="n">
         <v>93</v>
       </c>
+      <c r="AJ20" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10719,6 +10984,9 @@
       <c r="AI21" t="n">
         <v>239</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -10830,6 +11098,9 @@
       <c r="AI22" t="n">
         <v>143</v>
       </c>
+      <c r="AJ22" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -10941,11 +11212,14 @@
       <c r="AI23" t="n">
         <v>76</v>
       </c>
+      <c r="AJ23" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 20. 10. 2021</t>
+          <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 18. 11. 2021</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -10982,6 +11256,7 @@
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_02_zasazeni_domacnosti.xlsx
+++ b/ZBP_02_zasazeni_domacnosti.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK68"/>
+  <dimension ref="A1:AL68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,11 @@
           <t>11. 11. 2021</t>
         </is>
       </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>30. 11. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -764,6 +769,9 @@
       <c r="AK2" t="n">
         <v>0.09</v>
       </c>
+      <c r="AL2" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -883,6 +891,9 @@
       <c r="AK3" t="n">
         <v>0.19</v>
       </c>
+      <c r="AL3" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1002,6 +1013,9 @@
       <c r="AK4" t="n">
         <v>0.72</v>
       </c>
+      <c r="AL4" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1121,6 +1135,9 @@
       <c r="AK5" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AL5" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1240,6 +1257,9 @@
       <c r="AK6" t="n">
         <v>0.15</v>
       </c>
+      <c r="AL6" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1359,6 +1379,9 @@
       <c r="AK7" t="n">
         <v>0.78</v>
       </c>
+      <c r="AL7" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1478,6 +1501,9 @@
       <c r="AK8" t="n">
         <v>0.01</v>
       </c>
+      <c r="AL8" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1597,6 +1623,9 @@
       <c r="AK9" t="n">
         <v>0.15</v>
       </c>
+      <c r="AL9" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1716,6 +1745,9 @@
       <c r="AK10" t="n">
         <v>0.84</v>
       </c>
+      <c r="AL10" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1835,6 +1867,9 @@
       <c r="AK11" t="n">
         <v>0.1</v>
       </c>
+      <c r="AL11" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1952,6 +1987,9 @@
         <v>0.22</v>
       </c>
       <c r="AK12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AL12" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -2071,7 +2109,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="14">
@@ -2192,6 +2233,9 @@
       <c r="AK14" t="n">
         <v>0.23</v>
       </c>
+      <c r="AL14" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2309,7 +2353,10 @@
         <v>0.15</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="16">
@@ -2428,7 +2475,10 @@
         <v>0.62</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="17">
@@ -2549,6 +2599,9 @@
       <c r="AK17" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AL17" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2668,6 +2721,9 @@
       <c r="AK18" t="n">
         <v>0.15</v>
       </c>
+      <c r="AL18" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2787,6 +2843,9 @@
       <c r="AK19" t="n">
         <v>0.78</v>
       </c>
+      <c r="AL19" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2906,6 +2965,9 @@
       <c r="AK20" t="n">
         <v>0.01</v>
       </c>
+      <c r="AL20" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3025,6 +3087,9 @@
       <c r="AK21" t="n">
         <v>0.16</v>
       </c>
+      <c r="AL21" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3144,6 +3209,9 @@
       <c r="AK22" t="n">
         <v>0.83</v>
       </c>
+      <c r="AL22" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3263,6 +3331,9 @@
       <c r="AK23" t="n">
         <v>0.15</v>
       </c>
+      <c r="AL23" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3382,6 +3453,9 @@
       <c r="AK24" t="n">
         <v>0.17</v>
       </c>
+      <c r="AL24" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3501,6 +3575,9 @@
       <c r="AK25" t="n">
         <v>0.68</v>
       </c>
+      <c r="AL25" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3620,6 +3697,9 @@
       <c r="AK26" t="n">
         <v>0.12</v>
       </c>
+      <c r="AL26" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3739,6 +3819,9 @@
       <c r="AK27" t="n">
         <v>0.23</v>
       </c>
+      <c r="AL27" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3858,6 +3941,9 @@
       <c r="AK28" t="n">
         <v>0.65</v>
       </c>
+      <c r="AL28" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3977,6 +4063,9 @@
       <c r="AK29" t="n">
         <v>0.16</v>
       </c>
+      <c r="AL29" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4096,6 +4185,9 @@
       <c r="AK30" t="n">
         <v>0.28</v>
       </c>
+      <c r="AL30" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4215,6 +4307,9 @@
       <c r="AK31" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AL31" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4334,6 +4429,9 @@
       <c r="AK32" t="n">
         <v>0.06</v>
       </c>
+      <c r="AL32" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4453,6 +4551,9 @@
       <c r="AK33" t="n">
         <v>0.16</v>
       </c>
+      <c r="AL33" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4572,6 +4673,9 @@
       <c r="AK34" t="n">
         <v>0.78</v>
       </c>
+      <c r="AL34" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4691,6 +4795,9 @@
       <c r="AK35" t="n">
         <v>0.03</v>
       </c>
+      <c r="AL35" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4810,6 +4917,9 @@
       <c r="AK36" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AL36" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4929,6 +5039,9 @@
       <c r="AK37" t="n">
         <v>0.9</v>
       </c>
+      <c r="AL37" t="n">
+        <v>0.915</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5048,6 +5161,9 @@
       <c r="AK38" t="n">
         <v>0.17</v>
       </c>
+      <c r="AL38" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5167,6 +5283,9 @@
       <c r="AK39" t="n">
         <v>0.2</v>
       </c>
+      <c r="AL39" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5286,6 +5405,9 @@
       <c r="AK40" t="n">
         <v>0.63</v>
       </c>
+      <c r="AL40" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5405,6 +5527,9 @@
       <c r="AK41" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AL41" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5524,6 +5649,9 @@
       <c r="AK42" t="n">
         <v>0.19</v>
       </c>
+      <c r="AL42" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5643,6 +5771,9 @@
       <c r="AK43" t="n">
         <v>0.74</v>
       </c>
+      <c r="AL43" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5762,6 +5893,9 @@
       <c r="AK44" t="n">
         <v>0.67</v>
       </c>
+      <c r="AL44" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5881,6 +6015,9 @@
       <c r="AK45" t="n">
         <v>0.14</v>
       </c>
+      <c r="AL45" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6000,6 +6137,9 @@
       <c r="AK46" t="n">
         <v>0.19</v>
       </c>
+      <c r="AL46" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6119,6 +6259,9 @@
       <c r="AK47" t="n">
         <v>0.11</v>
       </c>
+      <c r="AL47" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6236,7 +6379,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AK48" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="49">
@@ -6355,7 +6501,10 @@
         <v>0.34</v>
       </c>
       <c r="AK49" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="50">
@@ -6476,6 +6625,9 @@
       <c r="AK50" t="n">
         <v>0.02</v>
       </c>
+      <c r="AL50" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6595,6 +6747,9 @@
       <c r="AK51" t="n">
         <v>0.09</v>
       </c>
+      <c r="AL51" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6714,6 +6869,9 @@
       <c r="AK52" t="n">
         <v>0.89</v>
       </c>
+      <c r="AL52" t="n">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6833,6 +6991,9 @@
       <c r="AK53" t="n">
         <v>0.06</v>
       </c>
+      <c r="AL53" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6952,6 +7113,9 @@
       <c r="AK54" t="n">
         <v>0.23</v>
       </c>
+      <c r="AL54" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7071,6 +7235,9 @@
       <c r="AK55" t="n">
         <v>0.71</v>
       </c>
+      <c r="AL55" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7190,6 +7357,9 @@
       <c r="AK56" t="n">
         <v>0.04</v>
       </c>
+      <c r="AL56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7309,6 +7479,9 @@
       <c r="AK57" t="n">
         <v>0.08</v>
       </c>
+      <c r="AL57" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7428,6 +7601,9 @@
       <c r="AK58" t="n">
         <v>0.88</v>
       </c>
+      <c r="AL58" t="n">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7547,6 +7723,9 @@
       <c r="AK59" t="n">
         <v>0.09</v>
       </c>
+      <c r="AL59" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7666,6 +7845,9 @@
       <c r="AK60" t="n">
         <v>0.19</v>
       </c>
+      <c r="AL60" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7785,6 +7967,9 @@
       <c r="AK61" t="n">
         <v>0.72</v>
       </c>
+      <c r="AL61" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7904,6 +8089,9 @@
       <c r="AK62" t="n">
         <v>0.05</v>
       </c>
+      <c r="AL62" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8023,6 +8211,9 @@
       <c r="AK63" t="n">
         <v>0.08</v>
       </c>
+      <c r="AL63" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8142,6 +8333,9 @@
       <c r="AK64" t="n">
         <v>0.87</v>
       </c>
+      <c r="AL64" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8261,6 +8455,9 @@
       <c r="AK65" t="n">
         <v>0.04</v>
       </c>
+      <c r="AL65" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8380,6 +8577,9 @@
       <c r="AK66" t="n">
         <v>0.09</v>
       </c>
+      <c r="AL66" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8499,11 +8699,14 @@
       <c r="AK67" t="n">
         <v>0.87</v>
       </c>
+      <c r="AL67" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 18. 11. 2021</t>
+          <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 8. 12. 2021</t>
         </is>
       </c>
     </row>
@@ -8518,7 +8721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AK24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8707,6 +8910,11 @@
           <t>11. 11. 2021</t>
         </is>
       </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>30. 11. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -8819,7 +9027,10 @@
         <v>1562</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1447</v>
+        <v>1455</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1509</v>
       </c>
     </row>
     <row r="3">
@@ -8933,7 +9144,10 @@
         <v>741</v>
       </c>
       <c r="AJ3" t="n">
-        <v>689</v>
+        <v>696</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>718</v>
       </c>
     </row>
     <row r="4">
@@ -9049,6 +9263,9 @@
       <c r="AJ4" t="n">
         <v>112</v>
       </c>
+      <c r="AK4" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9161,7 +9378,10 @@
         <v>491</v>
       </c>
       <c r="AJ5" t="n">
-        <v>451</v>
+        <v>452</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>475</v>
       </c>
     </row>
     <row r="6">
@@ -9277,6 +9497,9 @@
       <c r="AJ6" t="n">
         <v>195</v>
       </c>
+      <c r="AK6" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9389,7 +9612,10 @@
         <v>706</v>
       </c>
       <c r="AJ7" t="n">
-        <v>654</v>
+        <v>661</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>685</v>
       </c>
     </row>
     <row r="8">
@@ -9505,6 +9731,9 @@
       <c r="AJ8" t="n">
         <v>102</v>
       </c>
+      <c r="AK8" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9619,6 +9848,9 @@
       <c r="AJ9" t="n">
         <v>95</v>
       </c>
+      <c r="AK9" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9731,7 +9963,10 @@
         <v>639</v>
       </c>
       <c r="AJ10" t="n">
-        <v>596</v>
+        <v>597</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>622</v>
       </c>
     </row>
     <row r="11">
@@ -9845,7 +10080,10 @@
         <v>745</v>
       </c>
       <c r="AJ11" t="n">
-        <v>674</v>
+        <v>678</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>704</v>
       </c>
     </row>
     <row r="12">
@@ -9959,7 +10197,10 @@
         <v>514</v>
       </c>
       <c r="AJ12" t="n">
-        <v>492</v>
+        <v>494</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>503</v>
       </c>
     </row>
     <row r="13">
@@ -10073,7 +10314,10 @@
         <v>303</v>
       </c>
       <c r="AJ13" t="n">
-        <v>281</v>
+        <v>283</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>302</v>
       </c>
     </row>
     <row r="14">
@@ -10189,6 +10433,9 @@
       <c r="AJ14" t="n">
         <v>400</v>
       </c>
+      <c r="AK14" t="n">
+        <v>406</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10301,7 +10548,10 @@
         <v>1136</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1047</v>
+        <v>1055</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1103</v>
       </c>
     </row>
     <row r="16">
@@ -10417,6 +10667,9 @@
       <c r="AJ16" t="n">
         <v>132</v>
       </c>
+      <c r="AK16" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10531,6 +10784,9 @@
       <c r="AJ17" t="n">
         <v>296</v>
       </c>
+      <c r="AK17" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10643,7 +10899,10 @@
         <v>1138</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1019</v>
+        <v>1027</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1072</v>
       </c>
     </row>
     <row r="19">
@@ -10759,6 +11018,9 @@
       <c r="AJ19" t="n">
         <v>249</v>
       </c>
+      <c r="AK19" t="n">
+        <v>269</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -10873,6 +11135,9 @@
       <c r="AJ20" t="n">
         <v>83</v>
       </c>
+      <c r="AK20" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10985,7 +11250,10 @@
         <v>239</v>
       </c>
       <c r="AJ21" t="n">
-        <v>231</v>
+        <v>236</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="22">
@@ -11101,6 +11369,9 @@
       <c r="AJ22" t="n">
         <v>128</v>
       </c>
+      <c r="AK22" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -11213,13 +11484,16 @@
         <v>76</v>
       </c>
       <c r="AJ23" t="n">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 18. 11. 2021</t>
+          <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 8. 12. 2021</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -11257,6 +11531,7 @@
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_02_zasazeni_domacnosti.xlsx
+++ b/ZBP_02_zasazeni_domacnosti.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL68"/>
+  <dimension ref="A1:AM68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,6 +650,11 @@
           <t>30. 11. 2021</t>
         </is>
       </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>28. 12. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -674,40 +679,40 @@
         <v>0.18</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G2" t="n">
         <v>0.17</v>
       </c>
       <c r="H2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="J2" t="n">
         <v>0.15</v>
       </c>
       <c r="K2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="L2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="M2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="N2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="O2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="P2" t="n">
         <v>0.12</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="R2" t="n">
         <v>0.11</v>
@@ -719,10 +724,10 @@
         <v>0.12</v>
       </c>
       <c r="U2" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="V2" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="W2" t="n">
         <v>0.12</v>
@@ -734,10 +739,10 @@
         <v>0.11</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AB2" t="n">
         <v>0.1</v>
@@ -746,22 +751,22 @@
         <v>0.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AH2" t="n">
         <v>0.09</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AJ2" t="n">
         <v>0.09</v>
@@ -771,6 +776,9 @@
       </c>
       <c r="AL2" t="n">
         <v>0.1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -796,19 +804,19 @@
         <v>0.19</v>
       </c>
       <c r="F3" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="G3" t="n">
         <v>0.17</v>
       </c>
       <c r="H3" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I3" t="n">
         <v>0.18</v>
       </c>
       <c r="J3" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="K3" t="n">
         <v>0.18</v>
@@ -841,10 +849,10 @@
         <v>0.18</v>
       </c>
       <c r="U3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="V3" t="n">
         <v>0.18</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.17</v>
       </c>
       <c r="W3" t="n">
         <v>0.17</v>
@@ -856,10 +864,10 @@
         <v>0.17</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="AB3" t="n">
         <v>0.17</v>
@@ -877,10 +885,10 @@
         <v>0.17</v>
       </c>
       <c r="AG3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AH3" t="n">
         <v>0.17</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.18</v>
       </c>
       <c r="AI3" t="n">
         <v>0.18</v>
@@ -892,6 +900,9 @@
         <v>0.19</v>
       </c>
       <c r="AL3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AM3" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -924,34 +935,34 @@
         <v>0.66</v>
       </c>
       <c r="H4" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="I4" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="J4" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="K4" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="L4" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="N4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.71</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.7</v>
       </c>
       <c r="P4" t="n">
         <v>0.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="R4" t="n">
         <v>0.7</v>
@@ -963,10 +974,10 @@
         <v>0.7</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="V4" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="W4" t="n">
         <v>0.71</v>
@@ -990,22 +1001,22 @@
         <v>0.72</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="AJ4" t="n">
         <v>0.74</v>
@@ -1015,6 +1026,9 @@
       </c>
       <c r="AL4" t="n">
         <v>0.72</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row r="5">
@@ -1138,6 +1152,9 @@
       <c r="AL5" t="n">
         <v>0.08</v>
       </c>
+      <c r="AM5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1260,6 +1277,9 @@
       <c r="AL6" t="n">
         <v>0.13</v>
       </c>
+      <c r="AM6" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1382,6 +1402,9 @@
       <c r="AL7" t="n">
         <v>0.79</v>
       </c>
+      <c r="AM7" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1504,6 +1527,9 @@
       <c r="AL8" t="n">
         <v>0.01</v>
       </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1626,6 +1652,9 @@
       <c r="AL9" t="n">
         <v>0.15</v>
       </c>
+      <c r="AM9" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1748,6 +1777,9 @@
       <c r="AL10" t="n">
         <v>0.84</v>
       </c>
+      <c r="AM10" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1870,6 +1902,9 @@
       <c r="AL11" t="n">
         <v>0.11</v>
       </c>
+      <c r="AM11" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1992,6 +2027,9 @@
       <c r="AL12" t="n">
         <v>0.24</v>
       </c>
+      <c r="AM12" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2114,6 +2152,9 @@
       <c r="AL13" t="n">
         <v>0.65</v>
       </c>
+      <c r="AM13" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2236,6 +2277,9 @@
       <c r="AL14" t="n">
         <v>0.23</v>
       </c>
+      <c r="AM14" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2358,6 +2402,9 @@
       <c r="AL15" t="n">
         <v>0.18</v>
       </c>
+      <c r="AM15" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2480,6 +2527,9 @@
       <c r="AL16" t="n">
         <v>0.59</v>
       </c>
+      <c r="AM16" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2602,6 +2652,9 @@
       <c r="AL17" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AM17" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2724,6 +2777,9 @@
       <c r="AL18" t="n">
         <v>0.13</v>
       </c>
+      <c r="AM18" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2846,6 +2902,9 @@
       <c r="AL19" t="n">
         <v>0.8</v>
       </c>
+      <c r="AM19" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2968,6 +3027,9 @@
       <c r="AL20" t="n">
         <v>0.01</v>
       </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3090,6 +3152,9 @@
       <c r="AL21" t="n">
         <v>0.15</v>
       </c>
+      <c r="AM21" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3212,6 +3277,9 @@
       <c r="AL22" t="n">
         <v>0.84</v>
       </c>
+      <c r="AM22" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3236,7 +3304,7 @@
         <v>0.26</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="G23" t="n">
         <v>0.29</v>
@@ -3245,49 +3313,49 @@
         <v>0.32</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="J23" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="K23" t="n">
         <v>0.24</v>
       </c>
       <c r="L23" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="M23" t="n">
         <v>0.22</v>
       </c>
       <c r="N23" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="O23" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="P23" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="R23" t="n">
         <v>0.23</v>
       </c>
       <c r="S23" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="T23" t="n">
         <v>0.23</v>
       </c>
       <c r="U23" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="V23" t="n">
         <v>0.23</v>
       </c>
       <c r="W23" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="X23" t="n">
         <v>0.19</v>
@@ -3299,40 +3367,43 @@
         <v>0.22</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="AC23" t="n">
         <v>0.18</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="AG23" t="n">
         <v>0.22</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="AJ23" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AM23" t="n">
         <v>0.19</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0.16</v>
       </c>
     </row>
     <row r="24">
@@ -3376,10 +3447,10 @@
         <v>0.2</v>
       </c>
       <c r="L24" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M24" t="n">
         <v>0.17</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.2</v>
       </c>
       <c r="N24" t="n">
         <v>0.18</v>
@@ -3388,34 +3459,34 @@
         <v>0.18</v>
       </c>
       <c r="P24" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="R24" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="S24" t="n">
         <v>0.17</v>
       </c>
       <c r="T24" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="U24" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="V24" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="W24" t="n">
         <v>0.15</v>
       </c>
       <c r="X24" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="Z24" t="n">
         <v>0.18</v>
@@ -3424,37 +3495,40 @@
         <v>0.21</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AD24" t="n">
         <v>0.2</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AI24" t="n">
         <v>0.18</v>
       </c>
       <c r="AJ24" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AL24" t="n">
         <v>0.18</v>
       </c>
-      <c r="AK24" t="n">
+      <c r="AM24" t="n">
         <v>0.17</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0.2</v>
       </c>
     </row>
     <row r="25">
@@ -3480,7 +3554,7 @@
         <v>0.53</v>
       </c>
       <c r="F25" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="G25" t="n">
         <v>0.59</v>
@@ -3489,93 +3563,96 @@
         <v>0.53</v>
       </c>
       <c r="I25" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="J25" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="K25" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="L25" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="M25" t="n">
         <v>0.61</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="T25" t="n">
         <v>0.58</v>
       </c>
-      <c r="N25" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="O25" t="n">
+      <c r="U25" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="X25" t="n">
         <v>0.6</v>
       </c>
-      <c r="P25" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0.59</v>
-      </c>
       <c r="Y25" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="Z25" t="n">
         <v>0.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="AF25" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AG25" t="n">
         <v>0.63</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AH25" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL25" t="n">
         <v>0.64</v>
       </c>
-      <c r="AH25" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AL25" t="n">
+      <c r="AM25" t="n">
         <v>0.64</v>
       </c>
     </row>
@@ -3700,6 +3777,9 @@
       <c r="AL26" t="n">
         <v>0.12</v>
       </c>
+      <c r="AM26" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3822,6 +3902,9 @@
       <c r="AL27" t="n">
         <v>0.23</v>
       </c>
+      <c r="AM27" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3944,6 +4027,9 @@
       <c r="AL28" t="n">
         <v>0.65</v>
       </c>
+      <c r="AM28" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4066,6 +4152,9 @@
       <c r="AL29" t="n">
         <v>0.18</v>
       </c>
+      <c r="AM29" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4188,6 +4277,9 @@
       <c r="AL30" t="n">
         <v>0.27</v>
       </c>
+      <c r="AM30" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4310,6 +4402,9 @@
       <c r="AL31" t="n">
         <v>0.55</v>
       </c>
+      <c r="AM31" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4432,6 +4527,9 @@
       <c r="AL32" t="n">
         <v>0.06</v>
       </c>
+      <c r="AM32" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4554,6 +4652,9 @@
       <c r="AL33" t="n">
         <v>0.15</v>
       </c>
+      <c r="AM33" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4676,6 +4777,9 @@
       <c r="AL34" t="n">
         <v>0.79</v>
       </c>
+      <c r="AM34" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4798,6 +4902,9 @@
       <c r="AL35" t="n">
         <v>0.015</v>
       </c>
+      <c r="AM35" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4920,6 +5027,9 @@
       <c r="AL36" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AM36" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5042,6 +5152,9 @@
       <c r="AL37" t="n">
         <v>0.915</v>
       </c>
+      <c r="AM37" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5164,6 +5277,9 @@
       <c r="AL38" t="n">
         <v>0.16</v>
       </c>
+      <c r="AM38" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5286,6 +5402,9 @@
       <c r="AL39" t="n">
         <v>0.19</v>
       </c>
+      <c r="AM39" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5408,6 +5527,9 @@
       <c r="AL40" t="n">
         <v>0.65</v>
       </c>
+      <c r="AM40" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5530,6 +5652,9 @@
       <c r="AL41" t="n">
         <v>0.08</v>
       </c>
+      <c r="AM41" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5652,6 +5777,9 @@
       <c r="AL42" t="n">
         <v>0.18</v>
       </c>
+      <c r="AM42" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5774,6 +5902,9 @@
       <c r="AL43" t="n">
         <v>0.74</v>
       </c>
+      <c r="AM43" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5801,31 +5932,31 @@
         <v>0.98</v>
       </c>
       <c r="G44" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="H44" t="n">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="I44" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="J44" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="K44" t="n">
         <v>0.86</v>
       </c>
       <c r="L44" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="M44" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="N44" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="O44" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="P44" t="n">
         <v>0.78</v>
@@ -5834,67 +5965,70 @@
         <v>0.8</v>
       </c>
       <c r="R44" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="S44" t="n">
         <v>0.75</v>
       </c>
       <c r="T44" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="W44" t="n">
         <v>0.77</v>
       </c>
-      <c r="U44" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0.73</v>
-      </c>
       <c r="X44" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="AB44" t="n">
         <v>0.74</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="AF44" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="AG44" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AJ44" t="n">
         <v>0.68</v>
       </c>
-      <c r="AH44" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>0.65</v>
-      </c>
       <c r="AK44" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AM44" t="n">
         <v>0.67</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -5941,82 +6075,85 @@
         <v>0.06</v>
       </c>
       <c r="M45" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="N45" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q45" t="n">
         <v>0.08</v>
       </c>
-      <c r="O45" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="R45" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="S45" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="T45" t="n">
         <v>0.11</v>
       </c>
       <c r="U45" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="V45" t="n">
         <v>0.12</v>
       </c>
       <c r="W45" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="X45" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z45" t="n">
         <v>0.09</v>
       </c>
       <c r="AA45" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AI45" t="n">
         <v>0.12</v>
       </c>
-      <c r="AB45" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>0.15</v>
-      </c>
       <c r="AJ45" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="AK45" t="n">
         <v>0.14</v>
       </c>
       <c r="AL45" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="46">
@@ -6045,22 +6182,22 @@
         <v>0.01</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="H46" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I46" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="J46" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K46" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="L46" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="M46" t="n">
         <v>0.09</v>
@@ -6072,73 +6209,76 @@
         <v>0.14</v>
       </c>
       <c r="P46" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="R46" t="n">
         <v>0.13</v>
       </c>
       <c r="S46" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AA46" t="n">
         <v>0.1</v>
       </c>
-      <c r="T46" t="n">
+      <c r="AB46" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AH46" t="n">
         <v>0.12</v>
       </c>
-      <c r="U46" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Y46" t="n">
+      <c r="AI46" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AK46" t="n">
         <v>0.16</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>0.19</v>
       </c>
       <c r="AL46" t="n">
         <v>0.15</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="47">
@@ -6176,28 +6316,28 @@
         <v>0.18</v>
       </c>
       <c r="J47" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="K47" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="L47" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="M47" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="N47" t="n">
         <v>0.12</v>
       </c>
       <c r="O47" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="P47" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="R47" t="n">
         <v>0.1</v>
@@ -6209,25 +6349,25 @@
         <v>0.1</v>
       </c>
       <c r="U47" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="V47" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="W47" t="n">
         <v>0.14</v>
       </c>
       <c r="X47" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AB47" t="n">
         <v>0.09</v>
@@ -6242,7 +6382,7 @@
         <v>0.08</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AG47" t="n">
         <v>0.1</v>
@@ -6251,16 +6391,19 @@
         <v>0.09</v>
       </c>
       <c r="AI47" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AJ47" t="n">
         <v>0.09</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>0.1</v>
       </c>
       <c r="AK47" t="n">
         <v>0.11</v>
       </c>
       <c r="AL47" t="n">
         <v>0.11</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="48">
@@ -6289,31 +6432,31 @@
         <v>0.58</v>
       </c>
       <c r="G48" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="H48" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="I48" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="J48" t="n">
         <v>0.62</v>
       </c>
       <c r="K48" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O48" t="n">
         <v>0.6</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0.58</v>
       </c>
       <c r="P48" t="n">
         <v>0.62</v>
@@ -6322,49 +6465,49 @@
         <v>0.63</v>
       </c>
       <c r="R48" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="S48" t="n">
         <v>0.63</v>
       </c>
       <c r="T48" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="U48" t="n">
         <v>0.61</v>
       </c>
-      <c r="U48" t="n">
+      <c r="V48" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="Y48" t="n">
         <v>0.58</v>
       </c>
-      <c r="V48" t="n">
+      <c r="Z48" t="n">
         <v>0.58</v>
-      </c>
-      <c r="W48" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="X48" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>0.57</v>
       </c>
       <c r="AA48" t="n">
         <v>0.58</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AC48" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AE48" t="n">
         <v>0.6</v>
       </c>
-      <c r="AD48" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>0.59</v>
-      </c>
       <c r="AF48" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
       <c r="AG48" t="n">
         <v>0.55</v>
@@ -6373,16 +6516,19 @@
         <v>0.57</v>
       </c>
       <c r="AI48" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="AJ48" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="AK48" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AL48" t="n">
         <v>0.6</v>
       </c>
-      <c r="AL48" t="n">
-        <v>0.58</v>
+      <c r="AM48" t="n">
+        <v>0.57</v>
       </c>
     </row>
     <row r="49">
@@ -6411,16 +6557,16 @@
         <v>0.19</v>
       </c>
       <c r="G49" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I49" t="n">
         <v>0.21</v>
       </c>
-      <c r="H49" t="n">
+      <c r="J49" t="n">
         <v>0.21</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.22</v>
       </c>
       <c r="K49" t="n">
         <v>0.24</v>
@@ -6432,61 +6578,61 @@
         <v>0.26</v>
       </c>
       <c r="N49" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="O49" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="P49" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="R49" t="n">
         <v>0.27</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="R49" t="n">
-        <v>0.26</v>
       </c>
       <c r="S49" t="n">
         <v>0.28</v>
       </c>
       <c r="T49" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="U49" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="V49" t="n">
         <v>0.3</v>
       </c>
-      <c r="V49" t="n">
-        <v>0.31</v>
-      </c>
       <c r="W49" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="X49" t="n">
         <v>0.28</v>
-      </c>
-      <c r="X49" t="n">
-        <v>0.29</v>
       </c>
       <c r="Y49" t="n">
         <v>0.34</v>
       </c>
       <c r="Z49" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AD49" t="n">
         <v>0.3</v>
       </c>
-      <c r="AA49" t="n">
+      <c r="AE49" t="n">
         <v>0.32</v>
       </c>
-      <c r="AB49" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AD49" t="n">
+      <c r="AF49" t="n">
         <v>0.31</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>0.33</v>
       </c>
       <c r="AG49" t="n">
         <v>0.35</v>
@@ -6495,16 +6641,19 @@
         <v>0.34</v>
       </c>
       <c r="AI49" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="AJ49" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="AK49" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AL49" t="n">
         <v>0.29</v>
       </c>
-      <c r="AL49" t="n">
-        <v>0.31</v>
+      <c r="AM49" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="50">
@@ -6530,70 +6679,70 @@
         <v>0.05</v>
       </c>
       <c r="F50" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G50" t="n">
         <v>0.06</v>
       </c>
       <c r="H50" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I50" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="J50" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="K50" t="n">
         <v>0.05</v>
       </c>
       <c r="L50" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="M50" t="n">
         <v>0.04</v>
       </c>
       <c r="N50" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="O50" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="P50" t="n">
         <v>0.04</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="R50" t="n">
         <v>0.04</v>
       </c>
       <c r="S50" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="T50" t="n">
         <v>0.05</v>
       </c>
       <c r="U50" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="V50" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="W50" t="n">
         <v>0.04</v>
       </c>
       <c r="X50" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z50" t="n">
         <v>0.04</v>
       </c>
-      <c r="Y50" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AA50" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AB50" t="n">
         <v>0.03</v>
@@ -6602,16 +6751,16 @@
         <v>0.03</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AH50" t="n">
         <v>0.02</v>
@@ -6623,10 +6772,13 @@
         <v>0.02</v>
       </c>
       <c r="AK50" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AL50" t="n">
         <v>0.02</v>
       </c>
-      <c r="AL50" t="n">
-        <v>0.03</v>
+      <c r="AM50" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="51">
@@ -6652,7 +6804,7 @@
         <v>0.05</v>
       </c>
       <c r="F51" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G51" t="n">
         <v>0.08</v>
@@ -6661,13 +6813,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="J51" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="K51" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="L51" t="n">
         <v>0.08</v>
@@ -6676,19 +6828,19 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="N51" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="O51" t="n">
         <v>0.08</v>
       </c>
       <c r="P51" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Q51" t="n">
         <v>0.08</v>
       </c>
       <c r="R51" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="S51" t="n">
         <v>0.09</v>
@@ -6700,7 +6852,7 @@
         <v>0.08</v>
       </c>
       <c r="V51" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="W51" t="n">
         <v>0.08</v>
@@ -6721,7 +6873,7 @@
         <v>0.08</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AD51" t="n">
         <v>0.08</v>
@@ -6745,10 +6897,13 @@
         <v>0.08</v>
       </c>
       <c r="AK51" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AL51" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="52">
@@ -6774,25 +6929,25 @@
         <v>0.9</v>
       </c>
       <c r="F52" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="G52" t="n">
         <v>0.86</v>
       </c>
       <c r="H52" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="I52" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="J52" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="K52" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="L52" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="M52" t="n">
         <v>0.89</v>
@@ -6801,61 +6956,61 @@
         <v>0.89</v>
       </c>
       <c r="O52" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="P52" t="n">
         <v>0.88</v>
       </c>
-      <c r="P52" t="n">
+      <c r="Q52" t="n">
         <v>0.89</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="R52" t="n">
         <v>0.88</v>
       </c>
-      <c r="R52" t="n">
+      <c r="S52" t="n">
         <v>0.87</v>
-      </c>
-      <c r="S52" t="n">
-        <v>0.86</v>
       </c>
       <c r="T52" t="n">
         <v>0.87</v>
       </c>
       <c r="U52" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="V52" t="n">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="W52" t="n">
         <v>0.88</v>
       </c>
       <c r="X52" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Y52" t="n">
         <v>0.88</v>
       </c>
-      <c r="Y52" t="n">
+      <c r="Z52" t="n">
         <v>0.87</v>
       </c>
-      <c r="Z52" t="n">
-        <v>0.86</v>
-      </c>
       <c r="AA52" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AB52" t="n">
         <v>0.89</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AH52" t="n">
         <v>0.9</v>
@@ -6867,10 +7022,13 @@
         <v>0.9</v>
       </c>
       <c r="AK52" t="n">
-        <v>0.89</v>
+        <v>0.905</v>
       </c>
       <c r="AL52" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0.91</v>
       </c>
     </row>
     <row r="53">
@@ -6994,6 +7152,9 @@
       <c r="AL53" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM53" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7116,6 +7277,9 @@
       <c r="AL54" t="n">
         <v>0.19</v>
       </c>
+      <c r="AM54" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7238,6 +7402,9 @@
       <c r="AL55" t="n">
         <v>0.71</v>
       </c>
+      <c r="AM55" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7360,6 +7527,9 @@
       <c r="AL56" t="n">
         <v>0</v>
       </c>
+      <c r="AM56" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7482,6 +7652,9 @@
       <c r="AL57" t="n">
         <v>0.11</v>
       </c>
+      <c r="AM57" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7604,6 +7777,9 @@
       <c r="AL58" t="n">
         <v>0.89</v>
       </c>
+      <c r="AM58" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7726,6 +7902,9 @@
       <c r="AL59" t="n">
         <v>0.08</v>
       </c>
+      <c r="AM59" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7848,6 +8027,9 @@
       <c r="AL60" t="n">
         <v>0.19</v>
       </c>
+      <c r="AM60" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7970,6 +8152,9 @@
       <c r="AL61" t="n">
         <v>0.73</v>
       </c>
+      <c r="AM61" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8092,6 +8277,9 @@
       <c r="AL62" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM62" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8214,6 +8402,9 @@
       <c r="AL63" t="n">
         <v>0.04</v>
       </c>
+      <c r="AM63" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8336,6 +8527,9 @@
       <c r="AL64" t="n">
         <v>0.91</v>
       </c>
+      <c r="AM64" t="n">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8458,6 +8652,9 @@
       <c r="AL65" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM65" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8580,6 +8777,9 @@
       <c r="AL66" t="n">
         <v>0.09</v>
       </c>
+      <c r="AM66" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8702,11 +8902,14 @@
       <c r="AL67" t="n">
         <v>0.86</v>
       </c>
+      <c r="AM67" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 8. 12. 2021</t>
+          <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 6. 1. 2022</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8924,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK24"/>
+  <dimension ref="A1:AL24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8915,6 +9118,11 @@
           <t>30. 11. 2021</t>
         </is>
       </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>28. 12. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -9032,6 +9240,9 @@
       <c r="AK2" t="n">
         <v>1509</v>
       </c>
+      <c r="AL2" t="n">
+        <v>1507</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9149,6 +9360,9 @@
       <c r="AK3" t="n">
         <v>718</v>
       </c>
+      <c r="AL3" t="n">
+        <v>715</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9266,6 +9480,9 @@
       <c r="AK4" t="n">
         <v>112</v>
       </c>
+      <c r="AL4" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9383,6 +9600,9 @@
       <c r="AK5" t="n">
         <v>475</v>
       </c>
+      <c r="AL5" t="n">
+        <v>464</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9500,6 +9720,9 @@
       <c r="AK6" t="n">
         <v>204</v>
       </c>
+      <c r="AL6" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9617,6 +9840,9 @@
       <c r="AK7" t="n">
         <v>685</v>
       </c>
+      <c r="AL7" t="n">
+        <v>682</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9734,6 +9960,9 @@
       <c r="AK8" t="n">
         <v>99</v>
       </c>
+      <c r="AL8" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9851,6 +10080,9 @@
       <c r="AK9" t="n">
         <v>103</v>
       </c>
+      <c r="AL9" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9968,6 +10200,9 @@
       <c r="AK10" t="n">
         <v>622</v>
       </c>
+      <c r="AL10" t="n">
+        <v>618</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10085,6 +10320,9 @@
       <c r="AK11" t="n">
         <v>704</v>
       </c>
+      <c r="AL11" t="n">
+        <v>703</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10202,6 +10440,9 @@
       <c r="AK12" t="n">
         <v>503</v>
       </c>
+      <c r="AL12" t="n">
+        <v>511</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10319,6 +10560,9 @@
       <c r="AK13" t="n">
         <v>302</v>
       </c>
+      <c r="AL13" t="n">
+        <v>293</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10436,6 +10680,9 @@
       <c r="AK14" t="n">
         <v>406</v>
       </c>
+      <c r="AL14" t="n">
+        <v>422</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10553,6 +10800,9 @@
       <c r="AK15" t="n">
         <v>1103</v>
       </c>
+      <c r="AL15" t="n">
+        <v>1085</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10670,6 +10920,9 @@
       <c r="AK16" t="n">
         <v>137</v>
       </c>
+      <c r="AL16" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10787,6 +11040,9 @@
       <c r="AK17" t="n">
         <v>300</v>
       </c>
+      <c r="AL17" t="n">
+        <v>294</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10904,6 +11160,9 @@
       <c r="AK18" t="n">
         <v>1072</v>
       </c>
+      <c r="AL18" t="n">
+        <v>1078</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11021,6 +11280,9 @@
       <c r="AK19" t="n">
         <v>269</v>
       </c>
+      <c r="AL19" t="n">
+        <v>262</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11138,6 +11400,9 @@
       <c r="AK20" t="n">
         <v>94</v>
       </c>
+      <c r="AL20" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11255,6 +11520,9 @@
       <c r="AK21" t="n">
         <v>224</v>
       </c>
+      <c r="AL21" t="n">
+        <v>246</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -11372,6 +11640,9 @@
       <c r="AK22" t="n">
         <v>138</v>
       </c>
+      <c r="AL22" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -11489,11 +11760,14 @@
       <c r="AK23" t="n">
         <v>83</v>
       </c>
+      <c r="AL23" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 8. 12. 2021</t>
+          <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 1. 2022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -11532,6 +11806,7 @@
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_02_zasazeni_domacnosti.xlsx
+++ b/ZBP_02_zasazeni_domacnosti.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM68"/>
+  <dimension ref="A1:AN68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,6 +655,11 @@
           <t>28. 12. 2021</t>
         </is>
       </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>25. 1. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -780,6 +785,9 @@
       <c r="AM2" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN2" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -905,6 +913,9 @@
       <c r="AM3" t="n">
         <v>0.18</v>
       </c>
+      <c r="AN3" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1030,6 +1041,9 @@
       <c r="AM4" t="n">
         <v>0.73</v>
       </c>
+      <c r="AN4" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1155,6 +1169,9 @@
       <c r="AM5" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1280,6 +1297,9 @@
       <c r="AM6" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN6" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1405,6 +1425,9 @@
       <c r="AM7" t="n">
         <v>0.78</v>
       </c>
+      <c r="AN7" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1530,6 +1553,9 @@
       <c r="AM8" t="n">
         <v>0</v>
       </c>
+      <c r="AN8" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1655,6 +1681,9 @@
       <c r="AM9" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN9" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1780,6 +1809,9 @@
       <c r="AM10" t="n">
         <v>0.85</v>
       </c>
+      <c r="AN10" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1905,6 +1937,9 @@
       <c r="AM11" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN11" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2030,6 +2065,9 @@
       <c r="AM12" t="n">
         <v>0.23</v>
       </c>
+      <c r="AN12" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2155,6 +2193,9 @@
       <c r="AM13" t="n">
         <v>0.68</v>
       </c>
+      <c r="AN13" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2280,6 +2321,9 @@
       <c r="AM14" t="n">
         <v>0.23</v>
       </c>
+      <c r="AN14" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2405,6 +2449,9 @@
       <c r="AM15" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN15" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2530,6 +2577,9 @@
       <c r="AM16" t="n">
         <v>0.68</v>
       </c>
+      <c r="AN16" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2655,6 +2705,9 @@
       <c r="AM17" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN17" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2780,6 +2833,9 @@
       <c r="AM18" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN18" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2905,6 +2961,9 @@
       <c r="AM19" t="n">
         <v>0.78</v>
       </c>
+      <c r="AN19" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3030,6 +3089,9 @@
       <c r="AM20" t="n">
         <v>0</v>
       </c>
+      <c r="AN20" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3155,6 +3217,9 @@
       <c r="AM21" t="n">
         <v>0.14</v>
       </c>
+      <c r="AN21" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3280,6 +3345,9 @@
       <c r="AM22" t="n">
         <v>0.86</v>
       </c>
+      <c r="AN22" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3405,6 +3473,9 @@
       <c r="AM23" t="n">
         <v>0.19</v>
       </c>
+      <c r="AN23" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3530,6 +3601,9 @@
       <c r="AM24" t="n">
         <v>0.17</v>
       </c>
+      <c r="AN24" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3655,6 +3729,9 @@
       <c r="AM25" t="n">
         <v>0.64</v>
       </c>
+      <c r="AN25" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3780,6 +3857,9 @@
       <c r="AM26" t="n">
         <v>0.11</v>
       </c>
+      <c r="AN26" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3905,6 +3985,9 @@
       <c r="AM27" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN27" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4030,6 +4113,9 @@
       <c r="AM28" t="n">
         <v>0.68</v>
       </c>
+      <c r="AN28" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4155,6 +4241,9 @@
       <c r="AM29" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN29" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4280,6 +4369,9 @@
       <c r="AM30" t="n">
         <v>0.27</v>
       </c>
+      <c r="AN30" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4405,6 +4497,9 @@
       <c r="AM31" t="n">
         <v>0.58</v>
       </c>
+      <c r="AN31" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4530,6 +4625,9 @@
       <c r="AM32" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN32" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4655,6 +4753,9 @@
       <c r="AM33" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN33" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4780,6 +4881,9 @@
       <c r="AM34" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="AN34" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4905,6 +5009,9 @@
       <c r="AM35" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN35" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5030,6 +5137,9 @@
       <c r="AM36" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN36" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5155,6 +5265,9 @@
       <c r="AM37" t="n">
         <v>0.91</v>
       </c>
+      <c r="AN37" t="n">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5280,6 +5393,9 @@
       <c r="AM38" t="n">
         <v>0.17</v>
       </c>
+      <c r="AN38" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5405,6 +5521,9 @@
       <c r="AM39" t="n">
         <v>0.16</v>
       </c>
+      <c r="AN39" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5530,6 +5649,9 @@
       <c r="AM40" t="n">
         <v>0.67</v>
       </c>
+      <c r="AN40" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5655,6 +5777,9 @@
       <c r="AM41" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN41" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5780,6 +5905,9 @@
       <c r="AM42" t="n">
         <v>0.18</v>
       </c>
+      <c r="AN42" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5905,6 +6033,9 @@
       <c r="AM43" t="n">
         <v>0.76</v>
       </c>
+      <c r="AN43" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6030,6 +6161,9 @@
       <c r="AM44" t="n">
         <v>0.67</v>
       </c>
+      <c r="AN44" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6155,6 +6289,9 @@
       <c r="AM45" t="n">
         <v>0.17</v>
       </c>
+      <c r="AN45" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6280,6 +6417,9 @@
       <c r="AM46" t="n">
         <v>0.16</v>
       </c>
+      <c r="AN46" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6405,6 +6545,9 @@
       <c r="AM47" t="n">
         <v>0.1</v>
       </c>
+      <c r="AN47" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6530,6 +6673,9 @@
       <c r="AM48" t="n">
         <v>0.57</v>
       </c>
+      <c r="AN48" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6655,6 +6801,9 @@
       <c r="AM49" t="n">
         <v>0.33</v>
       </c>
+      <c r="AN49" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6780,6 +6929,9 @@
       <c r="AM50" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN50" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6905,6 +7057,9 @@
       <c r="AM51" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN51" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7030,6 +7185,9 @@
       <c r="AM52" t="n">
         <v>0.91</v>
       </c>
+      <c r="AN52" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7155,6 +7313,9 @@
       <c r="AM53" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN53" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7280,6 +7441,9 @@
       <c r="AM54" t="n">
         <v>0.2</v>
       </c>
+      <c r="AN54" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7405,6 +7569,9 @@
       <c r="AM55" t="n">
         <v>0.73</v>
       </c>
+      <c r="AN55" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7530,6 +7697,9 @@
       <c r="AM56" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7655,6 +7825,9 @@
       <c r="AM57" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN57" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7780,6 +7953,9 @@
       <c r="AM58" t="n">
         <v>0.88</v>
       </c>
+      <c r="AN58" t="n">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7905,6 +8081,9 @@
       <c r="AM59" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN59" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8030,6 +8209,9 @@
       <c r="AM60" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN60" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8155,6 +8337,9 @@
       <c r="AM61" t="n">
         <v>0.73</v>
       </c>
+      <c r="AN61" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8280,6 +8465,9 @@
       <c r="AM62" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN62" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8405,6 +8593,9 @@
       <c r="AM63" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN63" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8530,6 +8721,9 @@
       <c r="AM64" t="n">
         <v>0.89</v>
       </c>
+      <c r="AN64" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8655,6 +8849,9 @@
       <c r="AM65" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN65" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8780,6 +8977,9 @@
       <c r="AM66" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN66" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8905,11 +9105,14 @@
       <c r="AM67" t="n">
         <v>0.85</v>
       </c>
+      <c r="AN67" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
     </row>
@@ -8924,7 +9127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL24"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9123,6 +9326,11 @@
           <t>28. 12. 2021</t>
         </is>
       </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>25. 1. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -9243,6 +9451,9 @@
       <c r="AL2" t="n">
         <v>1507</v>
       </c>
+      <c r="AM2" t="n">
+        <v>1560</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9363,6 +9574,9 @@
       <c r="AL3" t="n">
         <v>715</v>
       </c>
+      <c r="AM3" t="n">
+        <v>740</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9483,6 +9697,9 @@
       <c r="AL4" t="n">
         <v>116</v>
       </c>
+      <c r="AM4" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9603,6 +9820,9 @@
       <c r="AL5" t="n">
         <v>464</v>
       </c>
+      <c r="AM5" t="n">
+        <v>483</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9723,6 +9943,9 @@
       <c r="AL6" t="n">
         <v>212</v>
       </c>
+      <c r="AM6" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9843,6 +10066,9 @@
       <c r="AL7" t="n">
         <v>682</v>
       </c>
+      <c r="AM7" t="n">
+        <v>707</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9963,6 +10189,9 @@
       <c r="AL8" t="n">
         <v>104</v>
       </c>
+      <c r="AM8" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -10083,6 +10312,9 @@
       <c r="AL9" t="n">
         <v>103</v>
       </c>
+      <c r="AM9" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -10203,6 +10435,9 @@
       <c r="AL10" t="n">
         <v>618</v>
       </c>
+      <c r="AM10" t="n">
+        <v>639</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10323,6 +10558,9 @@
       <c r="AL11" t="n">
         <v>703</v>
       </c>
+      <c r="AM11" t="n">
+        <v>729</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10443,6 +10681,9 @@
       <c r="AL12" t="n">
         <v>511</v>
       </c>
+      <c r="AM12" t="n">
+        <v>529</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10563,6 +10804,9 @@
       <c r="AL13" t="n">
         <v>293</v>
       </c>
+      <c r="AM13" t="n">
+        <v>302</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10683,6 +10927,9 @@
       <c r="AL14" t="n">
         <v>422</v>
       </c>
+      <c r="AM14" t="n">
+        <v>429</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10803,6 +11050,9 @@
       <c r="AL15" t="n">
         <v>1085</v>
       </c>
+      <c r="AM15" t="n">
+        <v>1131</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10923,6 +11173,9 @@
       <c r="AL16" t="n">
         <v>135</v>
       </c>
+      <c r="AM16" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11043,6 +11296,9 @@
       <c r="AL17" t="n">
         <v>294</v>
       </c>
+      <c r="AM17" t="n">
+        <v>308</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11163,6 +11419,9 @@
       <c r="AL18" t="n">
         <v>1078</v>
       </c>
+      <c r="AM18" t="n">
+        <v>1111</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11283,6 +11542,9 @@
       <c r="AL19" t="n">
         <v>262</v>
       </c>
+      <c r="AM19" t="n">
+        <v>272</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11403,6 +11665,9 @@
       <c r="AL20" t="n">
         <v>77</v>
       </c>
+      <c r="AM20" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11523,6 +11788,9 @@
       <c r="AL21" t="n">
         <v>246</v>
       </c>
+      <c r="AM21" t="n">
+        <v>254</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -11643,6 +11911,9 @@
       <c r="AL22" t="n">
         <v>135</v>
       </c>
+      <c r="AM22" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -11763,11 +12034,14 @@
       <c r="AL23" t="n">
         <v>77</v>
       </c>
+      <c r="AM23" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -11807,6 +12081,7 @@
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_02_zasazeni_domacnosti.xlsx
+++ b/ZBP_02_zasazeni_domacnosti.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN68"/>
+  <dimension ref="A1:AO68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,7 +657,12 @@
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>25. 1. 2021</t>
+          <t>25. 1. 2022</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>22. 2. 2022</t>
         </is>
       </c>
     </row>
@@ -786,7 +791,10 @@
         <v>0.09</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
@@ -914,7 +922,10 @@
         <v>0.18</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -1042,7 +1053,10 @@
         <v>0.73</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.74</v>
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1170,6 +1184,9 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AN5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AO5" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -1298,7 +1315,10 @@
         <v>0.15</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="7">
@@ -1426,7 +1446,10 @@
         <v>0.78</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="8">
@@ -1554,6 +1577,9 @@
         <v>0</v>
       </c>
       <c r="AN8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AO8" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1682,6 +1708,9 @@
         <v>0.15</v>
       </c>
       <c r="AN9" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AO9" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1810,6 +1839,9 @@
         <v>0.85</v>
       </c>
       <c r="AN10" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AO10" t="n">
         <v>0.84</v>
       </c>
     </row>
@@ -1938,7 +1970,10 @@
         <v>0.09</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.08</v>
+        <v>0.24</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="12">
@@ -2066,7 +2101,10 @@
         <v>0.23</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="13">
@@ -2194,7 +2232,10 @@
         <v>0.68</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.61</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.61</v>
       </c>
     </row>
     <row r="14">
@@ -2322,7 +2363,10 @@
         <v>0.23</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="15">
@@ -2452,6 +2496,9 @@
       <c r="AN15" t="n">
         <v>0.16</v>
       </c>
+      <c r="AO15" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2578,7 +2625,10 @@
         <v>0.68</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.64</v>
+        <v>0.61</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.61</v>
       </c>
     </row>
     <row r="17">
@@ -2706,7 +2756,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="18">
@@ -2834,7 +2887,10 @@
         <v>0.15</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="19">
@@ -2962,7 +3018,10 @@
         <v>0.78</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.78</v>
       </c>
     </row>
     <row r="20">
@@ -3090,7 +3149,10 @@
         <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="21">
@@ -3218,7 +3280,10 @@
         <v>0.14</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="22">
@@ -3348,6 +3413,9 @@
       <c r="AN22" t="n">
         <v>0.83</v>
       </c>
+      <c r="AO22" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3474,7 +3542,10 @@
         <v>0.19</v>
       </c>
       <c r="AN23" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="24">
@@ -3602,7 +3673,10 @@
         <v>0.17</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="25">
@@ -3730,7 +3804,10 @@
         <v>0.64</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="26">
@@ -3858,7 +3935,10 @@
         <v>0.11</v>
       </c>
       <c r="AN26" t="n">
-        <v>0.1</v>
+        <v>0.23</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="27">
@@ -3986,7 +4066,10 @@
         <v>0.21</v>
       </c>
       <c r="AN27" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="28">
@@ -4114,7 +4197,10 @@
         <v>0.68</v>
       </c>
       <c r="AN28" t="n">
-        <v>0.68</v>
+        <v>0.62</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.61</v>
       </c>
     </row>
     <row r="29">
@@ -4242,7 +4328,10 @@
         <v>0.15</v>
       </c>
       <c r="AN29" t="n">
-        <v>0.14</v>
+        <v>0.28</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="30">
@@ -4370,7 +4459,10 @@
         <v>0.27</v>
       </c>
       <c r="AN30" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="31">
@@ -4498,7 +4590,10 @@
         <v>0.58</v>
       </c>
       <c r="AN31" t="n">
-        <v>0.6</v>
+        <v>0.52</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="32">
@@ -4626,7 +4721,10 @@
         <v>0.06</v>
       </c>
       <c r="AN32" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="33">
@@ -4754,7 +4852,10 @@
         <v>0.13</v>
       </c>
       <c r="AN33" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="34">
@@ -4882,7 +4983,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AN34" t="n">
-        <v>0.8</v>
+        <v>0.77</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="35">
@@ -5010,7 +5114,10 @@
         <v>0.02</v>
       </c>
       <c r="AN35" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="36">
@@ -5140,6 +5247,9 @@
       <c r="AN36" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO36" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5266,7 +5376,10 @@
         <v>0.91</v>
       </c>
       <c r="AN37" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="38">
@@ -5396,6 +5509,9 @@
       <c r="AN38" t="n">
         <v>0.18</v>
       </c>
+      <c r="AO38" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5524,6 +5640,9 @@
       <c r="AN39" t="n">
         <v>0.17</v>
       </c>
+      <c r="AO39" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5652,6 +5771,9 @@
       <c r="AN40" t="n">
         <v>0.65</v>
       </c>
+      <c r="AO40" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5778,7 +5900,10 @@
         <v>0.06</v>
       </c>
       <c r="AN41" t="n">
-        <v>0.06</v>
+        <v>0.15</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="42">
@@ -5906,7 +6031,10 @@
         <v>0.18</v>
       </c>
       <c r="AN42" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="43">
@@ -6034,7 +6162,10 @@
         <v>0.76</v>
       </c>
       <c r="AN43" t="n">
-        <v>0.76</v>
+        <v>0.71</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.71</v>
       </c>
     </row>
     <row r="44">
@@ -6162,7 +6293,10 @@
         <v>0.67</v>
       </c>
       <c r="AN44" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.68</v>
       </c>
     </row>
     <row r="45">
@@ -6290,7 +6424,10 @@
         <v>0.17</v>
       </c>
       <c r="AN45" t="n">
-        <v>0.19</v>
+        <v>0.11</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="46">
@@ -6418,7 +6555,10 @@
         <v>0.16</v>
       </c>
       <c r="AN46" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="47">
@@ -6546,7 +6686,10 @@
         <v>0.1</v>
       </c>
       <c r="AN47" t="n">
-        <v>0.11</v>
+        <v>0.31</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="48">
@@ -6674,7 +6817,10 @@
         <v>0.57</v>
       </c>
       <c r="AN48" t="n">
-        <v>0.55</v>
+        <v>0.42</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="49">
@@ -6802,7 +6948,10 @@
         <v>0.33</v>
       </c>
       <c r="AN49" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="50">
@@ -6930,7 +7079,10 @@
         <v>0.02</v>
       </c>
       <c r="AN50" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="51">
@@ -7060,6 +7212,9 @@
       <c r="AN51" t="n">
         <v>0.08</v>
       </c>
+      <c r="AO51" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7186,7 +7341,10 @@
         <v>0.91</v>
       </c>
       <c r="AN52" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="53">
@@ -7314,7 +7472,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AN53" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="54">
@@ -7442,7 +7603,10 @@
         <v>0.2</v>
       </c>
       <c r="AN54" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="55">
@@ -7570,7 +7734,10 @@
         <v>0.73</v>
       </c>
       <c r="AN55" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row r="56">
@@ -7700,6 +7867,9 @@
       <c r="AN56" t="n">
         <v>0</v>
       </c>
+      <c r="AO56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7826,7 +7996,10 @@
         <v>0.06</v>
       </c>
       <c r="AN57" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="58">
@@ -7954,7 +8127,10 @@
         <v>0.88</v>
       </c>
       <c r="AN58" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="59">
@@ -8082,7 +8258,10 @@
         <v>0.06</v>
       </c>
       <c r="AN59" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="60">
@@ -8210,7 +8389,10 @@
         <v>0.21</v>
       </c>
       <c r="AN60" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="61">
@@ -8338,7 +8520,10 @@
         <v>0.73</v>
       </c>
       <c r="AN61" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="62">
@@ -8468,6 +8653,9 @@
       <c r="AN62" t="n">
         <v>0.02</v>
       </c>
+      <c r="AO62" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8594,6 +8782,9 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AN63" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AO63" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -8722,7 +8913,10 @@
         <v>0.89</v>
       </c>
       <c r="AN64" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>0.87</v>
       </c>
     </row>
     <row r="65">
@@ -8850,7 +9044,10 @@
         <v>0.06</v>
       </c>
       <c r="AN65" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="66">
@@ -8978,7 +9175,10 @@
         <v>0.09</v>
       </c>
       <c r="AN66" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="67">
@@ -9106,13 +9306,16 @@
         <v>0.85</v>
       </c>
       <c r="AN67" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+          <t>Život během pandemie, Zasažení domácností, % respondentů celkově a ve skupinách, aktualizace 2. 3. 2022</t>
         </is>
       </c>
     </row>
@@ -9127,7 +9330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AN24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9328,7 +9531,12 @@
       </c>
       <c r="AM1" s="2" t="inlineStr">
         <is>
-          <t>25. 1. 2021</t>
+          <t>25. 1. 2022</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>22. 2. 2022</t>
         </is>
       </c>
     </row>
@@ -9452,7 +9660,10 @@
         <v>1507</v>
       </c>
       <c r="AM2" t="n">
-        <v>1560</v>
+        <v>1582</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1510</v>
       </c>
     </row>
     <row r="3">
@@ -9575,7 +9786,10 @@
         <v>715</v>
       </c>
       <c r="AM3" t="n">
-        <v>740</v>
+        <v>751</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>706</v>
       </c>
     </row>
     <row r="4">
@@ -9700,6 +9914,9 @@
       <c r="AM4" t="n">
         <v>124</v>
       </c>
+      <c r="AN4" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9821,7 +10038,10 @@
         <v>464</v>
       </c>
       <c r="AM5" t="n">
-        <v>483</v>
+        <v>492</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>476</v>
       </c>
     </row>
     <row r="6">
@@ -9944,7 +10164,10 @@
         <v>212</v>
       </c>
       <c r="AM6" t="n">
-        <v>213</v>
+        <v>215</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="7">
@@ -10067,7 +10290,10 @@
         <v>682</v>
       </c>
       <c r="AM7" t="n">
-        <v>707</v>
+        <v>716</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>670</v>
       </c>
     </row>
     <row r="8">
@@ -10192,6 +10418,9 @@
       <c r="AM8" t="n">
         <v>114</v>
       </c>
+      <c r="AN8" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -10313,7 +10542,10 @@
         <v>103</v>
       </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -10436,7 +10668,10 @@
         <v>618</v>
       </c>
       <c r="AM10" t="n">
-        <v>639</v>
+        <v>649</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>630</v>
       </c>
     </row>
     <row r="11">
@@ -10559,7 +10794,10 @@
         <v>703</v>
       </c>
       <c r="AM11" t="n">
-        <v>729</v>
+        <v>734</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>706</v>
       </c>
     </row>
     <row r="12">
@@ -10682,7 +10920,10 @@
         <v>511</v>
       </c>
       <c r="AM12" t="n">
-        <v>529</v>
+        <v>542</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>517</v>
       </c>
     </row>
     <row r="13">
@@ -10805,7 +11046,10 @@
         <v>293</v>
       </c>
       <c r="AM13" t="n">
-        <v>302</v>
+        <v>306</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>287</v>
       </c>
     </row>
     <row r="14">
@@ -10928,7 +11172,10 @@
         <v>422</v>
       </c>
       <c r="AM14" t="n">
-        <v>429</v>
+        <v>439</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>409</v>
       </c>
     </row>
     <row r="15">
@@ -11051,7 +11298,10 @@
         <v>1085</v>
       </c>
       <c r="AM15" t="n">
-        <v>1131</v>
+        <v>1143</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1101</v>
       </c>
     </row>
     <row r="16">
@@ -11174,7 +11424,10 @@
         <v>135</v>
       </c>
       <c r="AM16" t="n">
-        <v>141</v>
+        <v>144</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="17">
@@ -11297,7 +11550,10 @@
         <v>294</v>
       </c>
       <c r="AM17" t="n">
-        <v>308</v>
+        <v>312</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>288</v>
       </c>
     </row>
     <row r="18">
@@ -11420,7 +11676,10 @@
         <v>1078</v>
       </c>
       <c r="AM18" t="n">
-        <v>1111</v>
+        <v>1126</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1080</v>
       </c>
     </row>
     <row r="19">
@@ -11545,6 +11804,9 @@
       <c r="AM19" t="n">
         <v>272</v>
       </c>
+      <c r="AN19" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11666,7 +11928,10 @@
         <v>77</v>
       </c>
       <c r="AM20" t="n">
-        <v>83</v>
+        <v>86</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="21">
@@ -11789,7 +12054,10 @@
         <v>246</v>
       </c>
       <c r="AM21" t="n">
-        <v>254</v>
+        <v>257</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>243</v>
       </c>
     </row>
     <row r="22">
@@ -11912,7 +12180,10 @@
         <v>135</v>
       </c>
       <c r="AM22" t="n">
-        <v>140</v>
+        <v>143</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="23">
@@ -12037,11 +12308,14 @@
       <c r="AM23" t="n">
         <v>82</v>
       </c>
+      <c r="AN23" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+          <t>Život během pandemie, Zasažení domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 3. 2022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -12082,6 +12356,7 @@
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
